--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\temp\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1223,144 +1223,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>207288</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>111401</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="644353" cy="458800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト ボックス 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13452641" y="5378166"/>
-          <a:ext cx="644353" cy="458800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>MAX</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>55</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>218494</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>145020</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="644353" cy="458800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13463847" y="15541902"/>
-          <a:ext cx="644353" cy="458800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>MAX</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>55</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1656,7 +1518,7 @@
   </sheetPr>
   <dimension ref="B1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -865,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1041,12 +1041,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1085,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1592,66 +1595,66 @@
       <c r="S1" s="23"/>
     </row>
     <row r="2" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="61"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="69" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="74"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="20"/>
       <c r="S3" s="26"/>
     </row>
     <row r="4" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B4" s="62"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2831,66 +2834,66 @@
       </c>
     </row>
     <row r="62" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="61" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="65" t="s">
+      <c r="E62" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="68" t="s">
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="67"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="65"/>
       <c r="S62" s="21"/>
     </row>
     <row r="63" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B63" s="70"/>
-      <c r="C63" s="63"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="69" t="s">
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="49"/>
-      <c r="L63" s="75" t="s">
+      <c r="L63" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="69" t="s">
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P63" s="69"/>
-      <c r="Q63" s="69"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
       <c r="R63" s="49"/>
       <c r="S63" s="21"/>
     </row>
     <row r="64" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B64" s="71"/>
-      <c r="C64" s="64"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="19" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="14"/>
-      <c r="S71" s="59"/>
+      <c r="S71" s="74"/>
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="41"/>
@@ -3098,7 +3101,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="15"/>
-      <c r="S72" s="60"/>
+      <c r="S72" s="75"/>
     </row>
     <row r="73" spans="2:19">
       <c r="B73" s="42"/>
@@ -3118,7 +3121,7 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
       <c r="R73" s="14"/>
-      <c r="S73" s="59"/>
+      <c r="S73" s="74"/>
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="41"/>
@@ -3138,7 +3141,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="15"/>
-      <c r="S74" s="60"/>
+      <c r="S74" s="75"/>
     </row>
     <row r="75" spans="2:19">
       <c r="B75" s="42"/>
@@ -3158,7 +3161,7 @@
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="14"/>
-      <c r="S75" s="59"/>
+      <c r="S75" s="74"/>
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="41"/>
@@ -3178,7 +3181,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="15"/>
-      <c r="S76" s="60"/>
+      <c r="S76" s="75"/>
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="42"/>
@@ -3198,7 +3201,7 @@
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="14"/>
-      <c r="S77" s="59"/>
+      <c r="S77" s="74"/>
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="41"/>
@@ -3218,7 +3221,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="15"/>
-      <c r="S78" s="60"/>
+      <c r="S78" s="75"/>
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="42"/>
@@ -3238,7 +3241,7 @@
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="14"/>
-      <c r="S79" s="59"/>
+      <c r="S79" s="74"/>
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="41"/>
@@ -3258,7 +3261,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
       <c r="R80" s="15"/>
-      <c r="S80" s="60"/>
+      <c r="S80" s="75"/>
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="42"/>
@@ -3278,7 +3281,7 @@
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="14"/>
-      <c r="S81" s="59"/>
+      <c r="S81" s="74"/>
     </row>
     <row r="82" spans="2:19">
       <c r="B82" s="41"/>
@@ -3298,7 +3301,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="15"/>
-      <c r="S82" s="60"/>
+      <c r="S82" s="75"/>
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="42"/>
@@ -3318,7 +3321,7 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="14"/>
-      <c r="S83" s="59"/>
+      <c r="S83" s="74"/>
     </row>
     <row r="84" spans="2:19">
       <c r="B84" s="41"/>
@@ -3338,7 +3341,7 @@
       <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="15"/>
-      <c r="S84" s="60"/>
+      <c r="S84" s="75"/>
     </row>
     <row r="85" spans="2:19">
       <c r="B85" s="42"/>
@@ -3358,7 +3361,7 @@
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="14"/>
-      <c r="S85" s="59"/>
+      <c r="S85" s="74"/>
     </row>
     <row r="86" spans="2:19">
       <c r="B86" s="41"/>
@@ -3378,7 +3381,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="15"/>
-      <c r="S86" s="60"/>
+      <c r="S86" s="75"/>
     </row>
     <row r="87" spans="2:19">
       <c r="B87" s="42"/>
@@ -3398,7 +3401,7 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="14"/>
-      <c r="S87" s="59"/>
+      <c r="S87" s="74"/>
     </row>
     <row r="88" spans="2:19">
       <c r="B88" s="41"/>
@@ -3418,7 +3421,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="15"/>
-      <c r="S88" s="60"/>
+      <c r="S88" s="75"/>
     </row>
     <row r="89" spans="2:19">
       <c r="B89" s="42"/>
@@ -3438,7 +3441,7 @@
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="14"/>
-      <c r="S89" s="59"/>
+      <c r="S89" s="74"/>
     </row>
     <row r="90" spans="2:19">
       <c r="B90" s="41"/>
@@ -3458,7 +3461,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="15"/>
-      <c r="S90" s="60"/>
+      <c r="S90" s="75"/>
     </row>
     <row r="91" spans="2:19">
       <c r="B91" s="42"/>
@@ -3478,7 +3481,7 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="14"/>
-      <c r="S91" s="59"/>
+      <c r="S91" s="74"/>
     </row>
     <row r="92" spans="2:19">
       <c r="B92" s="41"/>
@@ -3498,7 +3501,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="15"/>
-      <c r="S92" s="60"/>
+      <c r="S92" s="75"/>
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="42"/>
@@ -3518,7 +3521,7 @@
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="14"/>
-      <c r="S93" s="59"/>
+      <c r="S93" s="74"/>
     </row>
     <row r="94" spans="2:19">
       <c r="B94" s="41"/>
@@ -3538,7 +3541,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
       <c r="R94" s="15"/>
-      <c r="S94" s="60"/>
+      <c r="S94" s="75"/>
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="42"/>
@@ -3558,7 +3561,7 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="14"/>
-      <c r="S95" s="59"/>
+      <c r="S95" s="74"/>
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="41"/>
@@ -3578,7 +3581,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="15"/>
-      <c r="S96" s="60"/>
+      <c r="S96" s="75"/>
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="42"/>
@@ -3598,7 +3601,7 @@
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
       <c r="R97" s="14"/>
-      <c r="S97" s="59"/>
+      <c r="S97" s="74"/>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="41"/>
@@ -3618,7 +3621,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="15"/>
-      <c r="S98" s="60"/>
+      <c r="S98" s="75"/>
     </row>
     <row r="99" spans="2:19">
       <c r="B99" s="42"/>
@@ -3638,7 +3641,7 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
       <c r="R99" s="14"/>
-      <c r="S99" s="59"/>
+      <c r="S99" s="74"/>
     </row>
     <row r="100" spans="2:19">
       <c r="B100" s="41"/>
@@ -3658,7 +3661,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
       <c r="R100" s="15"/>
-      <c r="S100" s="60"/>
+      <c r="S100" s="75"/>
     </row>
     <row r="101" spans="2:19">
       <c r="B101" s="42"/>
@@ -3678,7 +3681,7 @@
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="14"/>
-      <c r="S101" s="59"/>
+      <c r="S101" s="74"/>
     </row>
     <row r="102" spans="2:19">
       <c r="B102" s="41"/>
@@ -3698,7 +3701,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="16"/>
       <c r="R102" s="15"/>
-      <c r="S102" s="60"/>
+      <c r="S102" s="75"/>
     </row>
     <row r="103" spans="2:19">
       <c r="B103" s="42"/>
@@ -3718,7 +3721,7 @@
       <c r="P103" s="17"/>
       <c r="Q103" s="17"/>
       <c r="R103" s="14"/>
-      <c r="S103" s="59"/>
+      <c r="S103" s="74"/>
     </row>
     <row r="104" spans="2:19">
       <c r="B104" s="41"/>
@@ -3738,7 +3741,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="16"/>
       <c r="R104" s="15"/>
-      <c r="S104" s="60"/>
+      <c r="S104" s="75"/>
     </row>
     <row r="105" spans="2:19">
       <c r="B105" s="42"/>
@@ -3758,7 +3761,7 @@
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
       <c r="R105" s="14"/>
-      <c r="S105" s="59"/>
+      <c r="S105" s="74"/>
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="41"/>
@@ -3778,7 +3781,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="15"/>
-      <c r="S106" s="60"/>
+      <c r="S106" s="75"/>
     </row>
     <row r="107" spans="2:19">
       <c r="B107" s="42"/>
@@ -3798,7 +3801,7 @@
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
       <c r="R107" s="14"/>
-      <c r="S107" s="59"/>
+      <c r="S107" s="74"/>
     </row>
     <row r="108" spans="2:19">
       <c r="B108" s="41"/>
@@ -3818,7 +3821,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="16"/>
       <c r="R108" s="15"/>
-      <c r="S108" s="60"/>
+      <c r="S108" s="75"/>
     </row>
     <row r="109" spans="2:19">
       <c r="B109" s="42"/>
@@ -3838,7 +3841,7 @@
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
       <c r="R109" s="14"/>
-      <c r="S109" s="59"/>
+      <c r="S109" s="74"/>
     </row>
     <row r="110" spans="2:19">
       <c r="B110" s="41"/>
@@ -3858,7 +3861,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="16"/>
       <c r="R110" s="15"/>
-      <c r="S110" s="60"/>
+      <c r="S110" s="75"/>
     </row>
     <row r="111" spans="2:19">
       <c r="B111" s="42"/>
@@ -3878,7 +3881,7 @@
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="14"/>
-      <c r="S111" s="59"/>
+      <c r="S111" s="74"/>
     </row>
     <row r="112" spans="2:19">
       <c r="B112" s="41"/>
@@ -3898,7 +3901,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
       <c r="R112" s="15"/>
-      <c r="S112" s="60"/>
+      <c r="S112" s="75"/>
     </row>
     <row r="113" spans="2:19">
       <c r="B113" s="42"/>
@@ -3918,7 +3921,7 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="14"/>
-      <c r="S113" s="59"/>
+      <c r="S113" s="74"/>
     </row>
     <row r="114" spans="2:19">
       <c r="B114" s="41"/>
@@ -3938,7 +3941,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="16"/>
       <c r="R114" s="15"/>
-      <c r="S114" s="60"/>
+      <c r="S114" s="75"/>
     </row>
     <row r="115" spans="2:19">
       <c r="B115" s="42"/>
@@ -3958,7 +3961,7 @@
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="14"/>
-      <c r="S115" s="59"/>
+      <c r="S115" s="74"/>
     </row>
     <row r="116" spans="2:19">
       <c r="B116" s="41"/>
@@ -3978,7 +3981,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="16"/>
       <c r="R116" s="15"/>
-      <c r="S116" s="60"/>
+      <c r="S116" s="75"/>
     </row>
     <row r="117" spans="2:19">
       <c r="B117" s="42"/>
@@ -3998,7 +4001,7 @@
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
       <c r="R117" s="14"/>
-      <c r="S117" s="59"/>
+      <c r="S117" s="74"/>
     </row>
     <row r="118" spans="2:19">
       <c r="B118" s="41"/>
@@ -4018,7 +4021,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="15"/>
-      <c r="S118" s="60"/>
+      <c r="S118" s="75"/>
     </row>
     <row r="119" spans="2:19">
       <c r="B119" s="42"/>
@@ -4038,7 +4041,7 @@
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
       <c r="R119" s="14"/>
-      <c r="S119" s="59"/>
+      <c r="S119" s="74"/>
     </row>
     <row r="120" spans="2:19">
       <c r="B120" s="1"/>
@@ -4056,7 +4059,7 @@
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
-      <c r="S120" s="23"/>
+      <c r="S120" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1041,6 +1041,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,15 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1194,13 +1194,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>124944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1209,8 +1209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87965" y="10311092"/>
-          <a:ext cx="14156112" cy="9937937"/>
+          <a:off x="87965" y="10255062"/>
+          <a:ext cx="14324200" cy="9937937"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1595,66 +1595,66 @@
       <c r="S1" s="23"/>
     </row>
     <row r="2" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="59"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="67" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="72"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="67" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="72"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="20"/>
       <c r="S3" s="26"/>
     </row>
     <row r="4" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2834,66 +2834,66 @@
       </c>
     </row>
     <row r="62" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="64" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="63" t="s">
+      <c r="E62" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="66" t="s">
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="65"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="68"/>
       <c r="S62" s="21"/>
     </row>
     <row r="63" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B63" s="68"/>
-      <c r="C63" s="61"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="67" t="s">
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="49"/>
-      <c r="L63" s="73" t="s">
+      <c r="L63" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="67" t="s">
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
       <c r="R63" s="49"/>
       <c r="S63" s="21"/>
     </row>
     <row r="64" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B64" s="69"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="19" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="14"/>
-      <c r="S71" s="74"/>
+      <c r="S71" s="59"/>
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="41"/>
@@ -3101,7 +3101,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="15"/>
-      <c r="S72" s="75"/>
+      <c r="S72" s="60"/>
     </row>
     <row r="73" spans="2:19">
       <c r="B73" s="42"/>
@@ -3121,7 +3121,7 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
       <c r="R73" s="14"/>
-      <c r="S73" s="74"/>
+      <c r="S73" s="59"/>
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="41"/>
@@ -3141,7 +3141,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="15"/>
-      <c r="S74" s="75"/>
+      <c r="S74" s="60"/>
     </row>
     <row r="75" spans="2:19">
       <c r="B75" s="42"/>
@@ -3161,7 +3161,7 @@
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
       <c r="R75" s="14"/>
-      <c r="S75" s="74"/>
+      <c r="S75" s="59"/>
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="41"/>
@@ -3181,7 +3181,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="15"/>
-      <c r="S76" s="75"/>
+      <c r="S76" s="60"/>
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="42"/>
@@ -3201,7 +3201,7 @@
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="14"/>
-      <c r="S77" s="74"/>
+      <c r="S77" s="59"/>
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="41"/>
@@ -3221,7 +3221,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="15"/>
-      <c r="S78" s="75"/>
+      <c r="S78" s="60"/>
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="42"/>
@@ -3241,7 +3241,7 @@
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="14"/>
-      <c r="S79" s="74"/>
+      <c r="S79" s="59"/>
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="41"/>
@@ -3261,7 +3261,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
       <c r="R80" s="15"/>
-      <c r="S80" s="75"/>
+      <c r="S80" s="60"/>
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="42"/>
@@ -3281,7 +3281,7 @@
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="14"/>
-      <c r="S81" s="74"/>
+      <c r="S81" s="59"/>
     </row>
     <row r="82" spans="2:19">
       <c r="B82" s="41"/>
@@ -3301,7 +3301,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="15"/>
-      <c r="S82" s="75"/>
+      <c r="S82" s="60"/>
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="42"/>
@@ -3321,7 +3321,7 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="14"/>
-      <c r="S83" s="74"/>
+      <c r="S83" s="59"/>
     </row>
     <row r="84" spans="2:19">
       <c r="B84" s="41"/>
@@ -3341,7 +3341,7 @@
       <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="15"/>
-      <c r="S84" s="75"/>
+      <c r="S84" s="60"/>
     </row>
     <row r="85" spans="2:19">
       <c r="B85" s="42"/>
@@ -3361,7 +3361,7 @@
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="14"/>
-      <c r="S85" s="74"/>
+      <c r="S85" s="59"/>
     </row>
     <row r="86" spans="2:19">
       <c r="B86" s="41"/>
@@ -3381,7 +3381,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="15"/>
-      <c r="S86" s="75"/>
+      <c r="S86" s="60"/>
     </row>
     <row r="87" spans="2:19">
       <c r="B87" s="42"/>
@@ -3401,7 +3401,7 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="14"/>
-      <c r="S87" s="74"/>
+      <c r="S87" s="59"/>
     </row>
     <row r="88" spans="2:19">
       <c r="B88" s="41"/>
@@ -3421,7 +3421,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="15"/>
-      <c r="S88" s="75"/>
+      <c r="S88" s="60"/>
     </row>
     <row r="89" spans="2:19">
       <c r="B89" s="42"/>
@@ -3441,7 +3441,7 @@
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="14"/>
-      <c r="S89" s="74"/>
+      <c r="S89" s="59"/>
     </row>
     <row r="90" spans="2:19">
       <c r="B90" s="41"/>
@@ -3461,7 +3461,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="15"/>
-      <c r="S90" s="75"/>
+      <c r="S90" s="60"/>
     </row>
     <row r="91" spans="2:19">
       <c r="B91" s="42"/>
@@ -3481,7 +3481,7 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="14"/>
-      <c r="S91" s="74"/>
+      <c r="S91" s="59"/>
     </row>
     <row r="92" spans="2:19">
       <c r="B92" s="41"/>
@@ -3501,7 +3501,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="15"/>
-      <c r="S92" s="75"/>
+      <c r="S92" s="60"/>
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="42"/>
@@ -3521,7 +3521,7 @@
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="14"/>
-      <c r="S93" s="74"/>
+      <c r="S93" s="59"/>
     </row>
     <row r="94" spans="2:19">
       <c r="B94" s="41"/>
@@ -3541,7 +3541,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
       <c r="R94" s="15"/>
-      <c r="S94" s="75"/>
+      <c r="S94" s="60"/>
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="42"/>
@@ -3561,7 +3561,7 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="14"/>
-      <c r="S95" s="74"/>
+      <c r="S95" s="59"/>
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="41"/>
@@ -3581,7 +3581,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="15"/>
-      <c r="S96" s="75"/>
+      <c r="S96" s="60"/>
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="42"/>
@@ -3601,7 +3601,7 @@
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
       <c r="R97" s="14"/>
-      <c r="S97" s="74"/>
+      <c r="S97" s="59"/>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="41"/>
@@ -3621,7 +3621,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="15"/>
-      <c r="S98" s="75"/>
+      <c r="S98" s="60"/>
     </row>
     <row r="99" spans="2:19">
       <c r="B99" s="42"/>
@@ -3641,7 +3641,7 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
       <c r="R99" s="14"/>
-      <c r="S99" s="74"/>
+      <c r="S99" s="59"/>
     </row>
     <row r="100" spans="2:19">
       <c r="B100" s="41"/>
@@ -3661,7 +3661,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
       <c r="R100" s="15"/>
-      <c r="S100" s="75"/>
+      <c r="S100" s="60"/>
     </row>
     <row r="101" spans="2:19">
       <c r="B101" s="42"/>
@@ -3681,7 +3681,7 @@
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="14"/>
-      <c r="S101" s="74"/>
+      <c r="S101" s="59"/>
     </row>
     <row r="102" spans="2:19">
       <c r="B102" s="41"/>
@@ -3701,7 +3701,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="16"/>
       <c r="R102" s="15"/>
-      <c r="S102" s="75"/>
+      <c r="S102" s="60"/>
     </row>
     <row r="103" spans="2:19">
       <c r="B103" s="42"/>
@@ -3721,7 +3721,7 @@
       <c r="P103" s="17"/>
       <c r="Q103" s="17"/>
       <c r="R103" s="14"/>
-      <c r="S103" s="74"/>
+      <c r="S103" s="59"/>
     </row>
     <row r="104" spans="2:19">
       <c r="B104" s="41"/>
@@ -3741,7 +3741,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="16"/>
       <c r="R104" s="15"/>
-      <c r="S104" s="75"/>
+      <c r="S104" s="60"/>
     </row>
     <row r="105" spans="2:19">
       <c r="B105" s="42"/>
@@ -3761,7 +3761,7 @@
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
       <c r="R105" s="14"/>
-      <c r="S105" s="74"/>
+      <c r="S105" s="59"/>
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="41"/>
@@ -3781,7 +3781,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="15"/>
-      <c r="S106" s="75"/>
+      <c r="S106" s="60"/>
     </row>
     <row r="107" spans="2:19">
       <c r="B107" s="42"/>
@@ -3801,7 +3801,7 @@
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
       <c r="R107" s="14"/>
-      <c r="S107" s="74"/>
+      <c r="S107" s="59"/>
     </row>
     <row r="108" spans="2:19">
       <c r="B108" s="41"/>
@@ -3821,7 +3821,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="16"/>
       <c r="R108" s="15"/>
-      <c r="S108" s="75"/>
+      <c r="S108" s="60"/>
     </row>
     <row r="109" spans="2:19">
       <c r="B109" s="42"/>
@@ -3841,7 +3841,7 @@
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
       <c r="R109" s="14"/>
-      <c r="S109" s="74"/>
+      <c r="S109" s="59"/>
     </row>
     <row r="110" spans="2:19">
       <c r="B110" s="41"/>
@@ -3861,7 +3861,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="16"/>
       <c r="R110" s="15"/>
-      <c r="S110" s="75"/>
+      <c r="S110" s="60"/>
     </row>
     <row r="111" spans="2:19">
       <c r="B111" s="42"/>
@@ -3881,7 +3881,7 @@
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
       <c r="R111" s="14"/>
-      <c r="S111" s="74"/>
+      <c r="S111" s="59"/>
     </row>
     <row r="112" spans="2:19">
       <c r="B112" s="41"/>
@@ -3901,7 +3901,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
       <c r="R112" s="15"/>
-      <c r="S112" s="75"/>
+      <c r="S112" s="60"/>
     </row>
     <row r="113" spans="2:19">
       <c r="B113" s="42"/>
@@ -3921,7 +3921,7 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
       <c r="R113" s="14"/>
-      <c r="S113" s="74"/>
+      <c r="S113" s="59"/>
     </row>
     <row r="114" spans="2:19">
       <c r="B114" s="41"/>
@@ -3941,7 +3941,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="16"/>
       <c r="R114" s="15"/>
-      <c r="S114" s="75"/>
+      <c r="S114" s="60"/>
     </row>
     <row r="115" spans="2:19">
       <c r="B115" s="42"/>
@@ -3961,7 +3961,7 @@
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
       <c r="R115" s="14"/>
-      <c r="S115" s="74"/>
+      <c r="S115" s="59"/>
     </row>
     <row r="116" spans="2:19">
       <c r="B116" s="41"/>
@@ -3981,7 +3981,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="16"/>
       <c r="R116" s="15"/>
-      <c r="S116" s="75"/>
+      <c r="S116" s="60"/>
     </row>
     <row r="117" spans="2:19">
       <c r="B117" s="42"/>
@@ -4001,7 +4001,7 @@
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
       <c r="R117" s="14"/>
-      <c r="S117" s="74"/>
+      <c r="S117" s="59"/>
     </row>
     <row r="118" spans="2:19">
       <c r="B118" s="41"/>
@@ -4021,7 +4021,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="15"/>
-      <c r="S118" s="75"/>
+      <c r="S118" s="60"/>
     </row>
     <row r="119" spans="2:19">
       <c r="B119" s="42"/>
@@ -4041,7 +4041,7 @@
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
       <c r="R119" s="14"/>
-      <c r="S119" s="74"/>
+      <c r="S119" s="59"/>
     </row>
     <row r="120" spans="2:19">
       <c r="B120" s="1"/>
@@ -4059,7 +4059,7 @@
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
-      <c r="S120" s="76"/>
+      <c r="S120" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1194,13 +1194,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>124944</xdr:rowOff>
+      <xdr:rowOff>158562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1209,7 +1209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87965" y="10255062"/>
+          <a:off x="87965" y="10288680"/>
           <a:ext cx="14324200" cy="9937937"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -865,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1045,9 +1045,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,30 +1124,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="4" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="67235" y="179294"/>
-          <a:ext cx="12472147" cy="9928412"/>
+          <a:off x="89647" y="179294"/>
+          <a:ext cx="12617824" cy="9782735"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
+            <a:gd name="adj" fmla="val 69"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -1192,29 +1189,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>158562</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="6" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87965" y="10288680"/>
-          <a:ext cx="14324200" cy="9937937"/>
+          <a:off x="78441" y="10174941"/>
+          <a:ext cx="14309912" cy="9749118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
+            <a:gd name="adj" fmla="val 69"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -1546,7 +1543,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S120"/>
+  <dimension ref="B1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1595,66 +1592,66 @@
       <c r="S1" s="23"/>
     </row>
     <row r="2" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="62"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="70" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="75"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="70" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="75"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="74"/>
       <c r="R3" s="20"/>
       <c r="S3" s="26"/>
     </row>
     <row r="4" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B4" s="63"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2802,1264 +2799,1226 @@
       <c r="R59" s="39"/>
       <c r="S59" s="26"/>
     </row>
-    <row r="60" spans="2:19">
-      <c r="B60" s="28"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="26"/>
-    </row>
-    <row r="61" spans="2:19" ht="15.4" customHeight="1">
-      <c r="B61" s="50" t="s">
+    <row r="60" spans="2:19" ht="15.4" customHeight="1">
+      <c r="B60" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="P60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S61" s="23" t="s">
+      <c r="S60" s="23" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="61" spans="2:19" s="7" customFormat="1" ht="15">
+      <c r="B61" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="21"/>
+    </row>
     <row r="62" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B62" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="68"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="49"/>
       <c r="S62" s="21"/>
     </row>
-    <row r="63" spans="2:19" s="7" customFormat="1" ht="15">
+    <row r="63" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="B63" s="71"/>
       <c r="C63" s="64"/>
-      <c r="D63" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="21"/>
-    </row>
-    <row r="64" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B64" s="72"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L63" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="O63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="P63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="Q63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R64" s="12" t="s">
+      <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S64" s="22" t="s">
+      <c r="S63" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="B65" s="27"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="43"/>
+    <row r="64" spans="2:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
+      <c r="B64" s="27"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="43"/>
+    </row>
+    <row r="65" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="B65" s="41"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="44"/>
     </row>
     <row r="66" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B66" s="41"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="44"/>
-    </row>
-    <row r="67" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B67" s="42"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="45"/>
-    </row>
-    <row r="68" spans="2:19" ht="12" customHeight="1">
-      <c r="B68" s="41"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="46"/>
-    </row>
-    <row r="69" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B69" s="42"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="45"/>
-    </row>
-    <row r="70" spans="2:19" ht="12.4" customHeight="1">
-      <c r="B70" s="41"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="46"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="45"/>
+    </row>
+    <row r="67" spans="2:19" ht="12" customHeight="1">
+      <c r="B67" s="41"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="46"/>
+    </row>
+    <row r="68" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="B68" s="42"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="45"/>
+    </row>
+    <row r="69" spans="2:19" ht="12.4" customHeight="1">
+      <c r="B69" s="41"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="46"/>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" s="42"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="59"/>
     </row>
     <row r="71" spans="2:19">
-      <c r="B71" s="42"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="59"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="60"/>
     </row>
     <row r="72" spans="2:19">
-      <c r="B72" s="41"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="60"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="59"/>
     </row>
     <row r="73" spans="2:19">
-      <c r="B73" s="42"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="59"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="60"/>
     </row>
     <row r="74" spans="2:19">
-      <c r="B74" s="41"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="60"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="59"/>
     </row>
     <row r="75" spans="2:19">
-      <c r="B75" s="42"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="59"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="60"/>
     </row>
     <row r="76" spans="2:19">
-      <c r="B76" s="41"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="60"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="59"/>
     </row>
     <row r="77" spans="2:19">
-      <c r="B77" s="42"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="59"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="60"/>
     </row>
     <row r="78" spans="2:19">
-      <c r="B78" s="41"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="60"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="59"/>
     </row>
     <row r="79" spans="2:19">
-      <c r="B79" s="42"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="59"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="60"/>
     </row>
     <row r="80" spans="2:19">
-      <c r="B80" s="41"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="60"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="59"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="42"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="59"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="60"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="41"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="60"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="59"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="42"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="59"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="60"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="41"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="60"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="59"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="42"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="59"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="60"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="41"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="60"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="59"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="42"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="59"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="60"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="41"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="60"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="59"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="42"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="59"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="60"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="41"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="60"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="59"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="42"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="59"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="60"/>
     </row>
     <row r="92" spans="2:19">
-      <c r="B92" s="41"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="60"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="59"/>
     </row>
     <row r="93" spans="2:19">
-      <c r="B93" s="42"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="59"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="60"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="41"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="60"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="59"/>
     </row>
     <row r="95" spans="2:19">
-      <c r="B95" s="42"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="59"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="60"/>
     </row>
     <row r="96" spans="2:19">
-      <c r="B96" s="41"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="60"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="59"/>
     </row>
     <row r="97" spans="2:19">
-      <c r="B97" s="42"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="59"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="60"/>
     </row>
     <row r="98" spans="2:19">
-      <c r="B98" s="41"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="60"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="59"/>
     </row>
     <row r="99" spans="2:19">
-      <c r="B99" s="42"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="59"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="60"/>
     </row>
     <row r="100" spans="2:19">
-      <c r="B100" s="41"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="46"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="60"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="59"/>
     </row>
     <row r="101" spans="2:19">
-      <c r="B101" s="42"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="59"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="60"/>
     </row>
     <row r="102" spans="2:19">
-      <c r="B102" s="41"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="46"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="60"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="59"/>
     </row>
     <row r="103" spans="2:19">
-      <c r="B103" s="42"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="59"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="60"/>
     </row>
     <row r="104" spans="2:19">
-      <c r="B104" s="41"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="60"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="59"/>
     </row>
     <row r="105" spans="2:19">
-      <c r="B105" s="42"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="59"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="60"/>
     </row>
     <row r="106" spans="2:19">
-      <c r="B106" s="41"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="46"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="15"/>
-      <c r="S106" s="60"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="59"/>
     </row>
     <row r="107" spans="2:19">
-      <c r="B107" s="42"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="59"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="60"/>
     </row>
     <row r="108" spans="2:19">
-      <c r="B108" s="41"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="55"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="60"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="59"/>
     </row>
     <row r="109" spans="2:19">
-      <c r="B109" s="42"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="59"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="60"/>
     </row>
     <row r="110" spans="2:19">
-      <c r="B110" s="41"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="55"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="60"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="59"/>
     </row>
     <row r="111" spans="2:19">
-      <c r="B111" s="42"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="59"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="60"/>
     </row>
     <row r="112" spans="2:19">
-      <c r="B112" s="41"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="55"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="15"/>
-      <c r="S112" s="60"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="59"/>
     </row>
     <row r="113" spans="2:19">
-      <c r="B113" s="42"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="59"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="60"/>
     </row>
     <row r="114" spans="2:19">
-      <c r="B114" s="41"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="60"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="59"/>
     </row>
     <row r="115" spans="2:19">
-      <c r="B115" s="42"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="59"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="60"/>
     </row>
     <row r="116" spans="2:19">
-      <c r="B116" s="41"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="55"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="60"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="59"/>
     </row>
     <row r="117" spans="2:19">
-      <c r="B117" s="42"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="59"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="60"/>
     </row>
     <row r="118" spans="2:19">
-      <c r="B118" s="41"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="55"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="60"/>
-    </row>
-    <row r="119" spans="2:19">
-      <c r="B119" s="42"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="59"/>
-    </row>
-    <row r="120" spans="2:19">
-      <c r="B120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
-      <c r="M120" s="23"/>
-      <c r="N120" s="23"/>
-      <c r="O120" s="23"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="23"/>
-      <c r="S120" s="61"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4067,18 +4026,18 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="L62:R62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4089,7 +4048,7 @@
   page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="60" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1191,13 +1191,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1206,7 +1206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78441" y="10174941"/>
+          <a:off x="78441" y="10163735"/>
           <a:ext cx="14309912" cy="9749118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1127,13 +1127,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1142,8 +1142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89647" y="179294"/>
-          <a:ext cx="12617824" cy="9782735"/>
+          <a:off x="89647" y="179295"/>
+          <a:ext cx="12617824" cy="9749118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1194,8 +1194,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1647264</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
@@ -1207,7 +1207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="78441" y="10163735"/>
-          <a:ext cx="14309912" cy="9749118"/>
+          <a:ext cx="14276294" cy="9749118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$T$118</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1124,30 +1127,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22410</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 1"/>
+        <xdr:cNvPr id="6" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89647" y="179295"/>
-          <a:ext cx="12617824" cy="9749118"/>
+          <a:off x="78440" y="179294"/>
+          <a:ext cx="12651441" cy="9760324"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 69"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -1194,24 +1197,24 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1647264</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 1"/>
+        <xdr:cNvPr id="7" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="78441" y="10163735"/>
-          <a:ext cx="14276294" cy="9749118"/>
+          <a:ext cx="14343530" cy="9749118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 69"/>
+            <a:gd name="adj" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1127,26 +1127,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 1"/>
+        <xdr:cNvPr id="4" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78440" y="179294"/>
-          <a:ext cx="12651441" cy="9760324"/>
+          <a:off x="89648" y="212913"/>
+          <a:ext cx="12617824" cy="9737912"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1192,25 +1192,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 1"/>
+        <xdr:cNvPr id="5" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78441" y="10163735"/>
-          <a:ext cx="14343530" cy="9749118"/>
+          <a:off x="89647" y="10152529"/>
+          <a:ext cx="14309911" cy="9782735"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -614,30 +614,6 @@
         <color theme="6"/>
       </left>
       <right style="thick">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="6"/>
       </right>
       <top style="thin">
@@ -673,12 +649,354 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </left>
+      <right style="double">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,6 +1020,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
@@ -713,107 +1042,128 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="6"/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thick">
-        <color theme="6" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="6"/>
-      </bottom>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="6" tint="0.79998168889431442"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
-        <color theme="6" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
-      <right style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thick">
         <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,10 +1179,12 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="6"/>
       </right>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
         <color theme="6"/>
       </bottom>
       <diagonal/>
@@ -843,9 +1195,11 @@
         <color theme="6"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
+        <color theme="6"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -868,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -921,20 +1275,14 @@
     <xf numFmtId="165" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -945,25 +1293,13 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,12 +1326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1044,16 +1374,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,38 +1422,146 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1121,139 +1589,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="89648" y="212913"/>
-          <a:ext cx="12617824" cy="9737912"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="89647" y="10152529"/>
-          <a:ext cx="14309911" cy="9782735"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,14 +1881,14 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S118"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="42" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
@@ -1581,10 +1916,12 @@
     <col min="29" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.4" customHeight="1">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:19" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B1" s="60" t="s">
         <v>27</v>
       </c>
+      <c r="C1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,69 +1929,70 @@
       <c r="R1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="23"/>
-    </row>
-    <row r="2" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B2" s="61" t="s">
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="61"/>
-      <c r="C3" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="67"/>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
+      <c r="B3" s="59"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="69" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="26"/>
-    </row>
-    <row r="4" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B4" s="62"/>
-      <c r="C4" s="64"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -1700,1180 +2038,1253 @@
       <c r="R4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="26"/>
-    </row>
-    <row r="5" spans="2:19" s="3" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="2:19" s="3" customFormat="1">
-      <c r="B6" s="28"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="2:19" s="3" customFormat="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="46"/>
+      <c r="S4" s="67"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="12.75" thickTop="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1">
+      <c r="A7" s="89"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="51"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="2:19" s="3" customFormat="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="45"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="26"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="89"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="2:19" s="3" customFormat="1">
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="45"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1">
+      <c r="A11" s="89"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="26"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="46"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="89"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="24"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="2:19" s="3" customFormat="1">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="45"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1">
+      <c r="A13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="25"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="46"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="89"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="24"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="26"/>
-    </row>
-    <row r="15" spans="2:19" s="3" customFormat="1">
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="45"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="23"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="26"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="46"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="89"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="24"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="2:19" s="3" customFormat="1">
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="45"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1">
+      <c r="A17" s="89"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="26"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="28"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="46"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="89"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="24"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="2:19" s="3" customFormat="1">
-      <c r="B19" s="29"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="45"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="46"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="89"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="24"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="26"/>
-    </row>
-    <row r="21" spans="2:19" s="3" customFormat="1">
-      <c r="B21" s="29"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="45"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1">
+      <c r="A21" s="89"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="26"/>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="28"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="46"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="89"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="24"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="26"/>
-    </row>
-    <row r="23" spans="2:19" s="3" customFormat="1">
-      <c r="B23" s="29"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="45"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1">
+      <c r="A23" s="89"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="23"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="26"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="28"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="46"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="89"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="24"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="26"/>
-    </row>
-    <row r="25" spans="2:19" s="3" customFormat="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="45"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1">
+      <c r="A25" s="89"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="25"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="46"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="51"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="89"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="24"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="2:19" s="3" customFormat="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="45"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1">
+      <c r="A27" s="89"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="46"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="51"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="89"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="24"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="2:19" s="3" customFormat="1">
-      <c r="B29" s="29"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="45"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="51"/>
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1">
+      <c r="A29" s="89"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="25"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="B30" s="28"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="46"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="51"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="89"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="24"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="2:19" s="3" customFormat="1">
-      <c r="B31" s="29"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="45"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="51"/>
+    </row>
+    <row r="31" spans="1:19" s="3" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="26"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="46"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="51"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="89"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="24"/>
+      <c r="O32" s="22"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="26"/>
-    </row>
-    <row r="33" spans="2:19" s="3" customFormat="1">
-      <c r="B33" s="29"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="45"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="51"/>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1">
+      <c r="A33" s="89"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="25"/>
+      <c r="O33" s="23"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="26"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="46"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="51"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="89"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="24"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="26"/>
-    </row>
-    <row r="35" spans="2:19" s="3" customFormat="1">
-      <c r="B35" s="29"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="45"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="51"/>
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1">
+      <c r="A35" s="89"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36" s="28"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="46"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="51"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="89"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="24"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="2:19" s="3" customFormat="1">
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="45"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="51"/>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1">
+      <c r="A37" s="89"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="25"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="26"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="46"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="51"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="89"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="24"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="24"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="26"/>
-    </row>
-    <row r="39" spans="2:19" s="3" customFormat="1">
-      <c r="B39" s="29"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="45"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="51"/>
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1">
+      <c r="A39" s="89"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="37"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="23"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="B40" s="28"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="46"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="51"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="89"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="24"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="38"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
-      <c r="O40" s="24"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="2:19" s="3" customFormat="1">
-      <c r="B41" s="29"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="45"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="51"/>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1">
+      <c r="A41" s="89"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
-      <c r="O41" s="25"/>
+      <c r="O41" s="23"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="26"/>
-    </row>
-    <row r="42" spans="2:19">
-      <c r="B42" s="28"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="46"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="51"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="89"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="24"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="46"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="38"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
-      <c r="O42" s="24"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="26"/>
-    </row>
-    <row r="43" spans="2:19" s="3" customFormat="1">
-      <c r="B43" s="29"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="45"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="51"/>
+    </row>
+    <row r="43" spans="1:19" s="3" customFormat="1">
+      <c r="A43" s="89"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="45"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="37"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="26"/>
-    </row>
-    <row r="44" spans="2:19">
-      <c r="B44" s="28"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="46"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="51"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="89"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="46"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="38"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
-      <c r="O44" s="24"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="26"/>
-    </row>
-    <row r="45" spans="2:19" s="3" customFormat="1">
-      <c r="B45" s="29"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="45"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="51"/>
+    </row>
+    <row r="45" spans="1:19" s="3" customFormat="1">
+      <c r="A45" s="89"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="45"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="37"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
-      <c r="O45" s="25"/>
+      <c r="O45" s="23"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="26"/>
-    </row>
-    <row r="46" spans="2:19">
-      <c r="B46" s="28"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="46"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="51"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="89"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="24"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="46"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="38"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
-      <c r="O46" s="24"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="26"/>
-    </row>
-    <row r="47" spans="2:19" s="3" customFormat="1">
-      <c r="B47" s="29"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="45"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="51"/>
+    </row>
+    <row r="47" spans="1:19" s="3" customFormat="1">
+      <c r="A47" s="89"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="45"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="37"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="23"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="26"/>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="B48" s="28"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="46"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="51"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="89"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="46"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="38"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
-      <c r="O48" s="24"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="26"/>
-    </row>
-    <row r="49" spans="2:19" s="3" customFormat="1">
-      <c r="B49" s="29"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="45"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="51"/>
+    </row>
+    <row r="49" spans="1:19" s="3" customFormat="1">
+      <c r="A49" s="89"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="45"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="37"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
-      <c r="O49" s="25"/>
+      <c r="O49" s="23"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="26"/>
-    </row>
-    <row r="50" spans="2:19">
-      <c r="B50" s="28"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="46"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="51"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="89"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="24"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="46"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="38"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
-      <c r="O50" s="24"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="26"/>
-    </row>
-    <row r="51" spans="2:19" s="3" customFormat="1">
-      <c r="B51" s="29"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="45"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="51"/>
+    </row>
+    <row r="51" spans="1:19" s="3" customFormat="1">
+      <c r="A51" s="89"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="25"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="45"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="37"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="23"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="26"/>
-    </row>
-    <row r="52" spans="2:19">
-      <c r="B52" s="28"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="46"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="51"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="89"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="24"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="46"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="38"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
-      <c r="O52" s="24"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="26"/>
-    </row>
-    <row r="53" spans="2:19" s="3" customFormat="1">
-      <c r="B53" s="29"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="45"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="51"/>
+    </row>
+    <row r="53" spans="1:19" s="3" customFormat="1">
+      <c r="A53" s="89"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="25"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="45"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="37"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
-      <c r="O53" s="25"/>
+      <c r="O53" s="23"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="26"/>
-    </row>
-    <row r="54" spans="2:19">
-      <c r="B54" s="28"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="26"/>
-    </row>
-    <row r="55" spans="2:19" s="3" customFormat="1">
-      <c r="B55" s="29"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="45"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="51"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="89"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="51"/>
+    </row>
+    <row r="55" spans="1:19" s="3" customFormat="1">
+      <c r="A55" s="89"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="25"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="45"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="37"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="23"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="26"/>
-    </row>
-    <row r="56" spans="2:19">
-      <c r="B56" s="28"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="26"/>
-    </row>
-    <row r="57" spans="2:19" s="3" customFormat="1">
-      <c r="B57" s="29"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="45"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="51"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="89"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="51"/>
+    </row>
+    <row r="57" spans="1:19" s="3" customFormat="1">
+      <c r="A57" s="89"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="37"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="25"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="45"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="37"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
-      <c r="O57" s="25"/>
+      <c r="O57" s="23"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="26"/>
-    </row>
-    <row r="58" spans="2:19">
-      <c r="B58" s="28"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="46"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="51"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="89"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="24"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="38"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
-      <c r="O58" s="24"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="2:19" s="3" customFormat="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="25"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="51"/>
+    </row>
+    <row r="59" spans="1:19" s="3" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A59" s="89"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="82"/>
       <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="26"/>
-    </row>
-    <row r="60" spans="2:19" ht="15.4" customHeight="1">
-      <c r="B60" s="50" t="s">
+      <c r="Q59" s="81"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="51"/>
+    </row>
+    <row r="60" spans="1:19" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B60" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="C60" s="61"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="S60" s="23" t="s">
+      <c r="Q60" s="61"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B61" s="70" t="s">
+    <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A61" s="88"/>
+      <c r="B61" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="68" t="s">
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="21"/>
-    </row>
-    <row r="62" spans="2:19" s="7" customFormat="1" ht="15">
-      <c r="B62" s="70"/>
-      <c r="C62" s="63"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="97"/>
+    </row>
+    <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
+      <c r="A62" s="88"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="69" t="s">
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="75" t="s">
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="69" t="s">
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="21"/>
-    </row>
-    <row r="63" spans="2:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="B63" s="71"/>
-      <c r="C63" s="64"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="98"/>
+    </row>
+    <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
+      <c r="A63" s="88"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -2919,1128 +3330,1184 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="22" t="s">
+      <c r="S63" s="99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="B64" s="27"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="43"/>
-    </row>
-    <row r="65" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B65" s="41"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="44"/>
-    </row>
-    <row r="66" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B66" s="42"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="45"/>
-    </row>
-    <row r="67" spans="2:19" ht="12" customHeight="1">
-      <c r="B67" s="41"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="46"/>
-    </row>
-    <row r="68" spans="2:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B68" s="42"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="45"/>
-    </row>
-    <row r="69" spans="2:19" ht="12.4" customHeight="1">
-      <c r="B69" s="41"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="46"/>
-    </row>
-    <row r="70" spans="2:19">
-      <c r="B70" s="42"/>
+    <row r="64" spans="1:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
+      <c r="A64" s="89"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="100"/>
+    </row>
+    <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="89"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="101"/>
+    </row>
+    <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="89"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="102"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1">
+      <c r="A67" s="89"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="103"/>
+    </row>
+    <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="89"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="102"/>
+    </row>
+    <row r="69" spans="1:19" ht="12.4" customHeight="1">
+      <c r="A69" s="89"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="103"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="89"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="25"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="25"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="23"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="14"/>
-      <c r="S70" s="59"/>
-    </row>
-    <row r="71" spans="2:19">
-      <c r="B71" s="41"/>
+      <c r="S70" s="104"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="89"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="24"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="24"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="22"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="15"/>
-      <c r="S71" s="60"/>
-    </row>
-    <row r="72" spans="2:19">
-      <c r="B72" s="42"/>
+      <c r="S71" s="105"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="89"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="25"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="25"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="23"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="14"/>
-      <c r="S72" s="59"/>
-    </row>
-    <row r="73" spans="2:19">
-      <c r="B73" s="41"/>
+      <c r="S72" s="104"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="89"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="24"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="24"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="22"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="15"/>
-      <c r="S73" s="60"/>
-    </row>
-    <row r="74" spans="2:19">
-      <c r="B74" s="42"/>
+      <c r="S73" s="105"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="89"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="25"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="25"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="23"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="14"/>
-      <c r="S74" s="59"/>
-    </row>
-    <row r="75" spans="2:19">
-      <c r="B75" s="41"/>
+      <c r="S74" s="104"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="89"/>
+      <c r="B75" s="111"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="24"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="24"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="22"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="15"/>
-      <c r="S75" s="60"/>
-    </row>
-    <row r="76" spans="2:19">
-      <c r="B76" s="42"/>
+      <c r="S75" s="105"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="89"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="25"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="23"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="25"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="23"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="14"/>
-      <c r="S76" s="59"/>
-    </row>
-    <row r="77" spans="2:19">
-      <c r="B77" s="41"/>
+      <c r="S76" s="104"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="89"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="24"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="24"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="22"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="15"/>
-      <c r="S77" s="60"/>
-    </row>
-    <row r="78" spans="2:19">
-      <c r="B78" s="42"/>
+      <c r="S77" s="105"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="89"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="25"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="25"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="23"/>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="14"/>
-      <c r="S78" s="59"/>
-    </row>
-    <row r="79" spans="2:19">
-      <c r="B79" s="41"/>
+      <c r="S78" s="104"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="89"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="24"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="24"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="22"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="15"/>
-      <c r="S79" s="60"/>
-    </row>
-    <row r="80" spans="2:19">
-      <c r="B80" s="42"/>
+      <c r="S79" s="105"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="89"/>
+      <c r="B80" s="112"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="25"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="23"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="25"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="23"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="14"/>
-      <c r="S80" s="59"/>
-    </row>
-    <row r="81" spans="2:19">
-      <c r="B81" s="41"/>
+      <c r="S80" s="104"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="89"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="24"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="24"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="22"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="15"/>
-      <c r="S81" s="60"/>
-    </row>
-    <row r="82" spans="2:19">
-      <c r="B82" s="42"/>
+      <c r="S81" s="105"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="89"/>
+      <c r="B82" s="112"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="25"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="23"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="25"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="23"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="14"/>
-      <c r="S82" s="59"/>
-    </row>
-    <row r="83" spans="2:19">
-      <c r="B83" s="41"/>
+      <c r="S82" s="104"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="89"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="24"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="24"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="22"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="15"/>
-      <c r="S83" s="60"/>
-    </row>
-    <row r="84" spans="2:19">
-      <c r="B84" s="42"/>
+      <c r="S83" s="105"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="89"/>
+      <c r="B84" s="112"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="25"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="25"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="23"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="14"/>
-      <c r="S84" s="59"/>
-    </row>
-    <row r="85" spans="2:19">
-      <c r="B85" s="41"/>
+      <c r="S84" s="104"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="89"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="24"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="24"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="22"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="15"/>
-      <c r="S85" s="60"/>
-    </row>
-    <row r="86" spans="2:19">
-      <c r="B86" s="42"/>
+      <c r="S85" s="105"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="89"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="25"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="25"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="23"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="14"/>
-      <c r="S86" s="59"/>
-    </row>
-    <row r="87" spans="2:19">
-      <c r="B87" s="41"/>
+      <c r="S86" s="104"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="89"/>
+      <c r="B87" s="111"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="24"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="24"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="22"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="15"/>
-      <c r="S87" s="60"/>
-    </row>
-    <row r="88" spans="2:19">
-      <c r="B88" s="42"/>
+      <c r="S87" s="105"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="89"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="25"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="25"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="23"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="14"/>
-      <c r="S88" s="59"/>
-    </row>
-    <row r="89" spans="2:19">
-      <c r="B89" s="41"/>
+      <c r="S88" s="104"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="89"/>
+      <c r="B89" s="111"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="24"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="24"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="22"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="15"/>
-      <c r="S89" s="60"/>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="B90" s="42"/>
+      <c r="S89" s="105"/>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="89"/>
+      <c r="B90" s="112"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="25"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="23"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="25"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="23"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="14"/>
-      <c r="S90" s="59"/>
-    </row>
-    <row r="91" spans="2:19">
-      <c r="B91" s="41"/>
+      <c r="S90" s="104"/>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="89"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="24"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="24"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="22"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="15"/>
-      <c r="S91" s="60"/>
-    </row>
-    <row r="92" spans="2:19">
-      <c r="B92" s="42"/>
+      <c r="S91" s="105"/>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="89"/>
+      <c r="B92" s="112"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="25"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="23"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="25"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="23"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="14"/>
-      <c r="S92" s="59"/>
-    </row>
-    <row r="93" spans="2:19">
-      <c r="B93" s="41"/>
+      <c r="S92" s="104"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="89"/>
+      <c r="B93" s="111"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="24"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="24"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="22"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="15"/>
-      <c r="S93" s="60"/>
-    </row>
-    <row r="94" spans="2:19">
-      <c r="B94" s="42"/>
+      <c r="S93" s="105"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="89"/>
+      <c r="B94" s="112"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="25"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="25"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="23"/>
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
       <c r="R94" s="14"/>
-      <c r="S94" s="59"/>
-    </row>
-    <row r="95" spans="2:19">
-      <c r="B95" s="41"/>
+      <c r="S94" s="104"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="89"/>
+      <c r="B95" s="111"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="24"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="24"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="22"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="60"/>
-    </row>
-    <row r="96" spans="2:19">
-      <c r="B96" s="42"/>
+      <c r="S95" s="105"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="89"/>
+      <c r="B96" s="112"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="25"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="23"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="25"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="23"/>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
       <c r="R96" s="14"/>
-      <c r="S96" s="59"/>
-    </row>
-    <row r="97" spans="2:19">
-      <c r="B97" s="41"/>
+      <c r="S96" s="104"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="89"/>
+      <c r="B97" s="111"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="24"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="24"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="22"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="15"/>
-      <c r="S97" s="60"/>
-    </row>
-    <row r="98" spans="2:19">
-      <c r="B98" s="42"/>
+      <c r="S97" s="105"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="89"/>
+      <c r="B98" s="112"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="25"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="23"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="25"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="23"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="59"/>
-    </row>
-    <row r="99" spans="2:19">
-      <c r="B99" s="41"/>
+      <c r="S98" s="104"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="89"/>
+      <c r="B99" s="111"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="24"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="24"/>
+      <c r="K99" s="47"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="22"/>
       <c r="N99" s="16"/>
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="15"/>
-      <c r="S99" s="60"/>
-    </row>
-    <row r="100" spans="2:19">
-      <c r="B100" s="42"/>
+      <c r="S99" s="105"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="89"/>
+      <c r="B100" s="112"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="25"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="23"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="25"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="23"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="14"/>
-      <c r="S100" s="59"/>
-    </row>
-    <row r="101" spans="2:19">
-      <c r="B101" s="41"/>
+      <c r="S100" s="104"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="89"/>
+      <c r="B101" s="111"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="24"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="24"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="22"/>
       <c r="N101" s="16"/>
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="15"/>
-      <c r="S101" s="60"/>
-    </row>
-    <row r="102" spans="2:19">
-      <c r="B102" s="42"/>
+      <c r="S101" s="105"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="89"/>
+      <c r="B102" s="112"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="25"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="23"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="25"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="23"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="14"/>
-      <c r="S102" s="59"/>
-    </row>
-    <row r="103" spans="2:19">
-      <c r="B103" s="41"/>
+      <c r="S102" s="104"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="89"/>
+      <c r="B103" s="111"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="24"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="24"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="22"/>
       <c r="N103" s="16"/>
       <c r="O103" s="16"/>
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="15"/>
-      <c r="S103" s="60"/>
-    </row>
-    <row r="104" spans="2:19">
-      <c r="B104" s="42"/>
+      <c r="S103" s="105"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="89"/>
+      <c r="B104" s="112"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="25"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="23"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="25"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="23"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="14"/>
-      <c r="S104" s="59"/>
-    </row>
-    <row r="105" spans="2:19">
-      <c r="B105" s="41"/>
+      <c r="S104" s="104"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="89"/>
+      <c r="B105" s="111"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="24"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="22"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="24"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="22"/>
       <c r="N105" s="16"/>
       <c r="O105" s="16"/>
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="15"/>
-      <c r="S105" s="60"/>
-    </row>
-    <row r="106" spans="2:19">
-      <c r="B106" s="42"/>
+      <c r="S105" s="105"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="89"/>
+      <c r="B106" s="112"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="25"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="23"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="25"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="23"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="14"/>
-      <c r="S106" s="59"/>
-    </row>
-    <row r="107" spans="2:19">
-      <c r="B107" s="41"/>
+      <c r="S106" s="104"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="89"/>
+      <c r="B107" s="111"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="24"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="24"/>
+      <c r="K107" s="47"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="22"/>
       <c r="N107" s="16"/>
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="15"/>
-      <c r="S107" s="60"/>
-    </row>
-    <row r="108" spans="2:19">
-      <c r="B108" s="42"/>
+      <c r="S107" s="105"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="89"/>
+      <c r="B108" s="112"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="25"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="23"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="25"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="23"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="14"/>
-      <c r="S108" s="59"/>
-    </row>
-    <row r="109" spans="2:19">
-      <c r="B109" s="41"/>
+      <c r="S108" s="104"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="89"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="24"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="22"/>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="24"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="22"/>
       <c r="N109" s="16"/>
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
       <c r="R109" s="15"/>
-      <c r="S109" s="60"/>
-    </row>
-    <row r="110" spans="2:19">
-      <c r="B110" s="42"/>
+      <c r="S109" s="105"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="89"/>
+      <c r="B110" s="112"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="25"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="23"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="45"/>
-      <c r="M110" s="25"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="23"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="14"/>
-      <c r="S110" s="59"/>
-    </row>
-    <row r="111" spans="2:19">
-      <c r="B111" s="41"/>
+      <c r="S110" s="104"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="89"/>
+      <c r="B111" s="111"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="24"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
-      <c r="K111" s="55"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="24"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="22"/>
       <c r="N111" s="16"/>
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="15"/>
-      <c r="S111" s="60"/>
-    </row>
-    <row r="112" spans="2:19">
-      <c r="B112" s="42"/>
+      <c r="S111" s="105"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="89"/>
+      <c r="B112" s="112"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="25"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="23"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="25"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="23"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="14"/>
-      <c r="S112" s="59"/>
-    </row>
-    <row r="113" spans="2:19">
-      <c r="B113" s="41"/>
+      <c r="S112" s="104"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="89"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="24"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="22"/>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="24"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="22"/>
       <c r="N113" s="16"/>
       <c r="O113" s="16"/>
       <c r="P113" s="16"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="15"/>
-      <c r="S113" s="60"/>
-    </row>
-    <row r="114" spans="2:19">
-      <c r="B114" s="42"/>
+      <c r="S113" s="105"/>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="89"/>
+      <c r="B114" s="112"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="25"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="23"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="25"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="23"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="14"/>
-      <c r="S114" s="59"/>
-    </row>
-    <row r="115" spans="2:19">
-      <c r="B115" s="41"/>
+      <c r="S114" s="104"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="89"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="24"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="22"/>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
-      <c r="K115" s="55"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="24"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="22"/>
       <c r="N115" s="16"/>
       <c r="O115" s="16"/>
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
       <c r="R115" s="15"/>
-      <c r="S115" s="60"/>
-    </row>
-    <row r="116" spans="2:19">
-      <c r="B116" s="42"/>
+      <c r="S115" s="105"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="89"/>
+      <c r="B116" s="112"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="25"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="23"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="25"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="23"/>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="14"/>
-      <c r="S116" s="59"/>
-    </row>
-    <row r="117" spans="2:19">
-      <c r="B117" s="41"/>
+      <c r="S116" s="104"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="89"/>
+      <c r="B117" s="111"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="46"/>
-      <c r="F117" s="24"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="22"/>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
-      <c r="K117" s="55"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="24"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="22"/>
       <c r="N117" s="16"/>
       <c r="O117" s="16"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="15"/>
-      <c r="S117" s="60"/>
-    </row>
-    <row r="118" spans="2:19">
-      <c r="B118" s="42"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="14"/>
-      <c r="S118" s="59"/>
-    </row>
+      <c r="S117" s="105"/>
+    </row>
+    <row r="118" spans="1:19" ht="12.75" thickBot="1">
+      <c r="A118" s="89"/>
+      <c r="B118" s="113"/>
+      <c r="C118" s="106"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
+      <c r="K118" s="78"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
+      <c r="P118" s="76"/>
+      <c r="Q118" s="76"/>
+      <c r="R118" s="107"/>
+      <c r="S118" s="108"/>
+    </row>
+    <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="L2:R2"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4051,8 +4518,7 @@
   page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="59" max="16383" man="1"/>
+    <brk id="59" max="19" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1222,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1377,191 +1377,194 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1883,7 +1886,7 @@
   </sheetPr>
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -1917,11 +1920,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,67 +1935,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="67"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="59"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="54" t="s">
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="67"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2038,11 +2041,11 @@
       <c r="R4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="67"/>
+      <c r="S4" s="55"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="24"/>
       <c r="D5" s="27"/>
       <c r="E5" s="35"/>
@@ -2058,12 +2061,12 @@
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
-      <c r="R5" s="69"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
       <c r="E6" s="36"/>
@@ -2079,12 +2082,12 @@
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
-      <c r="R6" s="70"/>
+      <c r="R6" s="58"/>
       <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="26"/>
       <c r="D7" s="29"/>
       <c r="E7" s="37"/>
@@ -2100,12 +2103,12 @@
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="71"/>
+      <c r="R7" s="59"/>
       <c r="S7" s="51"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="89"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="25"/>
       <c r="D8" s="30"/>
       <c r="E8" s="38"/>
@@ -2121,12 +2124,12 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="72"/>
+      <c r="R8" s="60"/>
       <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="37"/>
@@ -2142,12 +2145,12 @@
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="71"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="51"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="89"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="25"/>
       <c r="D10" s="30"/>
       <c r="E10" s="38"/>
@@ -2163,12 +2166,12 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="72"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="26"/>
       <c r="D11" s="29"/>
       <c r="E11" s="37"/>
@@ -2184,12 +2187,12 @@
       <c r="O11" s="23"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="71"/>
+      <c r="R11" s="59"/>
       <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="89"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="25"/>
       <c r="D12" s="30"/>
       <c r="E12" s="38"/>
@@ -2205,12 +2208,12 @@
       <c r="O12" s="22"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="71"/>
+      <c r="R12" s="59"/>
       <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="37"/>
@@ -2226,12 +2229,12 @@
       <c r="O13" s="23"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="71"/>
+      <c r="R13" s="59"/>
       <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="89"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="25"/>
       <c r="D14" s="30"/>
       <c r="E14" s="38"/>
@@ -2247,12 +2250,12 @@
       <c r="O14" s="22"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="72"/>
+      <c r="R14" s="60"/>
       <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="37"/>
@@ -2268,12 +2271,12 @@
       <c r="O15" s="23"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="71"/>
+      <c r="R15" s="59"/>
       <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="89"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="25"/>
       <c r="D16" s="30"/>
       <c r="E16" s="38"/>
@@ -2289,12 +2292,12 @@
       <c r="O16" s="22"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="72"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="26"/>
       <c r="D17" s="29"/>
       <c r="E17" s="37"/>
@@ -2310,12 +2313,12 @@
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="71"/>
+      <c r="R17" s="59"/>
       <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="89"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="25"/>
       <c r="D18" s="30"/>
       <c r="E18" s="38"/>
@@ -2331,12 +2334,12 @@
       <c r="O18" s="22"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="72"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="26"/>
       <c r="D19" s="29"/>
       <c r="E19" s="37"/>
@@ -2352,12 +2355,12 @@
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="71"/>
+      <c r="R19" s="59"/>
       <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="89"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="25"/>
       <c r="D20" s="30"/>
       <c r="E20" s="38"/>
@@ -2373,12 +2376,12 @@
       <c r="O20" s="22"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="72"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="26"/>
       <c r="D21" s="29"/>
       <c r="E21" s="37"/>
@@ -2394,12 +2397,12 @@
       <c r="O21" s="23"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="71"/>
+      <c r="R21" s="59"/>
       <c r="S21" s="51"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="89"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="25"/>
       <c r="D22" s="30"/>
       <c r="E22" s="38"/>
@@ -2415,12 +2418,12 @@
       <c r="O22" s="22"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="72"/>
+      <c r="R22" s="60"/>
       <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="26"/>
       <c r="D23" s="29"/>
       <c r="E23" s="37"/>
@@ -2436,12 +2439,12 @@
       <c r="O23" s="23"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="71"/>
+      <c r="R23" s="59"/>
       <c r="S23" s="51"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="89"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="25"/>
       <c r="D24" s="30"/>
       <c r="E24" s="38"/>
@@ -2457,12 +2460,12 @@
       <c r="O24" s="22"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="72"/>
+      <c r="R24" s="60"/>
       <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="26"/>
       <c r="D25" s="29"/>
       <c r="E25" s="37"/>
@@ -2478,12 +2481,12 @@
       <c r="O25" s="23"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="71"/>
+      <c r="R25" s="59"/>
       <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="89"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="25"/>
       <c r="D26" s="30"/>
       <c r="E26" s="38"/>
@@ -2499,12 +2502,12 @@
       <c r="O26" s="22"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="72"/>
+      <c r="R26" s="60"/>
       <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="26"/>
       <c r="D27" s="29"/>
       <c r="E27" s="37"/>
@@ -2520,12 +2523,12 @@
       <c r="O27" s="23"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="71"/>
+      <c r="R27" s="59"/>
       <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="89"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="25"/>
       <c r="D28" s="30"/>
       <c r="E28" s="38"/>
@@ -2541,12 +2544,12 @@
       <c r="O28" s="22"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="72"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="26"/>
       <c r="D29" s="29"/>
       <c r="E29" s="37"/>
@@ -2562,12 +2565,12 @@
       <c r="O29" s="23"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="71"/>
+      <c r="R29" s="59"/>
       <c r="S29" s="51"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="89"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="25"/>
       <c r="D30" s="30"/>
       <c r="E30" s="38"/>
@@ -2583,12 +2586,12 @@
       <c r="O30" s="22"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="72"/>
+      <c r="R30" s="60"/>
       <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="26"/>
       <c r="D31" s="29"/>
       <c r="E31" s="37"/>
@@ -2604,12 +2607,12 @@
       <c r="O31" s="23"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="71"/>
+      <c r="R31" s="59"/>
       <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="89"/>
-      <c r="B32" s="85"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="25"/>
       <c r="D32" s="30"/>
       <c r="E32" s="38"/>
@@ -2625,12 +2628,12 @@
       <c r="O32" s="22"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="72"/>
+      <c r="R32" s="60"/>
       <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="26"/>
       <c r="D33" s="29"/>
       <c r="E33" s="37"/>
@@ -2646,12 +2649,12 @@
       <c r="O33" s="23"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="71"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="89"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="25"/>
       <c r="D34" s="30"/>
       <c r="E34" s="38"/>
@@ -2667,12 +2670,12 @@
       <c r="O34" s="22"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="72"/>
+      <c r="R34" s="60"/>
       <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1">
-      <c r="A35" s="89"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="26"/>
       <c r="D35" s="29"/>
       <c r="E35" s="37"/>
@@ -2688,12 +2691,12 @@
       <c r="O35" s="23"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="71"/>
+      <c r="R35" s="59"/>
       <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="89"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="25"/>
       <c r="D36" s="30"/>
       <c r="E36" s="38"/>
@@ -2709,12 +2712,12 @@
       <c r="O36" s="22"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="72"/>
+      <c r="R36" s="60"/>
       <c r="S36" s="51"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29"/>
       <c r="E37" s="37"/>
@@ -2730,12 +2733,12 @@
       <c r="O37" s="23"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="71"/>
+      <c r="R37" s="59"/>
       <c r="S37" s="51"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="89"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="25"/>
       <c r="D38" s="30"/>
       <c r="E38" s="38"/>
@@ -2751,12 +2754,12 @@
       <c r="O38" s="22"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="72"/>
+      <c r="R38" s="60"/>
       <c r="S38" s="51"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1">
-      <c r="A39" s="89"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29"/>
       <c r="E39" s="37"/>
@@ -2772,12 +2775,12 @@
       <c r="O39" s="23"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="71"/>
+      <c r="R39" s="59"/>
       <c r="S39" s="51"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="89"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="25"/>
       <c r="D40" s="30"/>
       <c r="E40" s="38"/>
@@ -2793,12 +2796,12 @@
       <c r="O40" s="22"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="60"/>
       <c r="S40" s="51"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29"/>
       <c r="E41" s="37"/>
@@ -2814,12 +2817,12 @@
       <c r="O41" s="23"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="71"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="51"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="89"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="25"/>
       <c r="D42" s="30"/>
       <c r="E42" s="38"/>
@@ -2835,12 +2838,12 @@
       <c r="O42" s="22"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-      <c r="R42" s="72"/>
+      <c r="R42" s="60"/>
       <c r="S42" s="51"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1">
-      <c r="A43" s="89"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="26"/>
       <c r="D43" s="29"/>
       <c r="E43" s="37"/>
@@ -2856,12 +2859,12 @@
       <c r="O43" s="23"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="71"/>
+      <c r="R43" s="59"/>
       <c r="S43" s="51"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="89"/>
-      <c r="B44" s="85"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="25"/>
       <c r="D44" s="30"/>
       <c r="E44" s="38"/>
@@ -2877,12 +2880,12 @@
       <c r="O44" s="22"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
-      <c r="R44" s="72"/>
+      <c r="R44" s="60"/>
       <c r="S44" s="51"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29"/>
       <c r="E45" s="37"/>
@@ -2898,12 +2901,12 @@
       <c r="O45" s="23"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="71"/>
+      <c r="R45" s="59"/>
       <c r="S45" s="51"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="89"/>
-      <c r="B46" s="85"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="25"/>
       <c r="D46" s="30"/>
       <c r="E46" s="38"/>
@@ -2919,12 +2922,12 @@
       <c r="O46" s="22"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
-      <c r="R46" s="72"/>
+      <c r="R46" s="60"/>
       <c r="S46" s="51"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1">
-      <c r="A47" s="89"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29"/>
       <c r="E47" s="37"/>
@@ -2940,12 +2943,12 @@
       <c r="O47" s="23"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="71"/>
+      <c r="R47" s="59"/>
       <c r="S47" s="51"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="89"/>
-      <c r="B48" s="85"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="25"/>
       <c r="D48" s="30"/>
       <c r="E48" s="38"/>
@@ -2961,12 +2964,12 @@
       <c r="O48" s="22"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
-      <c r="R48" s="72"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1">
-      <c r="A49" s="89"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29"/>
       <c r="E49" s="37"/>
@@ -2982,12 +2985,12 @@
       <c r="O49" s="23"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="71"/>
+      <c r="R49" s="59"/>
       <c r="S49" s="51"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="89"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="25"/>
       <c r="D50" s="30"/>
       <c r="E50" s="38"/>
@@ -3003,12 +3006,12 @@
       <c r="O50" s="22"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="72"/>
+      <c r="R50" s="60"/>
       <c r="S50" s="51"/>
     </row>
     <row r="51" spans="1:19" s="3" customFormat="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="86"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="26"/>
       <c r="D51" s="29"/>
       <c r="E51" s="37"/>
@@ -3024,12 +3027,12 @@
       <c r="O51" s="23"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="71"/>
+      <c r="R51" s="59"/>
       <c r="S51" s="51"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="89"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="25"/>
       <c r="D52" s="30"/>
       <c r="E52" s="38"/>
@@ -3045,12 +3048,12 @@
       <c r="O52" s="22"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="72"/>
+      <c r="R52" s="60"/>
       <c r="S52" s="51"/>
     </row>
     <row r="53" spans="1:19" s="3" customFormat="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="26"/>
       <c r="D53" s="29"/>
       <c r="E53" s="37"/>
@@ -3066,12 +3069,12 @@
       <c r="O53" s="23"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="71"/>
+      <c r="R53" s="59"/>
       <c r="S53" s="51"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="89"/>
-      <c r="B54" s="85"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
       <c r="E54" s="36"/>
@@ -3087,12 +3090,12 @@
       <c r="O54" s="40"/>
       <c r="P54" s="48"/>
       <c r="Q54" s="48"/>
-      <c r="R54" s="70"/>
+      <c r="R54" s="58"/>
       <c r="S54" s="51"/>
     </row>
     <row r="55" spans="1:19" s="3" customFormat="1">
-      <c r="A55" s="89"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="26"/>
       <c r="D55" s="29"/>
       <c r="E55" s="37"/>
@@ -3108,12 +3111,12 @@
       <c r="O55" s="23"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="80"/>
+      <c r="R55" s="68"/>
       <c r="S55" s="51"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="89"/>
-      <c r="B56" s="85"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
       <c r="E56" s="36"/>
@@ -3129,12 +3132,12 @@
       <c r="O56" s="40"/>
       <c r="P56" s="48"/>
       <c r="Q56" s="48"/>
-      <c r="R56" s="70"/>
+      <c r="R56" s="58"/>
       <c r="S56" s="51"/>
     </row>
     <row r="57" spans="1:19" s="3" customFormat="1">
-      <c r="A57" s="89"/>
-      <c r="B57" s="86"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="26"/>
       <c r="D57" s="29"/>
       <c r="E57" s="37"/>
@@ -3150,12 +3153,12 @@
       <c r="O57" s="23"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="71"/>
+      <c r="R57" s="59"/>
       <c r="S57" s="51"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="89"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="25"/>
       <c r="D58" s="30"/>
       <c r="E58" s="38"/>
@@ -3171,120 +3174,120 @@
       <c r="O58" s="22"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="72"/>
+      <c r="R58" s="60"/>
       <c r="S58" s="51"/>
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A59" s="89"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="79"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="67"/>
       <c r="S59" s="51"/>
     </row>
     <row r="60" spans="1:19" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="95" t="s">
+      <c r="C60" s="53"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="96" t="s">
+      <c r="Q60" s="114"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="79" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A61" s="88"/>
-      <c r="B61" s="109" t="s">
+      <c r="A61" s="75"/>
+      <c r="B61" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="97" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="93" t="s">
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="92"/>
-      <c r="S61" s="97"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="112"/>
+      <c r="S61" s="80"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A62" s="88"/>
-      <c r="B62" s="109"/>
-      <c r="C62" s="52"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="97"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="54" t="s">
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="55" t="s">
+      <c r="L62" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="54" t="s">
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
       <c r="R62" s="41"/>
-      <c r="S62" s="98"/>
+      <c r="S62" s="81"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="110"/>
-      <c r="C63" s="53"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -3330,13 +3333,13 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="99" t="s">
+      <c r="S63" s="82" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="A64" s="89"/>
-      <c r="B64" s="84"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="24"/>
       <c r="D64" s="27"/>
       <c r="E64" s="35"/>
@@ -3353,11 +3356,11 @@
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="31"/>
-      <c r="S64" s="100"/>
+      <c r="S64" s="83"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="89"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
       <c r="E65" s="36"/>
@@ -3374,11 +3377,11 @@
       <c r="P65" s="40"/>
       <c r="Q65" s="40"/>
       <c r="R65" s="32"/>
-      <c r="S65" s="101"/>
+      <c r="S65" s="84"/>
     </row>
     <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="89"/>
-      <c r="B66" s="112"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="26"/>
       <c r="D66" s="29"/>
       <c r="E66" s="37"/>
@@ -3395,11 +3398,11 @@
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="33"/>
-      <c r="S66" s="102"/>
+      <c r="S66" s="85"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="89"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="76"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="25"/>
       <c r="D67" s="30"/>
       <c r="E67" s="38"/>
@@ -3416,11 +3419,11 @@
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
       <c r="R67" s="34"/>
-      <c r="S67" s="103"/>
+      <c r="S67" s="86"/>
     </row>
     <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="89"/>
-      <c r="B68" s="112"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="93"/>
       <c r="C68" s="26"/>
       <c r="D68" s="29"/>
       <c r="E68" s="37"/>
@@ -3437,11 +3440,11 @@
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="33"/>
-      <c r="S68" s="102"/>
+      <c r="S68" s="85"/>
     </row>
     <row r="69" spans="1:19" ht="12.4" customHeight="1">
-      <c r="A69" s="89"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="25"/>
       <c r="D69" s="30"/>
       <c r="E69" s="38"/>
@@ -3458,11 +3461,11 @@
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="34"/>
-      <c r="S69" s="103"/>
+      <c r="S69" s="86"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="89"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="76"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="4"/>
       <c r="D70" s="29"/>
       <c r="E70" s="37"/>
@@ -3479,11 +3482,11 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="14"/>
-      <c r="S70" s="104"/>
+      <c r="S70" s="87"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="89"/>
-      <c r="B71" s="111"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="5"/>
       <c r="D71" s="30"/>
       <c r="E71" s="38"/>
@@ -3500,11 +3503,11 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="15"/>
-      <c r="S71" s="105"/>
+      <c r="S71" s="88"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="89"/>
-      <c r="B72" s="112"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="93"/>
       <c r="C72" s="4"/>
       <c r="D72" s="29"/>
       <c r="E72" s="37"/>
@@ -3521,11 +3524,11 @@
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="14"/>
-      <c r="S72" s="104"/>
+      <c r="S72" s="87"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="89"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="76"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="5"/>
       <c r="D73" s="30"/>
       <c r="E73" s="38"/>
@@ -3542,11 +3545,11 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="15"/>
-      <c r="S73" s="105"/>
+      <c r="S73" s="88"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="89"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="93"/>
       <c r="C74" s="4"/>
       <c r="D74" s="29"/>
       <c r="E74" s="37"/>
@@ -3563,11 +3566,11 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="14"/>
-      <c r="S74" s="104"/>
+      <c r="S74" s="87"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="89"/>
-      <c r="B75" s="111"/>
+      <c r="A75" s="76"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="5"/>
       <c r="D75" s="30"/>
       <c r="E75" s="38"/>
@@ -3584,11 +3587,11 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="15"/>
-      <c r="S75" s="105"/>
+      <c r="S75" s="88"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="89"/>
-      <c r="B76" s="112"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="4"/>
       <c r="D76" s="29"/>
       <c r="E76" s="37"/>
@@ -3605,11 +3608,11 @@
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="14"/>
-      <c r="S76" s="104"/>
+      <c r="S76" s="87"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="89"/>
-      <c r="B77" s="111"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="5"/>
       <c r="D77" s="30"/>
       <c r="E77" s="38"/>
@@ -3626,11 +3629,11 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="15"/>
-      <c r="S77" s="105"/>
+      <c r="S77" s="88"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="89"/>
-      <c r="B78" s="112"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="4"/>
       <c r="D78" s="29"/>
       <c r="E78" s="37"/>
@@ -3647,11 +3650,11 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="14"/>
-      <c r="S78" s="104"/>
+      <c r="S78" s="87"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="89"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="76"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="5"/>
       <c r="D79" s="30"/>
       <c r="E79" s="38"/>
@@ -3668,11 +3671,11 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="15"/>
-      <c r="S79" s="105"/>
+      <c r="S79" s="88"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="89"/>
-      <c r="B80" s="112"/>
+      <c r="A80" s="76"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="4"/>
       <c r="D80" s="29"/>
       <c r="E80" s="37"/>
@@ -3689,11 +3692,11 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="14"/>
-      <c r="S80" s="104"/>
+      <c r="S80" s="87"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="89"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="76"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="5"/>
       <c r="D81" s="30"/>
       <c r="E81" s="38"/>
@@ -3710,11 +3713,11 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="15"/>
-      <c r="S81" s="105"/>
+      <c r="S81" s="88"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="89"/>
-      <c r="B82" s="112"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29"/>
       <c r="E82" s="37"/>
@@ -3731,11 +3734,11 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="14"/>
-      <c r="S82" s="104"/>
+      <c r="S82" s="87"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="89"/>
-      <c r="B83" s="111"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="92"/>
       <c r="C83" s="5"/>
       <c r="D83" s="30"/>
       <c r="E83" s="38"/>
@@ -3752,11 +3755,11 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="15"/>
-      <c r="S83" s="105"/>
+      <c r="S83" s="88"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="89"/>
-      <c r="B84" s="112"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="4"/>
       <c r="D84" s="29"/>
       <c r="E84" s="37"/>
@@ -3773,11 +3776,11 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="14"/>
-      <c r="S84" s="104"/>
+      <c r="S84" s="87"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="89"/>
-      <c r="B85" s="111"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="5"/>
       <c r="D85" s="30"/>
       <c r="E85" s="38"/>
@@ -3794,11 +3797,11 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="15"/>
-      <c r="S85" s="105"/>
+      <c r="S85" s="88"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="89"/>
-      <c r="B86" s="112"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29"/>
       <c r="E86" s="37"/>
@@ -3815,11 +3818,11 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="14"/>
-      <c r="S86" s="104"/>
+      <c r="S86" s="87"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="89"/>
-      <c r="B87" s="111"/>
+      <c r="A87" s="76"/>
+      <c r="B87" s="92"/>
       <c r="C87" s="5"/>
       <c r="D87" s="30"/>
       <c r="E87" s="38"/>
@@ -3836,11 +3839,11 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="15"/>
-      <c r="S87" s="105"/>
+      <c r="S87" s="88"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="89"/>
-      <c r="B88" s="112"/>
+      <c r="A88" s="76"/>
+      <c r="B88" s="93"/>
       <c r="C88" s="4"/>
       <c r="D88" s="29"/>
       <c r="E88" s="37"/>
@@ -3857,11 +3860,11 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="14"/>
-      <c r="S88" s="104"/>
+      <c r="S88" s="87"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="89"/>
-      <c r="B89" s="111"/>
+      <c r="A89" s="76"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="5"/>
       <c r="D89" s="30"/>
       <c r="E89" s="38"/>
@@ -3878,11 +3881,11 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="15"/>
-      <c r="S89" s="105"/>
+      <c r="S89" s="88"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="89"/>
-      <c r="B90" s="112"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="4"/>
       <c r="D90" s="29"/>
       <c r="E90" s="37"/>
@@ -3899,11 +3902,11 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="14"/>
-      <c r="S90" s="104"/>
+      <c r="S90" s="87"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="89"/>
-      <c r="B91" s="111"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="92"/>
       <c r="C91" s="5"/>
       <c r="D91" s="30"/>
       <c r="E91" s="38"/>
@@ -3920,11 +3923,11 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="15"/>
-      <c r="S91" s="105"/>
+      <c r="S91" s="88"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="89"/>
-      <c r="B92" s="112"/>
+      <c r="A92" s="76"/>
+      <c r="B92" s="93"/>
       <c r="C92" s="4"/>
       <c r="D92" s="29"/>
       <c r="E92" s="37"/>
@@ -3941,11 +3944,11 @@
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="14"/>
-      <c r="S92" s="104"/>
+      <c r="S92" s="87"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="89"/>
-      <c r="B93" s="111"/>
+      <c r="A93" s="76"/>
+      <c r="B93" s="92"/>
       <c r="C93" s="5"/>
       <c r="D93" s="30"/>
       <c r="E93" s="38"/>
@@ -3962,11 +3965,11 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="15"/>
-      <c r="S93" s="105"/>
+      <c r="S93" s="88"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="89"/>
-      <c r="B94" s="112"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="93"/>
       <c r="C94" s="4"/>
       <c r="D94" s="29"/>
       <c r="E94" s="37"/>
@@ -3983,11 +3986,11 @@
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
       <c r="R94" s="14"/>
-      <c r="S94" s="104"/>
+      <c r="S94" s="87"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="89"/>
-      <c r="B95" s="111"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="5"/>
       <c r="D95" s="30"/>
       <c r="E95" s="38"/>
@@ -4004,11 +4007,11 @@
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="105"/>
+      <c r="S95" s="88"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="89"/>
-      <c r="B96" s="112"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="93"/>
       <c r="C96" s="4"/>
       <c r="D96" s="29"/>
       <c r="E96" s="37"/>
@@ -4025,11 +4028,11 @@
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
       <c r="R96" s="14"/>
-      <c r="S96" s="104"/>
+      <c r="S96" s="87"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="89"/>
-      <c r="B97" s="111"/>
+      <c r="A97" s="76"/>
+      <c r="B97" s="92"/>
       <c r="C97" s="5"/>
       <c r="D97" s="30"/>
       <c r="E97" s="38"/>
@@ -4046,11 +4049,11 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="15"/>
-      <c r="S97" s="105"/>
+      <c r="S97" s="88"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="89"/>
-      <c r="B98" s="112"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="4"/>
       <c r="D98" s="29"/>
       <c r="E98" s="37"/>
@@ -4067,11 +4070,11 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="104"/>
+      <c r="S98" s="87"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="89"/>
-      <c r="B99" s="111"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="5"/>
       <c r="D99" s="30"/>
       <c r="E99" s="38"/>
@@ -4088,11 +4091,11 @@
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="15"/>
-      <c r="S99" s="105"/>
+      <c r="S99" s="88"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="89"/>
-      <c r="B100" s="112"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="93"/>
       <c r="C100" s="4"/>
       <c r="D100" s="29"/>
       <c r="E100" s="37"/>
@@ -4109,11 +4112,11 @@
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="14"/>
-      <c r="S100" s="104"/>
+      <c r="S100" s="87"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="89"/>
-      <c r="B101" s="111"/>
+      <c r="A101" s="76"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="5"/>
       <c r="D101" s="30"/>
       <c r="E101" s="38"/>
@@ -4130,11 +4133,11 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="15"/>
-      <c r="S101" s="105"/>
+      <c r="S101" s="88"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="89"/>
-      <c r="B102" s="112"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="4"/>
       <c r="D102" s="29"/>
       <c r="E102" s="37"/>
@@ -4151,11 +4154,11 @@
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="14"/>
-      <c r="S102" s="104"/>
+      <c r="S102" s="87"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="89"/>
-      <c r="B103" s="111"/>
+      <c r="A103" s="76"/>
+      <c r="B103" s="92"/>
       <c r="C103" s="5"/>
       <c r="D103" s="30"/>
       <c r="E103" s="38"/>
@@ -4172,11 +4175,11 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="15"/>
-      <c r="S103" s="105"/>
+      <c r="S103" s="88"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="89"/>
-      <c r="B104" s="112"/>
+      <c r="A104" s="76"/>
+      <c r="B104" s="93"/>
       <c r="C104" s="4"/>
       <c r="D104" s="29"/>
       <c r="E104" s="37"/>
@@ -4193,11 +4196,11 @@
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="14"/>
-      <c r="S104" s="104"/>
+      <c r="S104" s="87"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="89"/>
-      <c r="B105" s="111"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="92"/>
       <c r="C105" s="5"/>
       <c r="D105" s="30"/>
       <c r="E105" s="38"/>
@@ -4214,11 +4217,11 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="15"/>
-      <c r="S105" s="105"/>
+      <c r="S105" s="88"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="89"/>
-      <c r="B106" s="112"/>
+      <c r="A106" s="76"/>
+      <c r="B106" s="93"/>
       <c r="C106" s="4"/>
       <c r="D106" s="29"/>
       <c r="E106" s="37"/>
@@ -4235,11 +4238,11 @@
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="14"/>
-      <c r="S106" s="104"/>
+      <c r="S106" s="87"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="89"/>
-      <c r="B107" s="111"/>
+      <c r="A107" s="76"/>
+      <c r="B107" s="92"/>
       <c r="C107" s="5"/>
       <c r="D107" s="30"/>
       <c r="E107" s="38"/>
@@ -4256,11 +4259,11 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="15"/>
-      <c r="S107" s="105"/>
+      <c r="S107" s="88"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="89"/>
-      <c r="B108" s="112"/>
+      <c r="A108" s="76"/>
+      <c r="B108" s="93"/>
       <c r="C108" s="4"/>
       <c r="D108" s="29"/>
       <c r="E108" s="37"/>
@@ -4277,11 +4280,11 @@
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="14"/>
-      <c r="S108" s="104"/>
+      <c r="S108" s="87"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="89"/>
-      <c r="B109" s="111"/>
+      <c r="A109" s="76"/>
+      <c r="B109" s="92"/>
       <c r="C109" s="5"/>
       <c r="D109" s="30"/>
       <c r="E109" s="38"/>
@@ -4298,11 +4301,11 @@
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
       <c r="R109" s="15"/>
-      <c r="S109" s="105"/>
+      <c r="S109" s="88"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="89"/>
-      <c r="B110" s="112"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="93"/>
       <c r="C110" s="4"/>
       <c r="D110" s="29"/>
       <c r="E110" s="37"/>
@@ -4319,11 +4322,11 @@
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="14"/>
-      <c r="S110" s="104"/>
+      <c r="S110" s="87"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="89"/>
-      <c r="B111" s="111"/>
+      <c r="A111" s="76"/>
+      <c r="B111" s="92"/>
       <c r="C111" s="5"/>
       <c r="D111" s="30"/>
       <c r="E111" s="38"/>
@@ -4340,11 +4343,11 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="15"/>
-      <c r="S111" s="105"/>
+      <c r="S111" s="88"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="89"/>
-      <c r="B112" s="112"/>
+      <c r="A112" s="76"/>
+      <c r="B112" s="93"/>
       <c r="C112" s="4"/>
       <c r="D112" s="29"/>
       <c r="E112" s="37"/>
@@ -4361,11 +4364,11 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="14"/>
-      <c r="S112" s="104"/>
+      <c r="S112" s="87"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="89"/>
-      <c r="B113" s="111"/>
+      <c r="A113" s="76"/>
+      <c r="B113" s="92"/>
       <c r="C113" s="5"/>
       <c r="D113" s="30"/>
       <c r="E113" s="38"/>
@@ -4382,11 +4385,11 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="15"/>
-      <c r="S113" s="105"/>
+      <c r="S113" s="88"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="89"/>
-      <c r="B114" s="112"/>
+      <c r="A114" s="76"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="4"/>
       <c r="D114" s="29"/>
       <c r="E114" s="37"/>
@@ -4403,11 +4406,11 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="14"/>
-      <c r="S114" s="104"/>
+      <c r="S114" s="87"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="89"/>
-      <c r="B115" s="111"/>
+      <c r="A115" s="76"/>
+      <c r="B115" s="92"/>
       <c r="C115" s="5"/>
       <c r="D115" s="30"/>
       <c r="E115" s="38"/>
@@ -4424,11 +4427,11 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
       <c r="R115" s="15"/>
-      <c r="S115" s="105"/>
+      <c r="S115" s="88"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="89"/>
-      <c r="B116" s="112"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="93"/>
       <c r="C116" s="4"/>
       <c r="D116" s="29"/>
       <c r="E116" s="37"/>
@@ -4445,11 +4448,11 @@
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="14"/>
-      <c r="S116" s="104"/>
+      <c r="S116" s="87"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="89"/>
-      <c r="B117" s="111"/>
+      <c r="A117" s="76"/>
+      <c r="B117" s="92"/>
       <c r="C117" s="5"/>
       <c r="D117" s="30"/>
       <c r="E117" s="38"/>
@@ -4466,32 +4469,40 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="15"/>
-      <c r="S117" s="105"/>
+      <c r="S117" s="88"/>
     </row>
     <row r="118" spans="1:19" ht="12.75" thickBot="1">
-      <c r="A118" s="89"/>
-      <c r="B118" s="113"/>
-      <c r="C118" s="106"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="78"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="76"/>
-      <c r="O118" s="76"/>
-      <c r="P118" s="76"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="107"/>
-      <c r="S118" s="108"/>
+      <c r="A118" s="76"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="63"/>
+      <c r="M118" s="65"/>
+      <c r="N118" s="64"/>
+      <c r="O118" s="64"/>
+      <c r="P118" s="64"/>
+      <c r="Q118" s="64"/>
+      <c r="R118" s="90"/>
+      <c r="S118" s="91"/>
     </row>
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E61:K61"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
@@ -4500,14 +4511,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E61:K61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\template_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1222,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1562,9 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1886,7 +1883,7 @@
   </sheetPr>
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -3193,7 +3190,7 @@
       <c r="M59" s="64"/>
       <c r="N59" s="69"/>
       <c r="O59" s="70"/>
-      <c r="P59" s="69"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="69"/>
       <c r="R59" s="67"/>
       <c r="S59" s="51"/>
@@ -3218,7 +3215,7 @@
       <c r="P60" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="114"/>
+      <c r="Q60" s="53"/>
       <c r="R60" s="77"/>
       <c r="S60" s="79" t="s">
         <v>29</v>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\template_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -838,17 +838,6 @@
       <left style="thin">
         <color theme="6"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.79995117038483843"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
       <right style="thick">
         <color theme="6" tint="-0.249977111117893"/>
       </right>
@@ -1202,6 +1191,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.79995117038483843"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1222,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1389,8 +1456,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1398,77 +1468,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="53" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1476,40 +1546,46 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,6 +1606,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,22 +1624,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,7 +1962,7 @@
   </sheetPr>
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -1932,67 +2011,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="107" t="s">
+      <c r="L3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="94"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2035,14 +2114,14 @@
       <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="95" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="55"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="24"/>
       <c r="D5" s="27"/>
       <c r="E5" s="35"/>
@@ -2058,12 +2137,12 @@
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
-      <c r="R5" s="57"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="25"/>
       <c r="D6" s="28"/>
       <c r="E6" s="36"/>
@@ -2079,12 +2158,12 @@
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
-      <c r="R6" s="58"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="26"/>
       <c r="D7" s="29"/>
       <c r="E7" s="37"/>
@@ -2100,12 +2179,12 @@
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="59"/>
+      <c r="R7" s="58"/>
       <c r="S7" s="51"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="76"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="25"/>
       <c r="D8" s="30"/>
       <c r="E8" s="38"/>
@@ -2121,12 +2200,12 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="60"/>
+      <c r="R8" s="59"/>
       <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="37"/>
@@ -2142,12 +2221,12 @@
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="59"/>
+      <c r="R9" s="58"/>
       <c r="S9" s="51"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="76"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="25"/>
       <c r="D10" s="30"/>
       <c r="E10" s="38"/>
@@ -2163,12 +2242,12 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="60"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="26"/>
       <c r="D11" s="29"/>
       <c r="E11" s="37"/>
@@ -2184,12 +2263,12 @@
       <c r="O11" s="23"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="59"/>
+      <c r="R11" s="58"/>
       <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="25"/>
       <c r="D12" s="30"/>
       <c r="E12" s="38"/>
@@ -2205,12 +2284,12 @@
       <c r="O12" s="22"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="59"/>
+      <c r="R12" s="58"/>
       <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="37"/>
@@ -2226,12 +2305,12 @@
       <c r="O13" s="23"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="59"/>
+      <c r="R13" s="58"/>
       <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="25"/>
       <c r="D14" s="30"/>
       <c r="E14" s="38"/>
@@ -2247,12 +2326,12 @@
       <c r="O14" s="22"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="60"/>
+      <c r="R14" s="59"/>
       <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="37"/>
@@ -2268,12 +2347,12 @@
       <c r="O15" s="23"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="59"/>
+      <c r="R15" s="58"/>
       <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="76"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="25"/>
       <c r="D16" s="30"/>
       <c r="E16" s="38"/>
@@ -2289,12 +2368,12 @@
       <c r="O16" s="22"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="60"/>
+      <c r="R16" s="59"/>
       <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="26"/>
       <c r="D17" s="29"/>
       <c r="E17" s="37"/>
@@ -2310,12 +2389,12 @@
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="59"/>
+      <c r="R17" s="58"/>
       <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="76"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="25"/>
       <c r="D18" s="30"/>
       <c r="E18" s="38"/>
@@ -2331,12 +2410,12 @@
       <c r="O18" s="22"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="60"/>
+      <c r="R18" s="59"/>
       <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="26"/>
       <c r="D19" s="29"/>
       <c r="E19" s="37"/>
@@ -2352,12 +2431,12 @@
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="59"/>
+      <c r="R19" s="58"/>
       <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="76"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="25"/>
       <c r="D20" s="30"/>
       <c r="E20" s="38"/>
@@ -2373,12 +2452,12 @@
       <c r="O20" s="22"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="60"/>
+      <c r="R20" s="59"/>
       <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="26"/>
       <c r="D21" s="29"/>
       <c r="E21" s="37"/>
@@ -2394,12 +2473,12 @@
       <c r="O21" s="23"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="59"/>
+      <c r="R21" s="58"/>
       <c r="S21" s="51"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="76"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="25"/>
       <c r="D22" s="30"/>
       <c r="E22" s="38"/>
@@ -2415,12 +2494,12 @@
       <c r="O22" s="22"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="60"/>
+      <c r="R22" s="59"/>
       <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="26"/>
       <c r="D23" s="29"/>
       <c r="E23" s="37"/>
@@ -2436,12 +2515,12 @@
       <c r="O23" s="23"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="59"/>
+      <c r="R23" s="58"/>
       <c r="S23" s="51"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="76"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="25"/>
       <c r="D24" s="30"/>
       <c r="E24" s="38"/>
@@ -2457,12 +2536,12 @@
       <c r="O24" s="22"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="60"/>
+      <c r="R24" s="59"/>
       <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="26"/>
       <c r="D25" s="29"/>
       <c r="E25" s="37"/>
@@ -2478,12 +2557,12 @@
       <c r="O25" s="23"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="59"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="76"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="25"/>
       <c r="D26" s="30"/>
       <c r="E26" s="38"/>
@@ -2499,12 +2578,12 @@
       <c r="O26" s="22"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="60"/>
+      <c r="R26" s="59"/>
       <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="26"/>
       <c r="D27" s="29"/>
       <c r="E27" s="37"/>
@@ -2520,12 +2599,12 @@
       <c r="O27" s="23"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="59"/>
+      <c r="R27" s="58"/>
       <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="76"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="25"/>
       <c r="D28" s="30"/>
       <c r="E28" s="38"/>
@@ -2541,12 +2620,12 @@
       <c r="O28" s="22"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="60"/>
+      <c r="R28" s="59"/>
       <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="26"/>
       <c r="D29" s="29"/>
       <c r="E29" s="37"/>
@@ -2562,12 +2641,12 @@
       <c r="O29" s="23"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="59"/>
+      <c r="R29" s="58"/>
       <c r="S29" s="51"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="76"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="25"/>
       <c r="D30" s="30"/>
       <c r="E30" s="38"/>
@@ -2583,12 +2662,12 @@
       <c r="O30" s="22"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="60"/>
+      <c r="R30" s="59"/>
       <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="26"/>
       <c r="D31" s="29"/>
       <c r="E31" s="37"/>
@@ -2604,12 +2683,12 @@
       <c r="O31" s="23"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="59"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="76"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="25"/>
       <c r="D32" s="30"/>
       <c r="E32" s="38"/>
@@ -2625,12 +2704,12 @@
       <c r="O32" s="22"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="60"/>
+      <c r="R32" s="59"/>
       <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="73"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="26"/>
       <c r="D33" s="29"/>
       <c r="E33" s="37"/>
@@ -2646,12 +2725,12 @@
       <c r="O33" s="23"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="59"/>
+      <c r="R33" s="58"/>
       <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="25"/>
       <c r="D34" s="30"/>
       <c r="E34" s="38"/>
@@ -2667,12 +2746,12 @@
       <c r="O34" s="22"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="60"/>
+      <c r="R34" s="59"/>
       <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="73"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="26"/>
       <c r="D35" s="29"/>
       <c r="E35" s="37"/>
@@ -2688,12 +2767,12 @@
       <c r="O35" s="23"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="59"/>
+      <c r="R35" s="58"/>
       <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="76"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="25"/>
       <c r="D36" s="30"/>
       <c r="E36" s="38"/>
@@ -2709,12 +2788,12 @@
       <c r="O36" s="22"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="60"/>
+      <c r="R36" s="59"/>
       <c r="S36" s="51"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="26"/>
       <c r="D37" s="29"/>
       <c r="E37" s="37"/>
@@ -2730,12 +2809,12 @@
       <c r="O37" s="23"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="59"/>
+      <c r="R37" s="58"/>
       <c r="S37" s="51"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="76"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="25"/>
       <c r="D38" s="30"/>
       <c r="E38" s="38"/>
@@ -2751,12 +2830,12 @@
       <c r="O38" s="22"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
-      <c r="R38" s="60"/>
+      <c r="R38" s="59"/>
       <c r="S38" s="51"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="26"/>
       <c r="D39" s="29"/>
       <c r="E39" s="37"/>
@@ -2772,12 +2851,12 @@
       <c r="O39" s="23"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="59"/>
+      <c r="R39" s="58"/>
       <c r="S39" s="51"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="76"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="25"/>
       <c r="D40" s="30"/>
       <c r="E40" s="38"/>
@@ -2793,12 +2872,12 @@
       <c r="O40" s="22"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="60"/>
+      <c r="R40" s="59"/>
       <c r="S40" s="51"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1">
-      <c r="A41" s="76"/>
-      <c r="B41" s="73"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="26"/>
       <c r="D41" s="29"/>
       <c r="E41" s="37"/>
@@ -2814,12 +2893,12 @@
       <c r="O41" s="23"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="59"/>
+      <c r="R41" s="58"/>
       <c r="S41" s="51"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="76"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="25"/>
       <c r="D42" s="30"/>
       <c r="E42" s="38"/>
@@ -2835,12 +2914,12 @@
       <c r="O42" s="22"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-      <c r="R42" s="60"/>
+      <c r="R42" s="59"/>
       <c r="S42" s="51"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="26"/>
       <c r="D43" s="29"/>
       <c r="E43" s="37"/>
@@ -2856,12 +2935,12 @@
       <c r="O43" s="23"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="59"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="51"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="76"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="25"/>
       <c r="D44" s="30"/>
       <c r="E44" s="38"/>
@@ -2877,12 +2956,12 @@
       <c r="O44" s="22"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
-      <c r="R44" s="60"/>
+      <c r="R44" s="59"/>
       <c r="S44" s="51"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="73"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="26"/>
       <c r="D45" s="29"/>
       <c r="E45" s="37"/>
@@ -2898,12 +2977,12 @@
       <c r="O45" s="23"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="59"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="51"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="76"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="25"/>
       <c r="D46" s="30"/>
       <c r="E46" s="38"/>
@@ -2919,12 +2998,12 @@
       <c r="O46" s="22"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
-      <c r="R46" s="60"/>
+      <c r="R46" s="59"/>
       <c r="S46" s="51"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1">
-      <c r="A47" s="76"/>
-      <c r="B47" s="73"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="26"/>
       <c r="D47" s="29"/>
       <c r="E47" s="37"/>
@@ -2940,12 +3019,12 @@
       <c r="O47" s="23"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="59"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="51"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="76"/>
-      <c r="B48" s="72"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="25"/>
       <c r="D48" s="30"/>
       <c r="E48" s="38"/>
@@ -2961,12 +3040,12 @@
       <c r="O48" s="22"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
-      <c r="R48" s="60"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1">
-      <c r="A49" s="76"/>
-      <c r="B49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="26"/>
       <c r="D49" s="29"/>
       <c r="E49" s="37"/>
@@ -2982,12 +3061,12 @@
       <c r="O49" s="23"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="59"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="51"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="76"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="25"/>
       <c r="D50" s="30"/>
       <c r="E50" s="38"/>
@@ -3003,12 +3082,12 @@
       <c r="O50" s="22"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="60"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="51"/>
     </row>
     <row r="51" spans="1:19" s="3" customFormat="1">
-      <c r="A51" s="76"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="26"/>
       <c r="D51" s="29"/>
       <c r="E51" s="37"/>
@@ -3024,12 +3103,12 @@
       <c r="O51" s="23"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="59"/>
+      <c r="R51" s="58"/>
       <c r="S51" s="51"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="76"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="25"/>
       <c r="D52" s="30"/>
       <c r="E52" s="38"/>
@@ -3045,12 +3124,12 @@
       <c r="O52" s="22"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="60"/>
+      <c r="R52" s="59"/>
       <c r="S52" s="51"/>
     </row>
     <row r="53" spans="1:19" s="3" customFormat="1">
-      <c r="A53" s="76"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="26"/>
       <c r="D53" s="29"/>
       <c r="E53" s="37"/>
@@ -3066,12 +3145,12 @@
       <c r="O53" s="23"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="59"/>
+      <c r="R53" s="58"/>
       <c r="S53" s="51"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="76"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="25"/>
       <c r="D54" s="28"/>
       <c r="E54" s="36"/>
@@ -3087,12 +3166,12 @@
       <c r="O54" s="40"/>
       <c r="P54" s="48"/>
       <c r="Q54" s="48"/>
-      <c r="R54" s="58"/>
+      <c r="R54" s="57"/>
       <c r="S54" s="51"/>
     </row>
     <row r="55" spans="1:19" s="3" customFormat="1">
-      <c r="A55" s="76"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="26"/>
       <c r="D55" s="29"/>
       <c r="E55" s="37"/>
@@ -3108,12 +3187,12 @@
       <c r="O55" s="23"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="68"/>
+      <c r="R55" s="67"/>
       <c r="S55" s="51"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="76"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="25"/>
       <c r="D56" s="28"/>
       <c r="E56" s="36"/>
@@ -3129,12 +3208,12 @@
       <c r="O56" s="40"/>
       <c r="P56" s="48"/>
       <c r="Q56" s="48"/>
-      <c r="R56" s="58"/>
+      <c r="R56" s="57"/>
       <c r="S56" s="51"/>
     </row>
     <row r="57" spans="1:19" s="3" customFormat="1">
-      <c r="A57" s="76"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="26"/>
       <c r="D57" s="29"/>
       <c r="E57" s="37"/>
@@ -3150,12 +3229,12 @@
       <c r="O57" s="23"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="59"/>
+      <c r="R57" s="58"/>
       <c r="S57" s="51"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="76"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="25"/>
       <c r="D58" s="30"/>
       <c r="E58" s="38"/>
@@ -3171,28 +3250,28 @@
       <c r="O58" s="22"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="60"/>
+      <c r="R58" s="59"/>
       <c r="S58" s="51"/>
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A59" s="76"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="70"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="69"/>
       <c r="P59" s="17"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="67"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="66"/>
       <c r="S59" s="51"/>
     </row>
     <row r="60" spans="1:19" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
@@ -3200,91 +3279,91 @@
         <v>28</v>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="77"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
       <c r="J60" s="53"/>
-      <c r="K60" s="77"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="53"/>
       <c r="M60" s="53"/>
       <c r="N60" s="53"/>
       <c r="O60" s="53"/>
-      <c r="P60" s="78" t="s">
+      <c r="P60" s="77" t="s">
         <v>25</v>
       </c>
       <c r="Q60" s="53"/>
-      <c r="R60" s="77"/>
-      <c r="S60" s="79" t="s">
+      <c r="R60" s="76"/>
+      <c r="S60" s="78" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A61" s="75"/>
-      <c r="B61" s="108" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="100" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="113" t="s">
+      <c r="E61" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="110" t="s">
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="112"/>
-      <c r="S61" s="80"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="79"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A62" s="75"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="103" t="s">
+      <c r="E62" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="105" t="s">
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="107" t="s">
+      <c r="L62" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="105" t="s">
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="41"/>
-      <c r="S62" s="81"/>
+      <c r="S62" s="80"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A63" s="75"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="98"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -3330,13 +3409,13 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="82" t="s">
+      <c r="S63" s="81" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="A64" s="76"/>
-      <c r="B64" s="71"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="24"/>
       <c r="D64" s="27"/>
       <c r="E64" s="35"/>
@@ -3353,11 +3432,11 @@
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="31"/>
-      <c r="S64" s="83"/>
+      <c r="S64" s="82"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
       <c r="E65" s="36"/>
@@ -3374,11 +3453,11 @@
       <c r="P65" s="40"/>
       <c r="Q65" s="40"/>
       <c r="R65" s="32"/>
-      <c r="S65" s="84"/>
+      <c r="S65" s="83"/>
     </row>
     <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="75"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="26"/>
       <c r="D66" s="29"/>
       <c r="E66" s="37"/>
@@ -3395,11 +3474,11 @@
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="33"/>
-      <c r="S66" s="85"/>
+      <c r="S66" s="84"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="91"/>
       <c r="C67" s="25"/>
       <c r="D67" s="30"/>
       <c r="E67" s="38"/>
@@ -3416,11 +3495,11 @@
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
       <c r="R67" s="34"/>
-      <c r="S67" s="86"/>
+      <c r="S67" s="85"/>
     </row>
     <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="26"/>
       <c r="D68" s="29"/>
       <c r="E68" s="37"/>
@@ -3437,11 +3516,11 @@
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="33"/>
-      <c r="S68" s="85"/>
+      <c r="S68" s="84"/>
     </row>
     <row r="69" spans="1:19" ht="12.4" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="92"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="25"/>
       <c r="D69" s="30"/>
       <c r="E69" s="38"/>
@@ -3458,11 +3537,11 @@
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="34"/>
-      <c r="S69" s="86"/>
+      <c r="S69" s="85"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="76"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="4"/>
       <c r="D70" s="29"/>
       <c r="E70" s="37"/>
@@ -3479,11 +3558,11 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="14"/>
-      <c r="S70" s="87"/>
+      <c r="S70" s="86"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="76"/>
-      <c r="B71" s="92"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="5"/>
       <c r="D71" s="30"/>
       <c r="E71" s="38"/>
@@ -3500,11 +3579,11 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="15"/>
-      <c r="S71" s="88"/>
+      <c r="S71" s="87"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="76"/>
-      <c r="B72" s="93"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="4"/>
       <c r="D72" s="29"/>
       <c r="E72" s="37"/>
@@ -3521,11 +3600,11 @@
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="14"/>
-      <c r="S72" s="87"/>
+      <c r="S72" s="86"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="76"/>
-      <c r="B73" s="92"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="5"/>
       <c r="D73" s="30"/>
       <c r="E73" s="38"/>
@@ -3542,11 +3621,11 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="15"/>
-      <c r="S73" s="88"/>
+      <c r="S73" s="87"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="76"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="4"/>
       <c r="D74" s="29"/>
       <c r="E74" s="37"/>
@@ -3563,11 +3642,11 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="14"/>
-      <c r="S74" s="87"/>
+      <c r="S74" s="86"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="76"/>
-      <c r="B75" s="92"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="5"/>
       <c r="D75" s="30"/>
       <c r="E75" s="38"/>
@@ -3584,11 +3663,11 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="15"/>
-      <c r="S75" s="88"/>
+      <c r="S75" s="87"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="76"/>
-      <c r="B76" s="93"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="4"/>
       <c r="D76" s="29"/>
       <c r="E76" s="37"/>
@@ -3605,11 +3684,11 @@
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="14"/>
-      <c r="S76" s="87"/>
+      <c r="S76" s="86"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="76"/>
-      <c r="B77" s="92"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="5"/>
       <c r="D77" s="30"/>
       <c r="E77" s="38"/>
@@ -3626,11 +3705,11 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="15"/>
-      <c r="S77" s="88"/>
+      <c r="S77" s="87"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="76"/>
-      <c r="B78" s="93"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="4"/>
       <c r="D78" s="29"/>
       <c r="E78" s="37"/>
@@ -3647,11 +3726,11 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="14"/>
-      <c r="S78" s="87"/>
+      <c r="S78" s="86"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="76"/>
-      <c r="B79" s="92"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="5"/>
       <c r="D79" s="30"/>
       <c r="E79" s="38"/>
@@ -3668,11 +3747,11 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="15"/>
-      <c r="S79" s="88"/>
+      <c r="S79" s="87"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="76"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="4"/>
       <c r="D80" s="29"/>
       <c r="E80" s="37"/>
@@ -3689,11 +3768,11 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="14"/>
-      <c r="S80" s="87"/>
+      <c r="S80" s="86"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="76"/>
-      <c r="B81" s="92"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="5"/>
       <c r="D81" s="30"/>
       <c r="E81" s="38"/>
@@ -3710,11 +3789,11 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="15"/>
-      <c r="S81" s="88"/>
+      <c r="S81" s="87"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="76"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29"/>
       <c r="E82" s="37"/>
@@ -3731,11 +3810,11 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="14"/>
-      <c r="S82" s="87"/>
+      <c r="S82" s="86"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="76"/>
-      <c r="B83" s="92"/>
+      <c r="A83" s="75"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="5"/>
       <c r="D83" s="30"/>
       <c r="E83" s="38"/>
@@ -3752,11 +3831,11 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="15"/>
-      <c r="S83" s="88"/>
+      <c r="S83" s="87"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="76"/>
-      <c r="B84" s="93"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="4"/>
       <c r="D84" s="29"/>
       <c r="E84" s="37"/>
@@ -3773,11 +3852,11 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="14"/>
-      <c r="S84" s="87"/>
+      <c r="S84" s="86"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="76"/>
-      <c r="B85" s="92"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="5"/>
       <c r="D85" s="30"/>
       <c r="E85" s="38"/>
@@ -3794,11 +3873,11 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="15"/>
-      <c r="S85" s="88"/>
+      <c r="S85" s="87"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="76"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29"/>
       <c r="E86" s="37"/>
@@ -3815,11 +3894,11 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="14"/>
-      <c r="S86" s="87"/>
+      <c r="S86" s="86"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="76"/>
-      <c r="B87" s="92"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="5"/>
       <c r="D87" s="30"/>
       <c r="E87" s="38"/>
@@ -3836,11 +3915,11 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="15"/>
-      <c r="S87" s="88"/>
+      <c r="S87" s="87"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="76"/>
-      <c r="B88" s="93"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="4"/>
       <c r="D88" s="29"/>
       <c r="E88" s="37"/>
@@ -3857,11 +3936,11 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="14"/>
-      <c r="S88" s="87"/>
+      <c r="S88" s="86"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="76"/>
-      <c r="B89" s="92"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="5"/>
       <c r="D89" s="30"/>
       <c r="E89" s="38"/>
@@ -3878,11 +3957,11 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="15"/>
-      <c r="S89" s="88"/>
+      <c r="S89" s="87"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="76"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="4"/>
       <c r="D90" s="29"/>
       <c r="E90" s="37"/>
@@ -3899,11 +3978,11 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="14"/>
-      <c r="S90" s="87"/>
+      <c r="S90" s="86"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="76"/>
-      <c r="B91" s="92"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="5"/>
       <c r="D91" s="30"/>
       <c r="E91" s="38"/>
@@ -3920,11 +3999,11 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="15"/>
-      <c r="S91" s="88"/>
+      <c r="S91" s="87"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="76"/>
-      <c r="B92" s="93"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="92"/>
       <c r="C92" s="4"/>
       <c r="D92" s="29"/>
       <c r="E92" s="37"/>
@@ -3941,11 +4020,11 @@
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="14"/>
-      <c r="S92" s="87"/>
+      <c r="S92" s="86"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="76"/>
-      <c r="B93" s="92"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="5"/>
       <c r="D93" s="30"/>
       <c r="E93" s="38"/>
@@ -3962,11 +4041,11 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="15"/>
-      <c r="S93" s="88"/>
+      <c r="S93" s="87"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="76"/>
-      <c r="B94" s="93"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="92"/>
       <c r="C94" s="4"/>
       <c r="D94" s="29"/>
       <c r="E94" s="37"/>
@@ -3983,11 +4062,11 @@
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
       <c r="R94" s="14"/>
-      <c r="S94" s="87"/>
+      <c r="S94" s="86"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="76"/>
-      <c r="B95" s="92"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="91"/>
       <c r="C95" s="5"/>
       <c r="D95" s="30"/>
       <c r="E95" s="38"/>
@@ -4004,11 +4083,11 @@
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="88"/>
+      <c r="S95" s="87"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="76"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="4"/>
       <c r="D96" s="29"/>
       <c r="E96" s="37"/>
@@ -4025,11 +4104,11 @@
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
       <c r="R96" s="14"/>
-      <c r="S96" s="87"/>
+      <c r="S96" s="86"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="76"/>
-      <c r="B97" s="92"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="91"/>
       <c r="C97" s="5"/>
       <c r="D97" s="30"/>
       <c r="E97" s="38"/>
@@ -4046,11 +4125,11 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="15"/>
-      <c r="S97" s="88"/>
+      <c r="S97" s="87"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="76"/>
-      <c r="B98" s="93"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="92"/>
       <c r="C98" s="4"/>
       <c r="D98" s="29"/>
       <c r="E98" s="37"/>
@@ -4067,11 +4146,11 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="87"/>
+      <c r="S98" s="86"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="76"/>
-      <c r="B99" s="92"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="5"/>
       <c r="D99" s="30"/>
       <c r="E99" s="38"/>
@@ -4088,11 +4167,11 @@
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="15"/>
-      <c r="S99" s="88"/>
+      <c r="S99" s="87"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="76"/>
-      <c r="B100" s="93"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="4"/>
       <c r="D100" s="29"/>
       <c r="E100" s="37"/>
@@ -4109,11 +4188,11 @@
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="14"/>
-      <c r="S100" s="87"/>
+      <c r="S100" s="86"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="76"/>
-      <c r="B101" s="92"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="91"/>
       <c r="C101" s="5"/>
       <c r="D101" s="30"/>
       <c r="E101" s="38"/>
@@ -4130,11 +4209,11 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="15"/>
-      <c r="S101" s="88"/>
+      <c r="S101" s="87"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="76"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="92"/>
       <c r="C102" s="4"/>
       <c r="D102" s="29"/>
       <c r="E102" s="37"/>
@@ -4151,11 +4230,11 @@
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="14"/>
-      <c r="S102" s="87"/>
+      <c r="S102" s="86"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="76"/>
-      <c r="B103" s="92"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="91"/>
       <c r="C103" s="5"/>
       <c r="D103" s="30"/>
       <c r="E103" s="38"/>
@@ -4172,11 +4251,11 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="15"/>
-      <c r="S103" s="88"/>
+      <c r="S103" s="87"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="76"/>
-      <c r="B104" s="93"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="92"/>
       <c r="C104" s="4"/>
       <c r="D104" s="29"/>
       <c r="E104" s="37"/>
@@ -4193,11 +4272,11 @@
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="14"/>
-      <c r="S104" s="87"/>
+      <c r="S104" s="86"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="76"/>
-      <c r="B105" s="92"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="91"/>
       <c r="C105" s="5"/>
       <c r="D105" s="30"/>
       <c r="E105" s="38"/>
@@ -4214,11 +4293,11 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="15"/>
-      <c r="S105" s="88"/>
+      <c r="S105" s="87"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="76"/>
-      <c r="B106" s="93"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="92"/>
       <c r="C106" s="4"/>
       <c r="D106" s="29"/>
       <c r="E106" s="37"/>
@@ -4235,11 +4314,11 @@
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="14"/>
-      <c r="S106" s="87"/>
+      <c r="S106" s="86"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="76"/>
-      <c r="B107" s="92"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="91"/>
       <c r="C107" s="5"/>
       <c r="D107" s="30"/>
       <c r="E107" s="38"/>
@@ -4256,11 +4335,11 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="15"/>
-      <c r="S107" s="88"/>
+      <c r="S107" s="87"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="76"/>
-      <c r="B108" s="93"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="92"/>
       <c r="C108" s="4"/>
       <c r="D108" s="29"/>
       <c r="E108" s="37"/>
@@ -4277,11 +4356,11 @@
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="14"/>
-      <c r="S108" s="87"/>
+      <c r="S108" s="86"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="76"/>
-      <c r="B109" s="92"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="91"/>
       <c r="C109" s="5"/>
       <c r="D109" s="30"/>
       <c r="E109" s="38"/>
@@ -4298,11 +4377,11 @@
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
       <c r="R109" s="15"/>
-      <c r="S109" s="88"/>
+      <c r="S109" s="87"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="76"/>
-      <c r="B110" s="93"/>
+      <c r="A110" s="75"/>
+      <c r="B110" s="92"/>
       <c r="C110" s="4"/>
       <c r="D110" s="29"/>
       <c r="E110" s="37"/>
@@ -4319,11 +4398,11 @@
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="14"/>
-      <c r="S110" s="87"/>
+      <c r="S110" s="86"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="76"/>
-      <c r="B111" s="92"/>
+      <c r="A111" s="75"/>
+      <c r="B111" s="91"/>
       <c r="C111" s="5"/>
       <c r="D111" s="30"/>
       <c r="E111" s="38"/>
@@ -4340,11 +4419,11 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="15"/>
-      <c r="S111" s="88"/>
+      <c r="S111" s="87"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="76"/>
-      <c r="B112" s="93"/>
+      <c r="A112" s="75"/>
+      <c r="B112" s="92"/>
       <c r="C112" s="4"/>
       <c r="D112" s="29"/>
       <c r="E112" s="37"/>
@@ -4361,11 +4440,11 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="14"/>
-      <c r="S112" s="87"/>
+      <c r="S112" s="86"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="76"/>
-      <c r="B113" s="92"/>
+      <c r="A113" s="75"/>
+      <c r="B113" s="91"/>
       <c r="C113" s="5"/>
       <c r="D113" s="30"/>
       <c r="E113" s="38"/>
@@ -4382,11 +4461,11 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="15"/>
-      <c r="S113" s="88"/>
+      <c r="S113" s="87"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="76"/>
-      <c r="B114" s="93"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="92"/>
       <c r="C114" s="4"/>
       <c r="D114" s="29"/>
       <c r="E114" s="37"/>
@@ -4403,11 +4482,11 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="14"/>
-      <c r="S114" s="87"/>
+      <c r="S114" s="86"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="76"/>
-      <c r="B115" s="92"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="91"/>
       <c r="C115" s="5"/>
       <c r="D115" s="30"/>
       <c r="E115" s="38"/>
@@ -4424,11 +4503,11 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
       <c r="R115" s="15"/>
-      <c r="S115" s="88"/>
+      <c r="S115" s="87"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="76"/>
-      <c r="B116" s="93"/>
+      <c r="A116" s="75"/>
+      <c r="B116" s="92"/>
       <c r="C116" s="4"/>
       <c r="D116" s="29"/>
       <c r="E116" s="37"/>
@@ -4445,11 +4524,11 @@
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="14"/>
-      <c r="S116" s="87"/>
+      <c r="S116" s="86"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="76"/>
-      <c r="B117" s="92"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="91"/>
       <c r="C117" s="5"/>
       <c r="D117" s="30"/>
       <c r="E117" s="38"/>
@@ -4466,28 +4545,28 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="15"/>
-      <c r="S117" s="88"/>
+      <c r="S117" s="87"/>
     </row>
     <row r="118" spans="1:19" ht="12.75" thickBot="1">
-      <c r="A118" s="76"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="66"/>
-      <c r="L118" s="63"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="64"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="90"/>
-      <c r="S118" s="91"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="65"/>
+      <c r="L118" s="62"/>
+      <c r="M118" s="64"/>
+      <c r="N118" s="63"/>
+      <c r="O118" s="63"/>
+      <c r="P118" s="63"/>
+      <c r="Q118" s="63"/>
+      <c r="R118" s="89"/>
+      <c r="S118" s="90"/>
     </row>
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$T$118</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1031,17 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="6" tint="0.79998168889431442"/>
       </left>
@@ -1519,20 +1508,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1540,16 +1532,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,40 +1544,70 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="66" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1606,41 +1622,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1962,7 +1951,7 @@
   </sheetPr>
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -2011,67 +2000,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="106"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="115"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="97"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="94"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="93"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="74"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -2114,7 +2103,7 @@
       <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="94" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="55"/>
@@ -3269,7 +3258,7 @@
       <c r="M59" s="63"/>
       <c r="N59" s="68"/>
       <c r="O59" s="69"/>
-      <c r="P59" s="17"/>
+      <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
       <c r="R59" s="66"/>
       <c r="S59" s="51"/>
@@ -3291,79 +3280,79 @@
       <c r="M60" s="53"/>
       <c r="N60" s="53"/>
       <c r="O60" s="53"/>
-      <c r="P60" s="77" t="s">
+      <c r="P60" s="117" t="s">
         <v>25</v>
       </c>
       <c r="Q60" s="53"/>
       <c r="R60" s="76"/>
-      <c r="S60" s="78" t="s">
+      <c r="S60" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C61" s="95" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="114" t="s">
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="79"/>
+      <c r="M61" s="104"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="104"/>
+      <c r="R61" s="105"/>
+      <c r="S61" s="78"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="74"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="107" t="s">
+      <c r="E62" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="109" t="s">
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="111" t="s">
+      <c r="L62" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="109" t="s">
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
       <c r="R62" s="41"/>
-      <c r="S62" s="80"/>
+      <c r="S62" s="79"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="74"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="101"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -3409,7 +3398,7 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="81" t="s">
+      <c r="S63" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3432,11 +3421,11 @@
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="31"/>
-      <c r="S64" s="82"/>
+      <c r="S64" s="81"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A65" s="75"/>
-      <c r="B65" s="91"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="25"/>
       <c r="D65" s="28"/>
       <c r="E65" s="36"/>
@@ -3453,11 +3442,11 @@
       <c r="P65" s="40"/>
       <c r="Q65" s="40"/>
       <c r="R65" s="32"/>
-      <c r="S65" s="83"/>
+      <c r="S65" s="82"/>
     </row>
     <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="75"/>
-      <c r="B66" s="92"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="26"/>
       <c r="D66" s="29"/>
       <c r="E66" s="37"/>
@@ -3474,11 +3463,11 @@
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="33"/>
-      <c r="S66" s="84"/>
+      <c r="S66" s="83"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="75"/>
-      <c r="B67" s="91"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="25"/>
       <c r="D67" s="30"/>
       <c r="E67" s="38"/>
@@ -3495,11 +3484,11 @@
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
       <c r="R67" s="34"/>
-      <c r="S67" s="85"/>
+      <c r="S67" s="84"/>
     </row>
     <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="75"/>
-      <c r="B68" s="92"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="26"/>
       <c r="D68" s="29"/>
       <c r="E68" s="37"/>
@@ -3516,11 +3505,11 @@
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="33"/>
-      <c r="S68" s="84"/>
+      <c r="S68" s="83"/>
     </row>
     <row r="69" spans="1:19" ht="12.4" customHeight="1">
       <c r="A69" s="75"/>
-      <c r="B69" s="91"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="25"/>
       <c r="D69" s="30"/>
       <c r="E69" s="38"/>
@@ -3537,11 +3526,11 @@
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="34"/>
-      <c r="S69" s="85"/>
+      <c r="S69" s="84"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="75"/>
-      <c r="B70" s="92"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="4"/>
       <c r="D70" s="29"/>
       <c r="E70" s="37"/>
@@ -3558,11 +3547,11 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="14"/>
-      <c r="S70" s="86"/>
+      <c r="S70" s="85"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="75"/>
-      <c r="B71" s="91"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="5"/>
       <c r="D71" s="30"/>
       <c r="E71" s="38"/>
@@ -3579,11 +3568,11 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="15"/>
-      <c r="S71" s="87"/>
+      <c r="S71" s="86"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="75"/>
-      <c r="B72" s="92"/>
+      <c r="B72" s="91"/>
       <c r="C72" s="4"/>
       <c r="D72" s="29"/>
       <c r="E72" s="37"/>
@@ -3600,11 +3589,11 @@
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="14"/>
-      <c r="S72" s="86"/>
+      <c r="S72" s="85"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="75"/>
-      <c r="B73" s="91"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="5"/>
       <c r="D73" s="30"/>
       <c r="E73" s="38"/>
@@ -3621,11 +3610,11 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="15"/>
-      <c r="S73" s="87"/>
+      <c r="S73" s="86"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="75"/>
-      <c r="B74" s="92"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="4"/>
       <c r="D74" s="29"/>
       <c r="E74" s="37"/>
@@ -3642,11 +3631,11 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="14"/>
-      <c r="S74" s="86"/>
+      <c r="S74" s="85"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="75"/>
-      <c r="B75" s="91"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="5"/>
       <c r="D75" s="30"/>
       <c r="E75" s="38"/>
@@ -3663,11 +3652,11 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="15"/>
-      <c r="S75" s="87"/>
+      <c r="S75" s="86"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="75"/>
-      <c r="B76" s="92"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="4"/>
       <c r="D76" s="29"/>
       <c r="E76" s="37"/>
@@ -3684,11 +3673,11 @@
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="14"/>
-      <c r="S76" s="86"/>
+      <c r="S76" s="85"/>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="75"/>
-      <c r="B77" s="91"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="5"/>
       <c r="D77" s="30"/>
       <c r="E77" s="38"/>
@@ -3705,11 +3694,11 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="15"/>
-      <c r="S77" s="87"/>
+      <c r="S77" s="86"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="75"/>
-      <c r="B78" s="92"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="4"/>
       <c r="D78" s="29"/>
       <c r="E78" s="37"/>
@@ -3726,11 +3715,11 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="14"/>
-      <c r="S78" s="86"/>
+      <c r="S78" s="85"/>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="75"/>
-      <c r="B79" s="91"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="5"/>
       <c r="D79" s="30"/>
       <c r="E79" s="38"/>
@@ -3747,11 +3736,11 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="15"/>
-      <c r="S79" s="87"/>
+      <c r="S79" s="86"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="75"/>
-      <c r="B80" s="92"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="4"/>
       <c r="D80" s="29"/>
       <c r="E80" s="37"/>
@@ -3768,11 +3757,11 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="14"/>
-      <c r="S80" s="86"/>
+      <c r="S80" s="85"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="75"/>
-      <c r="B81" s="91"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="5"/>
       <c r="D81" s="30"/>
       <c r="E81" s="38"/>
@@ -3789,11 +3778,11 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="15"/>
-      <c r="S81" s="87"/>
+      <c r="S81" s="86"/>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="75"/>
-      <c r="B82" s="92"/>
+      <c r="B82" s="91"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29"/>
       <c r="E82" s="37"/>
@@ -3810,11 +3799,11 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="14"/>
-      <c r="S82" s="86"/>
+      <c r="S82" s="85"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="75"/>
-      <c r="B83" s="91"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="5"/>
       <c r="D83" s="30"/>
       <c r="E83" s="38"/>
@@ -3831,11 +3820,11 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="15"/>
-      <c r="S83" s="87"/>
+      <c r="S83" s="86"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="75"/>
-      <c r="B84" s="92"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="4"/>
       <c r="D84" s="29"/>
       <c r="E84" s="37"/>
@@ -3852,11 +3841,11 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="14"/>
-      <c r="S84" s="86"/>
+      <c r="S84" s="85"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="75"/>
-      <c r="B85" s="91"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="5"/>
       <c r="D85" s="30"/>
       <c r="E85" s="38"/>
@@ -3873,11 +3862,11 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="15"/>
-      <c r="S85" s="87"/>
+      <c r="S85" s="86"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="75"/>
-      <c r="B86" s="92"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29"/>
       <c r="E86" s="37"/>
@@ -3894,11 +3883,11 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="14"/>
-      <c r="S86" s="86"/>
+      <c r="S86" s="85"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="75"/>
-      <c r="B87" s="91"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="5"/>
       <c r="D87" s="30"/>
       <c r="E87" s="38"/>
@@ -3915,11 +3904,11 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="15"/>
-      <c r="S87" s="87"/>
+      <c r="S87" s="86"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="75"/>
-      <c r="B88" s="92"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="4"/>
       <c r="D88" s="29"/>
       <c r="E88" s="37"/>
@@ -3936,11 +3925,11 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="14"/>
-      <c r="S88" s="86"/>
+      <c r="S88" s="85"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="75"/>
-      <c r="B89" s="91"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="5"/>
       <c r="D89" s="30"/>
       <c r="E89" s="38"/>
@@ -3957,11 +3946,11 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="15"/>
-      <c r="S89" s="87"/>
+      <c r="S89" s="86"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="75"/>
-      <c r="B90" s="92"/>
+      <c r="B90" s="91"/>
       <c r="C90" s="4"/>
       <c r="D90" s="29"/>
       <c r="E90" s="37"/>
@@ -3978,11 +3967,11 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="14"/>
-      <c r="S90" s="86"/>
+      <c r="S90" s="85"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="75"/>
-      <c r="B91" s="91"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="5"/>
       <c r="D91" s="30"/>
       <c r="E91" s="38"/>
@@ -3999,11 +3988,11 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="15"/>
-      <c r="S91" s="87"/>
+      <c r="S91" s="86"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="75"/>
-      <c r="B92" s="92"/>
+      <c r="B92" s="91"/>
       <c r="C92" s="4"/>
       <c r="D92" s="29"/>
       <c r="E92" s="37"/>
@@ -4020,11 +4009,11 @@
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="14"/>
-      <c r="S92" s="86"/>
+      <c r="S92" s="85"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="75"/>
-      <c r="B93" s="91"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="5"/>
       <c r="D93" s="30"/>
       <c r="E93" s="38"/>
@@ -4041,11 +4030,11 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="15"/>
-      <c r="S93" s="87"/>
+      <c r="S93" s="86"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="75"/>
-      <c r="B94" s="92"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="4"/>
       <c r="D94" s="29"/>
       <c r="E94" s="37"/>
@@ -4062,11 +4051,11 @@
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
       <c r="R94" s="14"/>
-      <c r="S94" s="86"/>
+      <c r="S94" s="85"/>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="75"/>
-      <c r="B95" s="91"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="5"/>
       <c r="D95" s="30"/>
       <c r="E95" s="38"/>
@@ -4083,11 +4072,11 @@
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="87"/>
+      <c r="S95" s="86"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="75"/>
-      <c r="B96" s="92"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="4"/>
       <c r="D96" s="29"/>
       <c r="E96" s="37"/>
@@ -4104,11 +4093,11 @@
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
       <c r="R96" s="14"/>
-      <c r="S96" s="86"/>
+      <c r="S96" s="85"/>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="75"/>
-      <c r="B97" s="91"/>
+      <c r="B97" s="90"/>
       <c r="C97" s="5"/>
       <c r="D97" s="30"/>
       <c r="E97" s="38"/>
@@ -4125,11 +4114,11 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="15"/>
-      <c r="S97" s="87"/>
+      <c r="S97" s="86"/>
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="75"/>
-      <c r="B98" s="92"/>
+      <c r="B98" s="91"/>
       <c r="C98" s="4"/>
       <c r="D98" s="29"/>
       <c r="E98" s="37"/>
@@ -4146,11 +4135,11 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="86"/>
+      <c r="S98" s="85"/>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="75"/>
-      <c r="B99" s="91"/>
+      <c r="B99" s="90"/>
       <c r="C99" s="5"/>
       <c r="D99" s="30"/>
       <c r="E99" s="38"/>
@@ -4167,11 +4156,11 @@
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="15"/>
-      <c r="S99" s="87"/>
+      <c r="S99" s="86"/>
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="75"/>
-      <c r="B100" s="92"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="4"/>
       <c r="D100" s="29"/>
       <c r="E100" s="37"/>
@@ -4188,11 +4177,11 @@
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="14"/>
-      <c r="S100" s="86"/>
+      <c r="S100" s="85"/>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="75"/>
-      <c r="B101" s="91"/>
+      <c r="B101" s="90"/>
       <c r="C101" s="5"/>
       <c r="D101" s="30"/>
       <c r="E101" s="38"/>
@@ -4209,11 +4198,11 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="15"/>
-      <c r="S101" s="87"/>
+      <c r="S101" s="86"/>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="75"/>
-      <c r="B102" s="92"/>
+      <c r="B102" s="91"/>
       <c r="C102" s="4"/>
       <c r="D102" s="29"/>
       <c r="E102" s="37"/>
@@ -4230,11 +4219,11 @@
       <c r="P102" s="17"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="14"/>
-      <c r="S102" s="86"/>
+      <c r="S102" s="85"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="75"/>
-      <c r="B103" s="91"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="5"/>
       <c r="D103" s="30"/>
       <c r="E103" s="38"/>
@@ -4251,11 +4240,11 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="15"/>
-      <c r="S103" s="87"/>
+      <c r="S103" s="86"/>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="75"/>
-      <c r="B104" s="92"/>
+      <c r="B104" s="91"/>
       <c r="C104" s="4"/>
       <c r="D104" s="29"/>
       <c r="E104" s="37"/>
@@ -4272,11 +4261,11 @@
       <c r="P104" s="17"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="14"/>
-      <c r="S104" s="86"/>
+      <c r="S104" s="85"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="75"/>
-      <c r="B105" s="91"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="5"/>
       <c r="D105" s="30"/>
       <c r="E105" s="38"/>
@@ -4293,11 +4282,11 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="15"/>
-      <c r="S105" s="87"/>
+      <c r="S105" s="86"/>
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="75"/>
-      <c r="B106" s="92"/>
+      <c r="B106" s="91"/>
       <c r="C106" s="4"/>
       <c r="D106" s="29"/>
       <c r="E106" s="37"/>
@@ -4314,11 +4303,11 @@
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="14"/>
-      <c r="S106" s="86"/>
+      <c r="S106" s="85"/>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="75"/>
-      <c r="B107" s="91"/>
+      <c r="B107" s="90"/>
       <c r="C107" s="5"/>
       <c r="D107" s="30"/>
       <c r="E107" s="38"/>
@@ -4335,11 +4324,11 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="15"/>
-      <c r="S107" s="87"/>
+      <c r="S107" s="86"/>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="75"/>
-      <c r="B108" s="92"/>
+      <c r="B108" s="91"/>
       <c r="C108" s="4"/>
       <c r="D108" s="29"/>
       <c r="E108" s="37"/>
@@ -4356,11 +4345,11 @@
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
       <c r="R108" s="14"/>
-      <c r="S108" s="86"/>
+      <c r="S108" s="85"/>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="75"/>
-      <c r="B109" s="91"/>
+      <c r="B109" s="90"/>
       <c r="C109" s="5"/>
       <c r="D109" s="30"/>
       <c r="E109" s="38"/>
@@ -4377,11 +4366,11 @@
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
       <c r="R109" s="15"/>
-      <c r="S109" s="87"/>
+      <c r="S109" s="86"/>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="75"/>
-      <c r="B110" s="92"/>
+      <c r="B110" s="91"/>
       <c r="C110" s="4"/>
       <c r="D110" s="29"/>
       <c r="E110" s="37"/>
@@ -4398,11 +4387,11 @@
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
       <c r="R110" s="14"/>
-      <c r="S110" s="86"/>
+      <c r="S110" s="85"/>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="75"/>
-      <c r="B111" s="91"/>
+      <c r="B111" s="90"/>
       <c r="C111" s="5"/>
       <c r="D111" s="30"/>
       <c r="E111" s="38"/>
@@ -4419,11 +4408,11 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="15"/>
-      <c r="S111" s="87"/>
+      <c r="S111" s="86"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="75"/>
-      <c r="B112" s="92"/>
+      <c r="B112" s="91"/>
       <c r="C112" s="4"/>
       <c r="D112" s="29"/>
       <c r="E112" s="37"/>
@@ -4440,11 +4429,11 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
       <c r="R112" s="14"/>
-      <c r="S112" s="86"/>
+      <c r="S112" s="85"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="75"/>
-      <c r="B113" s="91"/>
+      <c r="B113" s="90"/>
       <c r="C113" s="5"/>
       <c r="D113" s="30"/>
       <c r="E113" s="38"/>
@@ -4461,11 +4450,11 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="15"/>
-      <c r="S113" s="87"/>
+      <c r="S113" s="86"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="75"/>
-      <c r="B114" s="92"/>
+      <c r="B114" s="91"/>
       <c r="C114" s="4"/>
       <c r="D114" s="29"/>
       <c r="E114" s="37"/>
@@ -4482,11 +4471,11 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
       <c r="R114" s="14"/>
-      <c r="S114" s="86"/>
+      <c r="S114" s="85"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="75"/>
-      <c r="B115" s="91"/>
+      <c r="B115" s="90"/>
       <c r="C115" s="5"/>
       <c r="D115" s="30"/>
       <c r="E115" s="38"/>
@@ -4503,11 +4492,11 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
       <c r="R115" s="15"/>
-      <c r="S115" s="87"/>
+      <c r="S115" s="86"/>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="75"/>
-      <c r="B116" s="92"/>
+      <c r="B116" s="91"/>
       <c r="C116" s="4"/>
       <c r="D116" s="29"/>
       <c r="E116" s="37"/>
@@ -4524,11 +4513,11 @@
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
       <c r="R116" s="14"/>
-      <c r="S116" s="86"/>
+      <c r="S116" s="85"/>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="75"/>
-      <c r="B117" s="91"/>
+      <c r="B117" s="90"/>
       <c r="C117" s="5"/>
       <c r="D117" s="30"/>
       <c r="E117" s="38"/>
@@ -4545,12 +4534,12 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="15"/>
-      <c r="S117" s="87"/>
+      <c r="S117" s="86"/>
     </row>
     <row r="118" spans="1:19" ht="12.75" thickBot="1">
       <c r="A118" s="75"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="88"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="87"/>
       <c r="D118" s="61"/>
       <c r="E118" s="62"/>
       <c r="F118" s="64"/>
@@ -4565,12 +4554,20 @@
       <c r="O118" s="63"/>
       <c r="P118" s="63"/>
       <c r="Q118" s="63"/>
-      <c r="R118" s="89"/>
-      <c r="S118" s="90"/>
+      <c r="R118" s="88"/>
+      <c r="S118" s="89"/>
     </row>
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="O62:Q62"/>
@@ -4579,14 +4576,6 @@
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="L61:R61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$T$118</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1562,30 +1562,57 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,38 +1625,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2000,67 +2000,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="115"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="108"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="99" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="116"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="99" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="116"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="110"/>
       <c r="R3" s="93"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="74"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="M60" s="53"/>
       <c r="N60" s="53"/>
       <c r="O60" s="53"/>
-      <c r="P60" s="117" t="s">
+      <c r="P60" s="95" t="s">
         <v>25</v>
       </c>
       <c r="Q60" s="53"/>
@@ -3291,68 +3291,68 @@
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="97" t="s">
+      <c r="B61" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="95" t="s">
+      <c r="C61" s="100" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="106" t="s">
+      <c r="E61" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="103" t="s">
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="104"/>
-      <c r="N61" s="104"/>
-      <c r="O61" s="104"/>
-      <c r="P61" s="104"/>
-      <c r="Q61" s="104"/>
-      <c r="R61" s="105"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="113"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="114"/>
       <c r="S61" s="78"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="74"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="99" t="s">
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="100" t="s">
+      <c r="L62" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="99" t="s">
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="41"/>
       <c r="S62" s="79"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="74"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -4560,6 +4560,14 @@
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E61:K61"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
@@ -4568,14 +4576,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E61:K61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1565,6 +1565,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,12 +1613,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,37 +1628,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1951,14 +1951,14 @@
   </sheetPr>
   <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1973,7 +1973,7 @@
     <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="1" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1984,7 +1984,7 @@
     <col min="29" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="B1" s="52" t="s">
         <v>27</v>
       </c>
@@ -1999,68 +1999,68 @@
       </c>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
+      <c r="B2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="111" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="106"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="116"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="97"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109" t="s">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="110"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="117"/>
       <c r="R3" s="93"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="74"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="R59" s="66"/>
       <c r="S59" s="51"/>
     </row>
-    <row r="60" spans="1:19" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B60" s="52" t="s">
         <v>28</v>
       </c>
@@ -3289,70 +3289,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="7" customFormat="1" ht="15.75" thickTop="1">
+    <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C61" s="96" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="115" t="s">
+      <c r="E61" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="112" t="s">
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="113"/>
-      <c r="R61" s="114"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="106"/>
       <c r="S61" s="78"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="74"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="107" t="s">
+      <c r="E62" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="109" t="s">
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="111" t="s">
+      <c r="L62" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="109" t="s">
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
       <c r="R62" s="41"/>
       <c r="S62" s="79"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="74"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="101"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -4560,6 +4560,14 @@
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="O62:Q62"/>
@@ -4568,18 +4576,10 @@
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="L61:R61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社
 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16厚生年金保険料率一覧 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10 &amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1565,30 +1565,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,36 +1629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1949,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1957,7 +1957,7 @@
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1973,7 +1973,7 @@
     <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22" style="1" customWidth="1"/>
     <col min="20" max="20" width="1" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2000,67 +2000,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="116"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="109"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="100" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="117"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="100" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="110"/>
       <c r="R3" s="93"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="74"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -3291,68 +3291,68 @@
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="100" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="107" t="s">
+      <c r="E61" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="104" t="s">
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="105"/>
-      <c r="N61" s="105"/>
-      <c r="O61" s="105"/>
-      <c r="P61" s="105"/>
-      <c r="Q61" s="105"/>
-      <c r="R61" s="106"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="116"/>
       <c r="S61" s="78"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="74"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="103" t="s">
+      <c r="E62" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="100" t="s">
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="101" t="s">
+      <c r="L62" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="100" t="s">
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="41"/>
       <c r="S62" s="79"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="74"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="97"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -4560,6 +4560,14 @@
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E61:K61"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
@@ -4568,14 +4576,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E61:K61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1565,6 +1565,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,12 +1613,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,37 +1628,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1949,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1972,7 +1972,7 @@
     <col min="15" max="15" width="9.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="13" customWidth="1"/>
     <col min="19" max="19" width="22" style="1" customWidth="1"/>
     <col min="20" max="20" width="1" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2000,67 +2000,67 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="111" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="54"/>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="106"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="116"/>
       <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="97"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109" t="s">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="110"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="117"/>
       <c r="R3" s="93"/>
       <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="74"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
@@ -3291,68 +3291,68 @@
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C61" s="96" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="114" t="s">
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="116"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="106"/>
       <c r="S61" s="78"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="74"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="107" t="s">
+      <c r="E62" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="109" t="s">
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="111" t="s">
+      <c r="L62" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="109" t="s">
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
       <c r="R62" s="41"/>
       <c r="S62" s="79"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="74"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="101"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="19" t="s">
         <v>12</v>
       </c>
@@ -4560,6 +4560,14 @@
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="O62:Q62"/>
@@ -4568,14 +4576,6 @@
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="L61:R61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -409,7 +409,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="67">
     <border>
@@ -1278,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1400,30 +1406,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1466,9 +1451,6 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1556,6 +1538,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,12 +1613,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,47 +1628,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1965,7 +1965,7 @@
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="13" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1985,11 +1985,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,67 +2000,67 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="99" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="53"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="94"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="53"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="46"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="98"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
@@ -2103,14 +2103,14 @@
       <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="53"/>
+      <c r="S4" s="46"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
       <c r="E5" s="33"/>
@@ -2119,19 +2119,19 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="47"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="33"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="49"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="23"/>
       <c r="D6" s="26"/>
       <c r="E6" s="34"/>
@@ -2140,19 +2140,19 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="90"/>
       <c r="L6" s="34"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="49"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="24"/>
       <c r="D7" s="27"/>
       <c r="E7" s="35"/>
@@ -2161,19 +2161,19 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="44"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="35"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="73"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="23"/>
       <c r="D8" s="28"/>
       <c r="E8" s="36"/>
@@ -2182,19 +2182,19 @@
       <c r="H8" s="20"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="36"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="24"/>
       <c r="D9" s="27"/>
       <c r="E9" s="35"/>
@@ -2203,19 +2203,19 @@
       <c r="H9" s="21"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="44"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="35"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="42"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="73"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
       <c r="E10" s="36"/>
@@ -2224,19 +2224,19 @@
       <c r="H10" s="20"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="36"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="24"/>
       <c r="D11" s="27"/>
       <c r="E11" s="35"/>
@@ -2245,19 +2245,19 @@
       <c r="H11" s="21"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="35"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="21"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="42"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="73"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="23"/>
       <c r="D12" s="28"/>
       <c r="E12" s="36"/>
@@ -2266,19 +2266,19 @@
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="45"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="36"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="20"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="49"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="42"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="24"/>
       <c r="D13" s="27"/>
       <c r="E13" s="35"/>
@@ -2287,19 +2287,19 @@
       <c r="H13" s="21"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="35"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="21"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="73"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="23"/>
       <c r="D14" s="28"/>
       <c r="E14" s="36"/>
@@ -2308,19 +2308,19 @@
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="86"/>
       <c r="L14" s="36"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="20"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="24"/>
       <c r="D15" s="27"/>
       <c r="E15" s="35"/>
@@ -2329,19 +2329,19 @@
       <c r="H15" s="21"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="44"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="35"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="21"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="23"/>
       <c r="D16" s="28"/>
       <c r="E16" s="36"/>
@@ -2350,19 +2350,19 @@
       <c r="H16" s="20"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="36"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="20"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="49"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="24"/>
       <c r="D17" s="27"/>
       <c r="E17" s="35"/>
@@ -2371,19 +2371,19 @@
       <c r="H17" s="21"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="35"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="21"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="73"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="23"/>
       <c r="D18" s="28"/>
       <c r="E18" s="36"/>
@@ -2392,19 +2392,19 @@
       <c r="H18" s="20"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="86"/>
       <c r="L18" s="36"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="20"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="24"/>
       <c r="D19" s="27"/>
       <c r="E19" s="35"/>
@@ -2413,19 +2413,19 @@
       <c r="H19" s="21"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="35"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="21"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="73"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="36"/>
@@ -2434,19 +2434,19 @@
       <c r="H20" s="20"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="36"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="20"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="49"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="24"/>
       <c r="D21" s="27"/>
       <c r="E21" s="35"/>
@@ -2455,19 +2455,19 @@
       <c r="H21" s="21"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="85"/>
       <c r="L21" s="35"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="21"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="73"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="23"/>
       <c r="D22" s="28"/>
       <c r="E22" s="36"/>
@@ -2476,19 +2476,19 @@
       <c r="H22" s="20"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="86"/>
       <c r="L22" s="36"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="20"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="24"/>
       <c r="D23" s="27"/>
       <c r="E23" s="35"/>
@@ -2497,19 +2497,19 @@
       <c r="H23" s="21"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="44"/>
+      <c r="K23" s="85"/>
       <c r="L23" s="35"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="21"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="73"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="23"/>
       <c r="D24" s="28"/>
       <c r="E24" s="36"/>
@@ -2518,19 +2518,19 @@
       <c r="H24" s="20"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="36"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="20"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="24"/>
       <c r="D25" s="27"/>
       <c r="E25" s="35"/>
@@ -2539,19 +2539,19 @@
       <c r="H25" s="21"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="44"/>
+      <c r="K25" s="85"/>
       <c r="L25" s="35"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="21"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="73"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="23"/>
       <c r="D26" s="28"/>
       <c r="E26" s="36"/>
@@ -2560,19 +2560,19 @@
       <c r="H26" s="20"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="86"/>
       <c r="L26" s="36"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="20"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="24"/>
       <c r="D27" s="27"/>
       <c r="E27" s="35"/>
@@ -2581,19 +2581,19 @@
       <c r="H27" s="21"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="35"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="21"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="73"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="23"/>
       <c r="D28" s="28"/>
       <c r="E28" s="36"/>
@@ -2602,19 +2602,19 @@
       <c r="H28" s="20"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="86"/>
       <c r="L28" s="36"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="20"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="24"/>
       <c r="D29" s="27"/>
       <c r="E29" s="35"/>
@@ -2623,19 +2623,19 @@
       <c r="H29" s="21"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="35"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="21"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="73"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="23"/>
       <c r="D30" s="28"/>
       <c r="E30" s="36"/>
@@ -2644,19 +2644,19 @@
       <c r="H30" s="20"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="86"/>
       <c r="L30" s="36"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="20"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="49"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="42"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="24"/>
       <c r="D31" s="27"/>
       <c r="E31" s="35"/>
@@ -2665,19 +2665,19 @@
       <c r="H31" s="21"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="35"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="21"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="73"/>
-      <c r="B32" s="69"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="23"/>
       <c r="D32" s="28"/>
       <c r="E32" s="36"/>
@@ -2686,19 +2686,19 @@
       <c r="H32" s="20"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="36"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="20"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="24"/>
       <c r="D33" s="27"/>
       <c r="E33" s="35"/>
@@ -2707,19 +2707,19 @@
       <c r="H33" s="21"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="44"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="35"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="21"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="73"/>
-      <c r="B34" s="69"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="23"/>
       <c r="D34" s="28"/>
       <c r="E34" s="36"/>
@@ -2728,19 +2728,19 @@
       <c r="H34" s="20"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="36"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="20"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="24"/>
       <c r="D35" s="27"/>
       <c r="E35" s="35"/>
@@ -2749,19 +2749,19 @@
       <c r="H35" s="21"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="44"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="35"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
       <c r="O35" s="21"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="73"/>
-      <c r="B36" s="69"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="23"/>
       <c r="D36" s="28"/>
       <c r="E36" s="36"/>
@@ -2770,19 +2770,19 @@
       <c r="H36" s="20"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="36"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="20"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="42"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="24"/>
       <c r="D37" s="27"/>
       <c r="E37" s="35"/>
@@ -2791,19 +2791,19 @@
       <c r="H37" s="21"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="35"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="21"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="42"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="73"/>
-      <c r="B38" s="69"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="23"/>
       <c r="D38" s="28"/>
       <c r="E38" s="36"/>
@@ -2812,19 +2812,19 @@
       <c r="H38" s="20"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="36"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="20"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="49"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="42"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="70"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="24"/>
       <c r="D39" s="27"/>
       <c r="E39" s="35"/>
@@ -2833,19 +2833,19 @@
       <c r="H39" s="21"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="44"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="35"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
       <c r="O39" s="21"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="73"/>
-      <c r="B40" s="69"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="23"/>
       <c r="D40" s="28"/>
       <c r="E40" s="36"/>
@@ -2854,19 +2854,19 @@
       <c r="H40" s="20"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="45"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="36"/>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="20"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="49"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="24"/>
       <c r="D41" s="27"/>
       <c r="E41" s="35"/>
@@ -2875,19 +2875,19 @@
       <c r="H41" s="21"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="44"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="35"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="21"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="42"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="73"/>
-      <c r="B42" s="69"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="23"/>
       <c r="D42" s="28"/>
       <c r="E42" s="36"/>
@@ -2896,19 +2896,19 @@
       <c r="H42" s="20"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="36"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="20"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="24"/>
       <c r="D43" s="27"/>
       <c r="E43" s="35"/>
@@ -2917,19 +2917,19 @@
       <c r="H43" s="21"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="44"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="35"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="21"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="73"/>
-      <c r="B44" s="69"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="23"/>
       <c r="D44" s="28"/>
       <c r="E44" s="36"/>
@@ -2938,19 +2938,19 @@
       <c r="H44" s="20"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="45"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="36"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
       <c r="O44" s="20"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="49"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="42"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="24"/>
       <c r="D45" s="27"/>
       <c r="E45" s="35"/>
@@ -2959,19 +2959,19 @@
       <c r="H45" s="21"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="44"/>
+      <c r="K45" s="85"/>
       <c r="L45" s="35"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="21"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="42"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="73"/>
-      <c r="B46" s="69"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="23"/>
       <c r="D46" s="28"/>
       <c r="E46" s="36"/>
@@ -2980,19 +2980,19 @@
       <c r="H46" s="20"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="45"/>
+      <c r="K46" s="86"/>
       <c r="L46" s="36"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
       <c r="O46" s="20"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="49"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="70"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="24"/>
       <c r="D47" s="27"/>
       <c r="E47" s="35"/>
@@ -3001,19 +3001,19 @@
       <c r="H47" s="21"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="44"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="35"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="21"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="42"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="73"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="23"/>
       <c r="D48" s="28"/>
       <c r="E48" s="36"/>
@@ -3022,19 +3022,19 @@
       <c r="H48" s="20"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="45"/>
+      <c r="K48" s="86"/>
       <c r="L48" s="36"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
       <c r="O48" s="20"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="49"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="42"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="24"/>
       <c r="D49" s="27"/>
       <c r="E49" s="35"/>
@@ -3043,19 +3043,19 @@
       <c r="H49" s="21"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="44"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="35"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="21"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="42"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="73"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="23"/>
       <c r="D50" s="28"/>
       <c r="E50" s="36"/>
@@ -3064,19 +3064,19 @@
       <c r="H50" s="20"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="86"/>
       <c r="L50" s="36"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
       <c r="O50" s="20"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="49"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="42"/>
     </row>
     <row r="51" spans="1:19" s="3" customFormat="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="24"/>
       <c r="D51" s="27"/>
       <c r="E51" s="35"/>
@@ -3085,19 +3085,19 @@
       <c r="H51" s="21"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="44"/>
+      <c r="K51" s="85"/>
       <c r="L51" s="35"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="21"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="42"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="73"/>
-      <c r="B52" s="69"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="23"/>
       <c r="D52" s="28"/>
       <c r="E52" s="36"/>
@@ -3106,19 +3106,19 @@
       <c r="H52" s="20"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="86"/>
       <c r="L52" s="36"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="20"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="49"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="42"/>
     </row>
     <row r="53" spans="1:19" s="3" customFormat="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="24"/>
       <c r="D53" s="27"/>
       <c r="E53" s="35"/>
@@ -3127,40 +3127,40 @@
       <c r="H53" s="21"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="44"/>
+      <c r="K53" s="85"/>
       <c r="L53" s="35"/>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="21"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="42"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="73"/>
-      <c r="B54" s="69"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="23"/>
       <c r="D54" s="26"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="48"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="90"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
       <c r="O54" s="38"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="49"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="42"/>
     </row>
     <row r="55" spans="1:19" s="3" customFormat="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="24"/>
       <c r="D55" s="27"/>
       <c r="E55" s="35"/>
@@ -3169,40 +3169,40 @@
       <c r="H55" s="21"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="44"/>
+      <c r="K55" s="85"/>
       <c r="L55" s="35"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="21"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="49"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="42"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="73"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="23"/>
       <c r="D56" s="26"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="48"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="90"/>
       <c r="L56" s="34"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
       <c r="O56" s="38"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="49"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="42"/>
     </row>
     <row r="57" spans="1:19" s="3" customFormat="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="24"/>
       <c r="D57" s="27"/>
       <c r="E57" s="35"/>
@@ -3211,19 +3211,19 @@
       <c r="H57" s="21"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="44"/>
+      <c r="K57" s="85"/>
       <c r="L57" s="35"/>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
       <c r="O57" s="21"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="42"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="73"/>
-      <c r="B58" s="69"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="23"/>
       <c r="D58" s="28"/>
       <c r="E58" s="36"/>
@@ -3232,127 +3232,127 @@
       <c r="H58" s="20"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="45"/>
+      <c r="K58" s="86"/>
       <c r="L58" s="36"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
       <c r="O58" s="20"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="49"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="42"/>
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A59" s="73"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="49"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="42"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="92" t="s">
+      <c r="C60" s="44"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="75" t="s">
+      <c r="Q60" s="44"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A61" s="72"/>
-      <c r="B61" s="109" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="94" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="114" t="s">
+      <c r="E61" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="111" t="s">
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
-      <c r="R61" s="113"/>
-      <c r="S61" s="76"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="103"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="104"/>
+      <c r="S61" s="68"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A62" s="72"/>
-      <c r="B62" s="109"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="104" t="s">
+      <c r="E62" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="106" t="s">
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98"/>
       <c r="K62" s="39"/>
-      <c r="L62" s="108" t="s">
+      <c r="L62" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="106" t="s">
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="106"/>
-      <c r="Q62" s="106"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
       <c r="R62" s="39"/>
-      <c r="S62" s="77"/>
+      <c r="S62" s="69"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A63" s="72"/>
-      <c r="B63" s="110"/>
-      <c r="C63" s="98"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="95"/>
       <c r="D63" s="17" t="s">
         <v>12</v>
       </c>
@@ -3398,13 +3398,13 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="78" t="s">
+      <c r="S63" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="68"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="22"/>
       <c r="D64" s="25"/>
       <c r="E64" s="33"/>
@@ -3413,7 +3413,7 @@
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
-      <c r="K64" s="41"/>
+      <c r="K64" s="91"/>
       <c r="L64" s="33"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -3421,11 +3421,11 @@
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
       <c r="R64" s="29"/>
-      <c r="S64" s="79"/>
+      <c r="S64" s="71"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="87"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="79"/>
       <c r="C65" s="23"/>
       <c r="D65" s="26"/>
       <c r="E65" s="34"/>
@@ -3434,7 +3434,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="42"/>
+      <c r="K65" s="92"/>
       <c r="L65" s="34"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
@@ -3442,11 +3442,11 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
       <c r="R65" s="30"/>
-      <c r="S65" s="80"/>
+      <c r="S65" s="72"/>
     </row>
     <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="24"/>
       <c r="D66" s="27"/>
       <c r="E66" s="35"/>
@@ -3455,7 +3455,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
-      <c r="K66" s="43"/>
+      <c r="K66" s="93"/>
       <c r="L66" s="35"/>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
@@ -3463,11 +3463,11 @@
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="31"/>
-      <c r="S66" s="81"/>
+      <c r="S66" s="73"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="87"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="79"/>
       <c r="C67" s="23"/>
       <c r="D67" s="28"/>
       <c r="E67" s="36"/>
@@ -3476,7 +3476,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
-      <c r="K67" s="42"/>
+      <c r="K67" s="92"/>
       <c r="L67" s="36"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
@@ -3484,11 +3484,11 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="20"/>
       <c r="R67" s="32"/>
-      <c r="S67" s="82"/>
+      <c r="S67" s="74"/>
     </row>
     <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="88"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="24"/>
       <c r="D68" s="27"/>
       <c r="E68" s="35"/>
@@ -3497,7 +3497,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
-      <c r="K68" s="43"/>
+      <c r="K68" s="93"/>
       <c r="L68" s="35"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
@@ -3505,11 +3505,11 @@
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="31"/>
-      <c r="S68" s="81"/>
+      <c r="S68" s="73"/>
     </row>
     <row r="69" spans="1:19" ht="12.4" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="87"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="79"/>
       <c r="C69" s="23"/>
       <c r="D69" s="28"/>
       <c r="E69" s="36"/>
@@ -3518,7 +3518,7 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="92"/>
       <c r="L69" s="36"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
@@ -3526,11 +3526,11 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="20"/>
       <c r="R69" s="32"/>
-      <c r="S69" s="82"/>
+      <c r="S69" s="74"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="73"/>
-      <c r="B70" s="88"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="4"/>
       <c r="D70" s="27"/>
       <c r="E70" s="35"/>
@@ -3539,19 +3539,19 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="44"/>
+      <c r="K70" s="85"/>
       <c r="L70" s="35"/>
       <c r="M70" s="21"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="115"/>
-      <c r="S70" s="83"/>
+      <c r="R70" s="85"/>
+      <c r="S70" s="75"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="73"/>
-      <c r="B71" s="87"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="79"/>
       <c r="C71" s="5"/>
       <c r="D71" s="28"/>
       <c r="E71" s="36"/>
@@ -3560,19 +3560,19 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="45"/>
+      <c r="K71" s="86"/>
       <c r="L71" s="36"/>
       <c r="M71" s="20"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
-      <c r="R71" s="116"/>
-      <c r="S71" s="84"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="76"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="73"/>
-      <c r="B72" s="88"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="80"/>
       <c r="C72" s="4"/>
       <c r="D72" s="27"/>
       <c r="E72" s="35"/>
@@ -3581,19 +3581,19 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="44"/>
+      <c r="K72" s="85"/>
       <c r="L72" s="35"/>
       <c r="M72" s="21"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="115"/>
-      <c r="S72" s="83"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="75"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="73"/>
-      <c r="B73" s="87"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="5"/>
       <c r="D73" s="28"/>
       <c r="E73" s="36"/>
@@ -3602,19 +3602,19 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="45"/>
+      <c r="K73" s="86"/>
       <c r="L73" s="36"/>
       <c r="M73" s="20"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="84"/>
+      <c r="R73" s="86"/>
+      <c r="S73" s="76"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="73"/>
-      <c r="B74" s="88"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="4"/>
       <c r="D74" s="27"/>
       <c r="E74" s="35"/>
@@ -3623,19 +3623,19 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="44"/>
+      <c r="K74" s="85"/>
       <c r="L74" s="35"/>
       <c r="M74" s="21"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
-      <c r="R74" s="115"/>
-      <c r="S74" s="83"/>
+      <c r="R74" s="85"/>
+      <c r="S74" s="75"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="73"/>
-      <c r="B75" s="87"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="79"/>
       <c r="C75" s="5"/>
       <c r="D75" s="28"/>
       <c r="E75" s="36"/>
@@ -3644,19 +3644,19 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="45"/>
+      <c r="K75" s="86"/>
       <c r="L75" s="36"/>
       <c r="M75" s="20"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
-      <c r="R75" s="116"/>
-      <c r="S75" s="84"/>
+      <c r="R75" s="86"/>
+      <c r="S75" s="76"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="73"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="4"/>
       <c r="D76" s="27"/>
       <c r="E76" s="35"/>
@@ -3665,19 +3665,19 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="44"/>
+      <c r="K76" s="85"/>
       <c r="L76" s="35"/>
       <c r="M76" s="21"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
-      <c r="R76" s="115"/>
-      <c r="S76" s="83"/>
+      <c r="R76" s="85"/>
+      <c r="S76" s="75"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="73"/>
-      <c r="B77" s="87"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="79"/>
       <c r="C77" s="5"/>
       <c r="D77" s="28"/>
       <c r="E77" s="36"/>
@@ -3686,19 +3686,19 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
-      <c r="K77" s="45"/>
+      <c r="K77" s="86"/>
       <c r="L77" s="36"/>
       <c r="M77" s="20"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
-      <c r="R77" s="116"/>
-      <c r="S77" s="84"/>
+      <c r="R77" s="86"/>
+      <c r="S77" s="76"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="73"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="4"/>
       <c r="D78" s="27"/>
       <c r="E78" s="35"/>
@@ -3707,19 +3707,19 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="44"/>
+      <c r="K78" s="85"/>
       <c r="L78" s="35"/>
       <c r="M78" s="21"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
-      <c r="R78" s="115"/>
-      <c r="S78" s="83"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="75"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="73"/>
-      <c r="B79" s="87"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="79"/>
       <c r="C79" s="5"/>
       <c r="D79" s="28"/>
       <c r="E79" s="36"/>
@@ -3728,19 +3728,19 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="45"/>
+      <c r="K79" s="86"/>
       <c r="L79" s="36"/>
       <c r="M79" s="20"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
-      <c r="R79" s="116"/>
-      <c r="S79" s="84"/>
+      <c r="R79" s="86"/>
+      <c r="S79" s="76"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="73"/>
-      <c r="B80" s="88"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="4"/>
       <c r="D80" s="27"/>
       <c r="E80" s="35"/>
@@ -3749,19 +3749,19 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="44"/>
+      <c r="K80" s="85"/>
       <c r="L80" s="35"/>
       <c r="M80" s="21"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
-      <c r="R80" s="115"/>
-      <c r="S80" s="83"/>
+      <c r="R80" s="85"/>
+      <c r="S80" s="75"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="73"/>
-      <c r="B81" s="87"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="79"/>
       <c r="C81" s="5"/>
       <c r="D81" s="28"/>
       <c r="E81" s="36"/>
@@ -3770,19 +3770,19 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="45"/>
+      <c r="K81" s="86"/>
       <c r="L81" s="36"/>
       <c r="M81" s="20"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
-      <c r="R81" s="116"/>
-      <c r="S81" s="84"/>
+      <c r="R81" s="86"/>
+      <c r="S81" s="76"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="73"/>
-      <c r="B82" s="88"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="4"/>
       <c r="D82" s="27"/>
       <c r="E82" s="35"/>
@@ -3791,19 +3791,19 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="44"/>
+      <c r="K82" s="85"/>
       <c r="L82" s="35"/>
       <c r="M82" s="21"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
-      <c r="R82" s="115"/>
-      <c r="S82" s="83"/>
+      <c r="R82" s="85"/>
+      <c r="S82" s="75"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="73"/>
-      <c r="B83" s="87"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="79"/>
       <c r="C83" s="5"/>
       <c r="D83" s="28"/>
       <c r="E83" s="36"/>
@@ -3812,19 +3812,19 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
-      <c r="K83" s="45"/>
+      <c r="K83" s="86"/>
       <c r="L83" s="36"/>
       <c r="M83" s="20"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
-      <c r="R83" s="116"/>
-      <c r="S83" s="84"/>
+      <c r="R83" s="86"/>
+      <c r="S83" s="76"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="73"/>
-      <c r="B84" s="88"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="4"/>
       <c r="D84" s="27"/>
       <c r="E84" s="35"/>
@@ -3833,19 +3833,19 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="85"/>
       <c r="L84" s="35"/>
       <c r="M84" s="21"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
-      <c r="R84" s="115"/>
-      <c r="S84" s="83"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="75"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="73"/>
-      <c r="B85" s="87"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="79"/>
       <c r="C85" s="5"/>
       <c r="D85" s="28"/>
       <c r="E85" s="36"/>
@@ -3854,19 +3854,19 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="45"/>
+      <c r="K85" s="86"/>
       <c r="L85" s="36"/>
       <c r="M85" s="20"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
-      <c r="R85" s="116"/>
-      <c r="S85" s="84"/>
+      <c r="R85" s="86"/>
+      <c r="S85" s="76"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="73"/>
-      <c r="B86" s="88"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="4"/>
       <c r="D86" s="27"/>
       <c r="E86" s="35"/>
@@ -3875,19 +3875,19 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="44"/>
+      <c r="K86" s="85"/>
       <c r="L86" s="35"/>
       <c r="M86" s="21"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
-      <c r="R86" s="115"/>
-      <c r="S86" s="83"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="75"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="73"/>
-      <c r="B87" s="87"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="79"/>
       <c r="C87" s="5"/>
       <c r="D87" s="28"/>
       <c r="E87" s="36"/>
@@ -3896,19 +3896,19 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="45"/>
+      <c r="K87" s="86"/>
       <c r="L87" s="36"/>
       <c r="M87" s="20"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
-      <c r="R87" s="116"/>
-      <c r="S87" s="84"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="76"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="73"/>
-      <c r="B88" s="88"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="4"/>
       <c r="D88" s="27"/>
       <c r="E88" s="35"/>
@@ -3917,19 +3917,19 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="44"/>
+      <c r="K88" s="85"/>
       <c r="L88" s="35"/>
       <c r="M88" s="21"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
-      <c r="R88" s="115"/>
-      <c r="S88" s="83"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="75"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="73"/>
-      <c r="B89" s="87"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="79"/>
       <c r="C89" s="5"/>
       <c r="D89" s="28"/>
       <c r="E89" s="36"/>
@@ -3938,19 +3938,19 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="45"/>
+      <c r="K89" s="86"/>
       <c r="L89" s="36"/>
       <c r="M89" s="20"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
-      <c r="R89" s="116"/>
-      <c r="S89" s="84"/>
+      <c r="R89" s="86"/>
+      <c r="S89" s="76"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="73"/>
-      <c r="B90" s="88"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="80"/>
       <c r="C90" s="4"/>
       <c r="D90" s="27"/>
       <c r="E90" s="35"/>
@@ -3959,19 +3959,19 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="44"/>
+      <c r="K90" s="85"/>
       <c r="L90" s="35"/>
       <c r="M90" s="21"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
-      <c r="R90" s="115"/>
-      <c r="S90" s="83"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="75"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="73"/>
-      <c r="B91" s="87"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="79"/>
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
       <c r="E91" s="36"/>
@@ -3980,19 +3980,19 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="45"/>
+      <c r="K91" s="86"/>
       <c r="L91" s="36"/>
       <c r="M91" s="20"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
-      <c r="R91" s="116"/>
-      <c r="S91" s="84"/>
+      <c r="R91" s="86"/>
+      <c r="S91" s="76"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="73"/>
-      <c r="B92" s="88"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="80"/>
       <c r="C92" s="4"/>
       <c r="D92" s="27"/>
       <c r="E92" s="35"/>
@@ -4001,19 +4001,19 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="44"/>
+      <c r="K92" s="85"/>
       <c r="L92" s="35"/>
       <c r="M92" s="21"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
-      <c r="R92" s="115"/>
-      <c r="S92" s="83"/>
+      <c r="R92" s="85"/>
+      <c r="S92" s="75"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="73"/>
-      <c r="B93" s="87"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="79"/>
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
       <c r="E93" s="36"/>
@@ -4022,19 +4022,19 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="45"/>
+      <c r="K93" s="86"/>
       <c r="L93" s="36"/>
       <c r="M93" s="20"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-      <c r="R93" s="116"/>
-      <c r="S93" s="84"/>
+      <c r="R93" s="86"/>
+      <c r="S93" s="76"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="73"/>
-      <c r="B94" s="88"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="80"/>
       <c r="C94" s="4"/>
       <c r="D94" s="27"/>
       <c r="E94" s="35"/>
@@ -4043,19 +4043,19 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="44"/>
+      <c r="K94" s="85"/>
       <c r="L94" s="35"/>
       <c r="M94" s="21"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
-      <c r="R94" s="115"/>
-      <c r="S94" s="83"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="75"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="73"/>
-      <c r="B95" s="87"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="79"/>
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
       <c r="E95" s="36"/>
@@ -4064,19 +4064,19 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="45"/>
+      <c r="K95" s="86"/>
       <c r="L95" s="36"/>
       <c r="M95" s="20"/>
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
-      <c r="R95" s="116"/>
-      <c r="S95" s="84"/>
+      <c r="R95" s="86"/>
+      <c r="S95" s="76"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="73"/>
-      <c r="B96" s="88"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="80"/>
       <c r="C96" s="4"/>
       <c r="D96" s="27"/>
       <c r="E96" s="35"/>
@@ -4085,19 +4085,19 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="44"/>
+      <c r="K96" s="85"/>
       <c r="L96" s="35"/>
       <c r="M96" s="21"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
-      <c r="R96" s="115"/>
-      <c r="S96" s="83"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="75"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="73"/>
-      <c r="B97" s="87"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="79"/>
       <c r="C97" s="5"/>
       <c r="D97" s="28"/>
       <c r="E97" s="36"/>
@@ -4106,19 +4106,19 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="45"/>
+      <c r="K97" s="86"/>
       <c r="L97" s="36"/>
       <c r="M97" s="20"/>
       <c r="N97" s="14"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
-      <c r="R97" s="116"/>
-      <c r="S97" s="84"/>
+      <c r="R97" s="86"/>
+      <c r="S97" s="76"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="73"/>
-      <c r="B98" s="88"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="80"/>
       <c r="C98" s="4"/>
       <c r="D98" s="27"/>
       <c r="E98" s="35"/>
@@ -4127,19 +4127,19 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="44"/>
+      <c r="K98" s="85"/>
       <c r="L98" s="35"/>
       <c r="M98" s="21"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
       <c r="Q98" s="15"/>
-      <c r="R98" s="115"/>
-      <c r="S98" s="83"/>
+      <c r="R98" s="85"/>
+      <c r="S98" s="75"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="73"/>
-      <c r="B99" s="87"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="79"/>
       <c r="C99" s="5"/>
       <c r="D99" s="28"/>
       <c r="E99" s="36"/>
@@ -4148,19 +4148,19 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="45"/>
+      <c r="K99" s="86"/>
       <c r="L99" s="36"/>
       <c r="M99" s="20"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="84"/>
+      <c r="R99" s="86"/>
+      <c r="S99" s="76"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="73"/>
-      <c r="B100" s="88"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="80"/>
       <c r="C100" s="4"/>
       <c r="D100" s="27"/>
       <c r="E100" s="35"/>
@@ -4169,19 +4169,19 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="44"/>
+      <c r="K100" s="85"/>
       <c r="L100" s="35"/>
       <c r="M100" s="21"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
-      <c r="R100" s="115"/>
-      <c r="S100" s="83"/>
+      <c r="R100" s="85"/>
+      <c r="S100" s="75"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="73"/>
-      <c r="B101" s="87"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="79"/>
       <c r="C101" s="5"/>
       <c r="D101" s="28"/>
       <c r="E101" s="36"/>
@@ -4190,19 +4190,19 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="45"/>
+      <c r="K101" s="86"/>
       <c r="L101" s="36"/>
       <c r="M101" s="20"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
-      <c r="R101" s="116"/>
-      <c r="S101" s="84"/>
+      <c r="R101" s="86"/>
+      <c r="S101" s="76"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="73"/>
-      <c r="B102" s="88"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="80"/>
       <c r="C102" s="4"/>
       <c r="D102" s="27"/>
       <c r="E102" s="35"/>
@@ -4211,19 +4211,19 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="44"/>
+      <c r="K102" s="85"/>
       <c r="L102" s="35"/>
       <c r="M102" s="21"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
       <c r="P102" s="15"/>
       <c r="Q102" s="15"/>
-      <c r="R102" s="115"/>
-      <c r="S102" s="83"/>
+      <c r="R102" s="85"/>
+      <c r="S102" s="75"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="73"/>
-      <c r="B103" s="87"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="79"/>
       <c r="C103" s="5"/>
       <c r="D103" s="28"/>
       <c r="E103" s="36"/>
@@ -4232,19 +4232,19 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="45"/>
+      <c r="K103" s="86"/>
       <c r="L103" s="36"/>
       <c r="M103" s="20"/>
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
-      <c r="R103" s="116"/>
-      <c r="S103" s="84"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="76"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="73"/>
-      <c r="B104" s="88"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="80"/>
       <c r="C104" s="4"/>
       <c r="D104" s="27"/>
       <c r="E104" s="35"/>
@@ -4253,19 +4253,19 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="44"/>
+      <c r="K104" s="85"/>
       <c r="L104" s="35"/>
       <c r="M104" s="21"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
-      <c r="R104" s="115"/>
-      <c r="S104" s="83"/>
+      <c r="R104" s="85"/>
+      <c r="S104" s="75"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="73"/>
-      <c r="B105" s="87"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="79"/>
       <c r="C105" s="5"/>
       <c r="D105" s="28"/>
       <c r="E105" s="36"/>
@@ -4274,19 +4274,19 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="45"/>
+      <c r="K105" s="86"/>
       <c r="L105" s="36"/>
       <c r="M105" s="20"/>
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
-      <c r="R105" s="116"/>
-      <c r="S105" s="84"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="76"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="73"/>
-      <c r="B106" s="88"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="80"/>
       <c r="C106" s="4"/>
       <c r="D106" s="27"/>
       <c r="E106" s="35"/>
@@ -4295,19 +4295,19 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="44"/>
+      <c r="K106" s="85"/>
       <c r="L106" s="35"/>
       <c r="M106" s="21"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
       <c r="P106" s="15"/>
       <c r="Q106" s="15"/>
-      <c r="R106" s="115"/>
-      <c r="S106" s="83"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="75"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="73"/>
-      <c r="B107" s="87"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="79"/>
       <c r="C107" s="5"/>
       <c r="D107" s="28"/>
       <c r="E107" s="36"/>
@@ -4316,19 +4316,19 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="45"/>
+      <c r="K107" s="86"/>
       <c r="L107" s="36"/>
       <c r="M107" s="20"/>
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
-      <c r="R107" s="116"/>
-      <c r="S107" s="84"/>
+      <c r="R107" s="86"/>
+      <c r="S107" s="76"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="73"/>
-      <c r="B108" s="88"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="80"/>
       <c r="C108" s="4"/>
       <c r="D108" s="27"/>
       <c r="E108" s="35"/>
@@ -4337,19 +4337,19 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="44"/>
+      <c r="K108" s="85"/>
       <c r="L108" s="35"/>
       <c r="M108" s="21"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
-      <c r="R108" s="115"/>
-      <c r="S108" s="83"/>
+      <c r="R108" s="85"/>
+      <c r="S108" s="75"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="73"/>
-      <c r="B109" s="87"/>
+      <c r="A109" s="65"/>
+      <c r="B109" s="79"/>
       <c r="C109" s="5"/>
       <c r="D109" s="28"/>
       <c r="E109" s="36"/>
@@ -4358,19 +4358,19 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="45"/>
+      <c r="K109" s="86"/>
       <c r="L109" s="36"/>
       <c r="M109" s="20"/>
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
-      <c r="R109" s="116"/>
-      <c r="S109" s="84"/>
+      <c r="R109" s="86"/>
+      <c r="S109" s="76"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="73"/>
-      <c r="B110" s="88"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="80"/>
       <c r="C110" s="4"/>
       <c r="D110" s="27"/>
       <c r="E110" s="35"/>
@@ -4379,19 +4379,19 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="44"/>
+      <c r="K110" s="85"/>
       <c r="L110" s="35"/>
       <c r="M110" s="21"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
       <c r="P110" s="15"/>
       <c r="Q110" s="15"/>
-      <c r="R110" s="115"/>
-      <c r="S110" s="83"/>
+      <c r="R110" s="85"/>
+      <c r="S110" s="75"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="73"/>
-      <c r="B111" s="87"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="79"/>
       <c r="C111" s="5"/>
       <c r="D111" s="28"/>
       <c r="E111" s="36"/>
@@ -4400,19 +4400,19 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="45"/>
+      <c r="K111" s="86"/>
       <c r="L111" s="36"/>
       <c r="M111" s="20"/>
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
-      <c r="R111" s="116"/>
-      <c r="S111" s="84"/>
+      <c r="R111" s="86"/>
+      <c r="S111" s="76"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="73"/>
-      <c r="B112" s="88"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="80"/>
       <c r="C112" s="4"/>
       <c r="D112" s="27"/>
       <c r="E112" s="35"/>
@@ -4421,19 +4421,19 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="44"/>
+      <c r="K112" s="85"/>
       <c r="L112" s="35"/>
       <c r="M112" s="21"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
       <c r="P112" s="15"/>
       <c r="Q112" s="15"/>
-      <c r="R112" s="115"/>
-      <c r="S112" s="83"/>
+      <c r="R112" s="85"/>
+      <c r="S112" s="75"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="73"/>
-      <c r="B113" s="87"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="79"/>
       <c r="C113" s="5"/>
       <c r="D113" s="28"/>
       <c r="E113" s="36"/>
@@ -4442,19 +4442,19 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
-      <c r="K113" s="45"/>
+      <c r="K113" s="86"/>
       <c r="L113" s="36"/>
       <c r="M113" s="20"/>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
-      <c r="R113" s="116"/>
-      <c r="S113" s="84"/>
+      <c r="R113" s="86"/>
+      <c r="S113" s="76"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="73"/>
-      <c r="B114" s="88"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="80"/>
       <c r="C114" s="4"/>
       <c r="D114" s="27"/>
       <c r="E114" s="35"/>
@@ -4463,19 +4463,19 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="44"/>
+      <c r="K114" s="85"/>
       <c r="L114" s="35"/>
       <c r="M114" s="21"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
       <c r="P114" s="15"/>
       <c r="Q114" s="15"/>
-      <c r="R114" s="115"/>
-      <c r="S114" s="83"/>
+      <c r="R114" s="85"/>
+      <c r="S114" s="75"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="73"/>
-      <c r="B115" s="87"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="79"/>
       <c r="C115" s="5"/>
       <c r="D115" s="28"/>
       <c r="E115" s="36"/>
@@ -4484,19 +4484,19 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="45"/>
+      <c r="K115" s="86"/>
       <c r="L115" s="36"/>
       <c r="M115" s="20"/>
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
-      <c r="R115" s="116"/>
-      <c r="S115" s="84"/>
+      <c r="R115" s="86"/>
+      <c r="S115" s="76"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="73"/>
-      <c r="B116" s="88"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="80"/>
       <c r="C116" s="4"/>
       <c r="D116" s="27"/>
       <c r="E116" s="35"/>
@@ -4505,19 +4505,19 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="44"/>
+      <c r="K116" s="85"/>
       <c r="L116" s="35"/>
       <c r="M116" s="21"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
       <c r="P116" s="15"/>
       <c r="Q116" s="15"/>
-      <c r="R116" s="115"/>
-      <c r="S116" s="83"/>
+      <c r="R116" s="85"/>
+      <c r="S116" s="75"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="73"/>
-      <c r="B117" s="87"/>
+      <c r="A117" s="65"/>
+      <c r="B117" s="79"/>
       <c r="C117" s="5"/>
       <c r="D117" s="28"/>
       <c r="E117" s="36"/>
@@ -4526,40 +4526,48 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="45"/>
+      <c r="K117" s="86"/>
       <c r="L117" s="36"/>
       <c r="M117" s="20"/>
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
-      <c r="R117" s="116"/>
-      <c r="S117" s="84"/>
+      <c r="R117" s="86"/>
+      <c r="S117" s="76"/>
     </row>
     <row r="118" spans="1:19" ht="12.75" thickBot="1">
-      <c r="A118" s="73"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="63"/>
-      <c r="L118" s="60"/>
-      <c r="M118" s="62"/>
-      <c r="N118" s="61"/>
-      <c r="O118" s="61"/>
-      <c r="P118" s="61"/>
-      <c r="Q118" s="61"/>
-      <c r="R118" s="117"/>
-      <c r="S118" s="86"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="87"/>
+      <c r="L118" s="53"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="54"/>
+      <c r="O118" s="54"/>
+      <c r="P118" s="54"/>
+      <c r="Q118" s="54"/>
+      <c r="R118" s="87"/>
+      <c r="S118" s="78"/>
     </row>
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="O62:Q62"/>
@@ -4568,18 +4576,10 @@
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="L61:R61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社
 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16厚生年金保険料率一覧 &amp;R&amp;"ＭＳ ゴシック,標準"&amp;10 &amp;KFF0000 &amp;K01+000 &amp;D　&amp;T　

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1284,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1406,9 +1406,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1457,9 +1454,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1565,30 +1559,60 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,36 +1623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1985,11 +1979,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,67 +1994,67 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="110" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="46"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="107"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="98" t="s">
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="115"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="98" t="s">
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="46"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="95"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
@@ -2103,14 +2097,14 @@
       <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="46"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="12.75" thickTop="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
       <c r="E5" s="33"/>
@@ -2119,19 +2113,19 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="89"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="33"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="42"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="41"/>
     </row>
     <row r="6" spans="1:19" s="3" customFormat="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="23"/>
       <c r="D6" s="26"/>
       <c r="E6" s="34"/>
@@ -2140,19 +2134,19 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="90"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="34"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="42"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="41"/>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="24"/>
       <c r="D7" s="27"/>
       <c r="E7" s="35"/>
@@ -2161,1198 +2155,1198 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="85"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="35"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="42"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="65"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="23"/>
       <c r="D8" s="28"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="90"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="36"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="42"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="41"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="24"/>
       <c r="D9" s="27"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="85"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="35"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="42"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="41"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="90"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="36"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="42"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="41"/>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="24"/>
       <c r="D11" s="27"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="85"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="21"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="42"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="41"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="65"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="23"/>
       <c r="D12" s="28"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="84"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="20"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="42"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="41"/>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="24"/>
       <c r="D13" s="27"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="85"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="42"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="41"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="23"/>
       <c r="D14" s="28"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="86"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="42"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="41"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="24"/>
       <c r="D15" s="27"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="85"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="83"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="42"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="41"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="23"/>
       <c r="D16" s="28"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="86"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="42"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="41"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="24"/>
       <c r="D17" s="27"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="85"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="21"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="42"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="41"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="65"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="23"/>
       <c r="D18" s="28"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="86"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="84"/>
       <c r="L18" s="36"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="42"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="41"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="24"/>
       <c r="D19" s="27"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="85"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="42"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="41"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="65"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="84"/>
       <c r="L20" s="36"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="42"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="41"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="24"/>
       <c r="D21" s="27"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="85"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="21"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="42"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="41"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="65"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="23"/>
       <c r="D22" s="28"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="86"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="84"/>
       <c r="L22" s="36"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="42"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="41"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="24"/>
       <c r="D23" s="27"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="85"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="42"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="41"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="65"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="23"/>
       <c r="D24" s="28"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="86"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="36"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="42"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="41"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="24"/>
       <c r="D25" s="27"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="85"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="42"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="41"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="23"/>
       <c r="D26" s="28"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="86"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="36"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="20"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="42"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="41"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="24"/>
       <c r="D27" s="27"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="85"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="42"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="41"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="65"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="23"/>
       <c r="D28" s="28"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="86"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="36"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="42"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="41"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="24"/>
       <c r="D29" s="27"/>
       <c r="E29" s="35"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="85"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="42"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="41"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="65"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="23"/>
       <c r="D30" s="28"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="86"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="84"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="42"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="41"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="24"/>
       <c r="D31" s="27"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="85"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="83"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="21"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="42"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="41"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="65"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="23"/>
       <c r="D32" s="28"/>
       <c r="E32" s="36"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="86"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="36"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="42"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="41"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="24"/>
       <c r="D33" s="27"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="85"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="42"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="41"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="65"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="23"/>
       <c r="D34" s="28"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="86"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="84"/>
       <c r="L34" s="36"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="42"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="41"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="62"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="24"/>
       <c r="D35" s="27"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="85"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="42"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="41"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="23"/>
       <c r="D36" s="28"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="86"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="36"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="42"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="41"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="24"/>
       <c r="D37" s="27"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="85"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="21"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="42"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="41"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="65"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="23"/>
       <c r="D38" s="28"/>
       <c r="E38" s="36"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="86"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="84"/>
       <c r="L38" s="36"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="20"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="42"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="41"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="62"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="24"/>
       <c r="D39" s="27"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="85"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="21"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="42"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="41"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="65"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="23"/>
       <c r="D40" s="28"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="86"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="36"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
       <c r="O40" s="20"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="42"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="41"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="24"/>
       <c r="D41" s="27"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="85"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="21"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="42"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="41"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="65"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="23"/>
       <c r="D42" s="28"/>
       <c r="E42" s="36"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="86"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="36"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="42"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="41"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="62"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="24"/>
       <c r="D43" s="27"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="85"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="21"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="42"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="41"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="65"/>
-      <c r="B44" s="61"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="23"/>
       <c r="D44" s="28"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="86"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="84"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
       <c r="O44" s="20"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="42"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="41"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="24"/>
       <c r="D45" s="27"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="85"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="83"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="21"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="42"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="41"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="23"/>
       <c r="D46" s="28"/>
       <c r="E46" s="36"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="86"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="84"/>
       <c r="L46" s="36"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
       <c r="O46" s="20"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="42"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="41"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="24"/>
       <c r="D47" s="27"/>
       <c r="E47" s="35"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="85"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="21"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="42"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="41"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="65"/>
-      <c r="B48" s="61"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="23"/>
       <c r="D48" s="28"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="86"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="84"/>
       <c r="L48" s="36"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
       <c r="O48" s="20"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="42"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="41"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="24"/>
       <c r="D49" s="27"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="85"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="21"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="42"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="41"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="65"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="23"/>
       <c r="D50" s="28"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="86"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="84"/>
       <c r="L50" s="36"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
       <c r="O50" s="20"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="42"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="41"/>
     </row>
     <row r="51" spans="1:19" s="3" customFormat="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="24"/>
       <c r="D51" s="27"/>
       <c r="E51" s="35"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="85"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="21"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="42"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="41"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="23"/>
       <c r="D52" s="28"/>
       <c r="E52" s="36"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="86"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="84"/>
       <c r="L52" s="36"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
       <c r="O52" s="20"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="42"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="41"/>
     </row>
     <row r="53" spans="1:19" s="3" customFormat="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="24"/>
       <c r="D53" s="27"/>
       <c r="E53" s="35"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="85"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="21"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="42"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="41"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="65"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="23"/>
       <c r="D54" s="26"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="90"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="88"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
       <c r="O54" s="38"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="42"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="41"/>
     </row>
     <row r="55" spans="1:19" s="3" customFormat="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="24"/>
       <c r="D55" s="27"/>
       <c r="E55" s="35"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="85"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="83"/>
       <c r="L55" s="35"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="42"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="41"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="65"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="23"/>
       <c r="D56" s="26"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="90"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="88"/>
       <c r="L56" s="34"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
       <c r="O56" s="38"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="42"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:19" s="3" customFormat="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="24"/>
       <c r="D57" s="27"/>
       <c r="E57" s="35"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="85"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="83"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="21"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="42"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="65"/>
-      <c r="B58" s="61"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="23"/>
       <c r="D58" s="28"/>
       <c r="E58" s="36"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="86"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="84"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
       <c r="O58" s="20"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="42"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
-      <c r="H59" s="55"/>
+      <c r="H59" s="54"/>
       <c r="I59" s="54"/>
       <c r="J59" s="54"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="53"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="54"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="42"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="41"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="84" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="67" t="s">
+      <c r="Q60" s="43"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="65" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="96" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="94" t="s">
+      <c r="C61" s="96" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="105" t="s">
+      <c r="E61" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="102" t="s">
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="103"/>
-      <c r="R61" s="104"/>
-      <c r="S61" s="68"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="112"/>
+      <c r="S61" s="66"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="94"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="101" t="s">
+      <c r="E62" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="98" t="s">
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
       <c r="K62" s="39"/>
-      <c r="L62" s="99" t="s">
+      <c r="L62" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="98" t="s">
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="98"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
       <c r="R62" s="39"/>
-      <c r="S62" s="69"/>
+      <c r="S62" s="67"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A63" s="64"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="95"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="17" t="s">
         <v>12</v>
       </c>
@@ -3398,13 +3392,13 @@
       <c r="R63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="70" t="s">
+      <c r="S63" s="68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="3" customFormat="1" ht="12.4" customHeight="1" thickTop="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="22"/>
       <c r="D64" s="25"/>
       <c r="E64" s="33"/>
@@ -3413,7 +3407,7 @@
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
-      <c r="K64" s="91"/>
+      <c r="K64" s="89"/>
       <c r="L64" s="33"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -3421,11 +3415,11 @@
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
       <c r="R64" s="29"/>
-      <c r="S64" s="71"/>
+      <c r="S64" s="69"/>
     </row>
     <row r="65" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="79"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="77"/>
       <c r="C65" s="23"/>
       <c r="D65" s="26"/>
       <c r="E65" s="34"/>
@@ -3434,7 +3428,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="92"/>
+      <c r="K65" s="90"/>
       <c r="L65" s="34"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
@@ -3442,11 +3436,11 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
       <c r="R65" s="30"/>
-      <c r="S65" s="72"/>
+      <c r="S65" s="70"/>
     </row>
     <row r="66" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="65"/>
-      <c r="B66" s="80"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="78"/>
       <c r="C66" s="24"/>
       <c r="D66" s="27"/>
       <c r="E66" s="35"/>
@@ -3455,7 +3449,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
-      <c r="K66" s="93"/>
+      <c r="K66" s="91"/>
       <c r="L66" s="35"/>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
@@ -3463,11 +3457,11 @@
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="31"/>
-      <c r="S66" s="73"/>
+      <c r="S66" s="71"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="65"/>
-      <c r="B67" s="79"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="23"/>
       <c r="D67" s="28"/>
       <c r="E67" s="36"/>
@@ -3476,7 +3470,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
-      <c r="K67" s="92"/>
+      <c r="K67" s="90"/>
       <c r="L67" s="36"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
@@ -3484,11 +3478,11 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="20"/>
       <c r="R67" s="32"/>
-      <c r="S67" s="74"/>
+      <c r="S67" s="72"/>
     </row>
     <row r="68" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="80"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="78"/>
       <c r="C68" s="24"/>
       <c r="D68" s="27"/>
       <c r="E68" s="35"/>
@@ -3497,7 +3491,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
-      <c r="K68" s="93"/>
+      <c r="K68" s="91"/>
       <c r="L68" s="35"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
@@ -3505,11 +3499,11 @@
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="31"/>
-      <c r="S68" s="73"/>
+      <c r="S68" s="71"/>
     </row>
     <row r="69" spans="1:19" ht="12.4" customHeight="1">
-      <c r="A69" s="65"/>
-      <c r="B69" s="79"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="23"/>
       <c r="D69" s="28"/>
       <c r="E69" s="36"/>
@@ -3518,7 +3512,7 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="92"/>
+      <c r="K69" s="90"/>
       <c r="L69" s="36"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
@@ -3526,11 +3520,11 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="20"/>
       <c r="R69" s="32"/>
-      <c r="S69" s="74"/>
+      <c r="S69" s="72"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="65"/>
-      <c r="B70" s="80"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="78"/>
       <c r="C70" s="4"/>
       <c r="D70" s="27"/>
       <c r="E70" s="35"/>
@@ -3539,19 +3533,19 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="85"/>
+      <c r="K70" s="83"/>
       <c r="L70" s="35"/>
       <c r="M70" s="21"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="75"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="73"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="65"/>
-      <c r="B71" s="79"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="5"/>
       <c r="D71" s="28"/>
       <c r="E71" s="36"/>
@@ -3560,19 +3554,19 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="86"/>
+      <c r="K71" s="84"/>
       <c r="L71" s="36"/>
       <c r="M71" s="20"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
-      <c r="R71" s="86"/>
-      <c r="S71" s="76"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="74"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="65"/>
-      <c r="B72" s="80"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="78"/>
       <c r="C72" s="4"/>
       <c r="D72" s="27"/>
       <c r="E72" s="35"/>
@@ -3581,19 +3575,19 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="85"/>
+      <c r="K72" s="83"/>
       <c r="L72" s="35"/>
       <c r="M72" s="21"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="75"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="73"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="65"/>
-      <c r="B73" s="79"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="5"/>
       <c r="D73" s="28"/>
       <c r="E73" s="36"/>
@@ -3602,19 +3596,19 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="86"/>
+      <c r="K73" s="84"/>
       <c r="L73" s="36"/>
       <c r="M73" s="20"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
-      <c r="R73" s="86"/>
-      <c r="S73" s="76"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="74"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="65"/>
-      <c r="B74" s="80"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="78"/>
       <c r="C74" s="4"/>
       <c r="D74" s="27"/>
       <c r="E74" s="35"/>
@@ -3623,19 +3617,19 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="85"/>
+      <c r="K74" s="83"/>
       <c r="L74" s="35"/>
       <c r="M74" s="21"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="75"/>
+      <c r="R74" s="83"/>
+      <c r="S74" s="73"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="65"/>
-      <c r="B75" s="79"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="5"/>
       <c r="D75" s="28"/>
       <c r="E75" s="36"/>
@@ -3644,19 +3638,19 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="86"/>
+      <c r="K75" s="84"/>
       <c r="L75" s="36"/>
       <c r="M75" s="20"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
-      <c r="R75" s="86"/>
-      <c r="S75" s="76"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="74"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="65"/>
-      <c r="B76" s="80"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="4"/>
       <c r="D76" s="27"/>
       <c r="E76" s="35"/>
@@ -3665,19 +3659,19 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="85"/>
+      <c r="K76" s="83"/>
       <c r="L76" s="35"/>
       <c r="M76" s="21"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
-      <c r="R76" s="85"/>
-      <c r="S76" s="75"/>
+      <c r="R76" s="83"/>
+      <c r="S76" s="73"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="65"/>
-      <c r="B77" s="79"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="77"/>
       <c r="C77" s="5"/>
       <c r="D77" s="28"/>
       <c r="E77" s="36"/>
@@ -3686,19 +3680,19 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
-      <c r="K77" s="86"/>
+      <c r="K77" s="84"/>
       <c r="L77" s="36"/>
       <c r="M77" s="20"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
-      <c r="R77" s="86"/>
-      <c r="S77" s="76"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="74"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="65"/>
-      <c r="B78" s="80"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="78"/>
       <c r="C78" s="4"/>
       <c r="D78" s="27"/>
       <c r="E78" s="35"/>
@@ -3707,19 +3701,19 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="85"/>
+      <c r="K78" s="83"/>
       <c r="L78" s="35"/>
       <c r="M78" s="21"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
-      <c r="R78" s="85"/>
-      <c r="S78" s="75"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="73"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="65"/>
-      <c r="B79" s="79"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="77"/>
       <c r="C79" s="5"/>
       <c r="D79" s="28"/>
       <c r="E79" s="36"/>
@@ -3728,19 +3722,19 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="86"/>
+      <c r="K79" s="84"/>
       <c r="L79" s="36"/>
       <c r="M79" s="20"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
-      <c r="R79" s="86"/>
-      <c r="S79" s="76"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="74"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="65"/>
-      <c r="B80" s="80"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="78"/>
       <c r="C80" s="4"/>
       <c r="D80" s="27"/>
       <c r="E80" s="35"/>
@@ -3749,19 +3743,19 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="85"/>
+      <c r="K80" s="83"/>
       <c r="L80" s="35"/>
       <c r="M80" s="21"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
-      <c r="R80" s="85"/>
-      <c r="S80" s="75"/>
+      <c r="R80" s="83"/>
+      <c r="S80" s="73"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="65"/>
-      <c r="B81" s="79"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="77"/>
       <c r="C81" s="5"/>
       <c r="D81" s="28"/>
       <c r="E81" s="36"/>
@@ -3770,19 +3764,19 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="86"/>
+      <c r="K81" s="84"/>
       <c r="L81" s="36"/>
       <c r="M81" s="20"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
-      <c r="R81" s="86"/>
-      <c r="S81" s="76"/>
+      <c r="R81" s="84"/>
+      <c r="S81" s="74"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="65"/>
-      <c r="B82" s="80"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="78"/>
       <c r="C82" s="4"/>
       <c r="D82" s="27"/>
       <c r="E82" s="35"/>
@@ -3791,19 +3785,19 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="85"/>
+      <c r="K82" s="83"/>
       <c r="L82" s="35"/>
       <c r="M82" s="21"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
-      <c r="R82" s="85"/>
-      <c r="S82" s="75"/>
+      <c r="R82" s="83"/>
+      <c r="S82" s="73"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="65"/>
-      <c r="B83" s="79"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="77"/>
       <c r="C83" s="5"/>
       <c r="D83" s="28"/>
       <c r="E83" s="36"/>
@@ -3812,19 +3806,19 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
-      <c r="K83" s="86"/>
+      <c r="K83" s="84"/>
       <c r="L83" s="36"/>
       <c r="M83" s="20"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
-      <c r="R83" s="86"/>
-      <c r="S83" s="76"/>
+      <c r="R83" s="84"/>
+      <c r="S83" s="74"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="65"/>
-      <c r="B84" s="80"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="4"/>
       <c r="D84" s="27"/>
       <c r="E84" s="35"/>
@@ -3833,19 +3827,19 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="85"/>
+      <c r="K84" s="83"/>
       <c r="L84" s="35"/>
       <c r="M84" s="21"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
-      <c r="R84" s="85"/>
-      <c r="S84" s="75"/>
+      <c r="R84" s="83"/>
+      <c r="S84" s="73"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="65"/>
-      <c r="B85" s="79"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="77"/>
       <c r="C85" s="5"/>
       <c r="D85" s="28"/>
       <c r="E85" s="36"/>
@@ -3854,19 +3848,19 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="86"/>
+      <c r="K85" s="84"/>
       <c r="L85" s="36"/>
       <c r="M85" s="20"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
-      <c r="R85" s="86"/>
-      <c r="S85" s="76"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="74"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="65"/>
-      <c r="B86" s="80"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="78"/>
       <c r="C86" s="4"/>
       <c r="D86" s="27"/>
       <c r="E86" s="35"/>
@@ -3875,19 +3869,19 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="85"/>
+      <c r="K86" s="83"/>
       <c r="L86" s="35"/>
       <c r="M86" s="21"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="75"/>
+      <c r="R86" s="83"/>
+      <c r="S86" s="73"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="65"/>
-      <c r="B87" s="79"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="77"/>
       <c r="C87" s="5"/>
       <c r="D87" s="28"/>
       <c r="E87" s="36"/>
@@ -3896,19 +3890,19 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="86"/>
+      <c r="K87" s="84"/>
       <c r="L87" s="36"/>
       <c r="M87" s="20"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="76"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="74"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="65"/>
-      <c r="B88" s="80"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="78"/>
       <c r="C88" s="4"/>
       <c r="D88" s="27"/>
       <c r="E88" s="35"/>
@@ -3917,19 +3911,19 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="85"/>
+      <c r="K88" s="83"/>
       <c r="L88" s="35"/>
       <c r="M88" s="21"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
-      <c r="R88" s="85"/>
-      <c r="S88" s="75"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="73"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="65"/>
-      <c r="B89" s="79"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="77"/>
       <c r="C89" s="5"/>
       <c r="D89" s="28"/>
       <c r="E89" s="36"/>
@@ -3938,19 +3932,19 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="86"/>
+      <c r="K89" s="84"/>
       <c r="L89" s="36"/>
       <c r="M89" s="20"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
-      <c r="R89" s="86"/>
-      <c r="S89" s="76"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="74"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="65"/>
-      <c r="B90" s="80"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="78"/>
       <c r="C90" s="4"/>
       <c r="D90" s="27"/>
       <c r="E90" s="35"/>
@@ -3959,19 +3953,19 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="85"/>
+      <c r="K90" s="83"/>
       <c r="L90" s="35"/>
       <c r="M90" s="21"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="75"/>
+      <c r="R90" s="83"/>
+      <c r="S90" s="73"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="65"/>
-      <c r="B91" s="79"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="77"/>
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
       <c r="E91" s="36"/>
@@ -3980,19 +3974,19 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="86"/>
+      <c r="K91" s="84"/>
       <c r="L91" s="36"/>
       <c r="M91" s="20"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
-      <c r="R91" s="86"/>
-      <c r="S91" s="76"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="74"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="65"/>
-      <c r="B92" s="80"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="78"/>
       <c r="C92" s="4"/>
       <c r="D92" s="27"/>
       <c r="E92" s="35"/>
@@ -4001,19 +3995,19 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="85"/>
+      <c r="K92" s="83"/>
       <c r="L92" s="35"/>
       <c r="M92" s="21"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
-      <c r="R92" s="85"/>
-      <c r="S92" s="75"/>
+      <c r="R92" s="83"/>
+      <c r="S92" s="73"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="65"/>
-      <c r="B93" s="79"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="77"/>
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
       <c r="E93" s="36"/>
@@ -4022,19 +4016,19 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="86"/>
+      <c r="K93" s="84"/>
       <c r="L93" s="36"/>
       <c r="M93" s="20"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-      <c r="R93" s="86"/>
-      <c r="S93" s="76"/>
+      <c r="R93" s="84"/>
+      <c r="S93" s="74"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="65"/>
-      <c r="B94" s="80"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="78"/>
       <c r="C94" s="4"/>
       <c r="D94" s="27"/>
       <c r="E94" s="35"/>
@@ -4043,19 +4037,19 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="85"/>
+      <c r="K94" s="83"/>
       <c r="L94" s="35"/>
       <c r="M94" s="21"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
-      <c r="R94" s="85"/>
-      <c r="S94" s="75"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="73"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="65"/>
-      <c r="B95" s="79"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="77"/>
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
       <c r="E95" s="36"/>
@@ -4064,19 +4058,19 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="86"/>
+      <c r="K95" s="84"/>
       <c r="L95" s="36"/>
       <c r="M95" s="20"/>
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
-      <c r="R95" s="86"/>
-      <c r="S95" s="76"/>
+      <c r="R95" s="84"/>
+      <c r="S95" s="74"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="65"/>
-      <c r="B96" s="80"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="78"/>
       <c r="C96" s="4"/>
       <c r="D96" s="27"/>
       <c r="E96" s="35"/>
@@ -4085,19 +4079,19 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="85"/>
+      <c r="K96" s="83"/>
       <c r="L96" s="35"/>
       <c r="M96" s="21"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
-      <c r="R96" s="85"/>
-      <c r="S96" s="75"/>
+      <c r="R96" s="83"/>
+      <c r="S96" s="73"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="65"/>
-      <c r="B97" s="79"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="77"/>
       <c r="C97" s="5"/>
       <c r="D97" s="28"/>
       <c r="E97" s="36"/>
@@ -4106,19 +4100,19 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="86"/>
+      <c r="K97" s="84"/>
       <c r="L97" s="36"/>
       <c r="M97" s="20"/>
       <c r="N97" s="14"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
-      <c r="R97" s="86"/>
-      <c r="S97" s="76"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="74"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="65"/>
-      <c r="B98" s="80"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="78"/>
       <c r="C98" s="4"/>
       <c r="D98" s="27"/>
       <c r="E98" s="35"/>
@@ -4127,19 +4121,19 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="85"/>
+      <c r="K98" s="83"/>
       <c r="L98" s="35"/>
       <c r="M98" s="21"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
       <c r="Q98" s="15"/>
-      <c r="R98" s="85"/>
-      <c r="S98" s="75"/>
+      <c r="R98" s="83"/>
+      <c r="S98" s="73"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="65"/>
-      <c r="B99" s="79"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="77"/>
       <c r="C99" s="5"/>
       <c r="D99" s="28"/>
       <c r="E99" s="36"/>
@@ -4148,19 +4142,19 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="86"/>
+      <c r="K99" s="84"/>
       <c r="L99" s="36"/>
       <c r="M99" s="20"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
-      <c r="R99" s="86"/>
-      <c r="S99" s="76"/>
+      <c r="R99" s="84"/>
+      <c r="S99" s="74"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="65"/>
-      <c r="B100" s="80"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="78"/>
       <c r="C100" s="4"/>
       <c r="D100" s="27"/>
       <c r="E100" s="35"/>
@@ -4169,19 +4163,19 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="85"/>
+      <c r="K100" s="83"/>
       <c r="L100" s="35"/>
       <c r="M100" s="21"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
-      <c r="R100" s="85"/>
-      <c r="S100" s="75"/>
+      <c r="R100" s="83"/>
+      <c r="S100" s="73"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="65"/>
-      <c r="B101" s="79"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="77"/>
       <c r="C101" s="5"/>
       <c r="D101" s="28"/>
       <c r="E101" s="36"/>
@@ -4190,19 +4184,19 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="86"/>
+      <c r="K101" s="84"/>
       <c r="L101" s="36"/>
       <c r="M101" s="20"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
-      <c r="R101" s="86"/>
-      <c r="S101" s="76"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="74"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="65"/>
-      <c r="B102" s="80"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="78"/>
       <c r="C102" s="4"/>
       <c r="D102" s="27"/>
       <c r="E102" s="35"/>
@@ -4211,19 +4205,19 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="85"/>
+      <c r="K102" s="83"/>
       <c r="L102" s="35"/>
       <c r="M102" s="21"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
       <c r="P102" s="15"/>
       <c r="Q102" s="15"/>
-      <c r="R102" s="85"/>
-      <c r="S102" s="75"/>
+      <c r="R102" s="83"/>
+      <c r="S102" s="73"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="65"/>
-      <c r="B103" s="79"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="77"/>
       <c r="C103" s="5"/>
       <c r="D103" s="28"/>
       <c r="E103" s="36"/>
@@ -4232,19 +4226,19 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="86"/>
+      <c r="K103" s="84"/>
       <c r="L103" s="36"/>
       <c r="M103" s="20"/>
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
-      <c r="R103" s="86"/>
-      <c r="S103" s="76"/>
+      <c r="R103" s="84"/>
+      <c r="S103" s="74"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="65"/>
-      <c r="B104" s="80"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="78"/>
       <c r="C104" s="4"/>
       <c r="D104" s="27"/>
       <c r="E104" s="35"/>
@@ -4253,19 +4247,19 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="85"/>
+      <c r="K104" s="83"/>
       <c r="L104" s="35"/>
       <c r="M104" s="21"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
-      <c r="R104" s="85"/>
-      <c r="S104" s="75"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="73"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="65"/>
-      <c r="B105" s="79"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="77"/>
       <c r="C105" s="5"/>
       <c r="D105" s="28"/>
       <c r="E105" s="36"/>
@@ -4274,19 +4268,19 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="86"/>
+      <c r="K105" s="84"/>
       <c r="L105" s="36"/>
       <c r="M105" s="20"/>
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="76"/>
+      <c r="R105" s="84"/>
+      <c r="S105" s="74"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="65"/>
-      <c r="B106" s="80"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="78"/>
       <c r="C106" s="4"/>
       <c r="D106" s="27"/>
       <c r="E106" s="35"/>
@@ -4295,19 +4289,19 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="85"/>
+      <c r="K106" s="83"/>
       <c r="L106" s="35"/>
       <c r="M106" s="21"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
       <c r="P106" s="15"/>
       <c r="Q106" s="15"/>
-      <c r="R106" s="85"/>
-      <c r="S106" s="75"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="73"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="65"/>
-      <c r="B107" s="79"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="77"/>
       <c r="C107" s="5"/>
       <c r="D107" s="28"/>
       <c r="E107" s="36"/>
@@ -4316,19 +4310,19 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="86"/>
+      <c r="K107" s="84"/>
       <c r="L107" s="36"/>
       <c r="M107" s="20"/>
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
-      <c r="R107" s="86"/>
-      <c r="S107" s="76"/>
+      <c r="R107" s="84"/>
+      <c r="S107" s="74"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="65"/>
-      <c r="B108" s="80"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="78"/>
       <c r="C108" s="4"/>
       <c r="D108" s="27"/>
       <c r="E108" s="35"/>
@@ -4337,19 +4331,19 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="85"/>
+      <c r="K108" s="83"/>
       <c r="L108" s="35"/>
       <c r="M108" s="21"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
-      <c r="R108" s="85"/>
-      <c r="S108" s="75"/>
+      <c r="R108" s="83"/>
+      <c r="S108" s="73"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="65"/>
-      <c r="B109" s="79"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="77"/>
       <c r="C109" s="5"/>
       <c r="D109" s="28"/>
       <c r="E109" s="36"/>
@@ -4358,19 +4352,19 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="86"/>
+      <c r="K109" s="84"/>
       <c r="L109" s="36"/>
       <c r="M109" s="20"/>
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
-      <c r="R109" s="86"/>
-      <c r="S109" s="76"/>
+      <c r="R109" s="84"/>
+      <c r="S109" s="74"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="65"/>
-      <c r="B110" s="80"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="78"/>
       <c r="C110" s="4"/>
       <c r="D110" s="27"/>
       <c r="E110" s="35"/>
@@ -4379,19 +4373,19 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="85"/>
+      <c r="K110" s="83"/>
       <c r="L110" s="35"/>
       <c r="M110" s="21"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
       <c r="P110" s="15"/>
       <c r="Q110" s="15"/>
-      <c r="R110" s="85"/>
-      <c r="S110" s="75"/>
+      <c r="R110" s="83"/>
+      <c r="S110" s="73"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="65"/>
-      <c r="B111" s="79"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="77"/>
       <c r="C111" s="5"/>
       <c r="D111" s="28"/>
       <c r="E111" s="36"/>
@@ -4400,19 +4394,19 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="86"/>
+      <c r="K111" s="84"/>
       <c r="L111" s="36"/>
       <c r="M111" s="20"/>
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
-      <c r="R111" s="86"/>
-      <c r="S111" s="76"/>
+      <c r="R111" s="84"/>
+      <c r="S111" s="74"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="65"/>
-      <c r="B112" s="80"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="78"/>
       <c r="C112" s="4"/>
       <c r="D112" s="27"/>
       <c r="E112" s="35"/>
@@ -4421,19 +4415,19 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="85"/>
+      <c r="K112" s="83"/>
       <c r="L112" s="35"/>
       <c r="M112" s="21"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
       <c r="P112" s="15"/>
       <c r="Q112" s="15"/>
-      <c r="R112" s="85"/>
-      <c r="S112" s="75"/>
+      <c r="R112" s="83"/>
+      <c r="S112" s="73"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="65"/>
-      <c r="B113" s="79"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="77"/>
       <c r="C113" s="5"/>
       <c r="D113" s="28"/>
       <c r="E113" s="36"/>
@@ -4442,19 +4436,19 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
-      <c r="K113" s="86"/>
+      <c r="K113" s="84"/>
       <c r="L113" s="36"/>
       <c r="M113" s="20"/>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
-      <c r="R113" s="86"/>
-      <c r="S113" s="76"/>
+      <c r="R113" s="84"/>
+      <c r="S113" s="74"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="65"/>
-      <c r="B114" s="80"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="78"/>
       <c r="C114" s="4"/>
       <c r="D114" s="27"/>
       <c r="E114" s="35"/>
@@ -4463,19 +4457,19 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="85"/>
+      <c r="K114" s="83"/>
       <c r="L114" s="35"/>
       <c r="M114" s="21"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
       <c r="P114" s="15"/>
       <c r="Q114" s="15"/>
-      <c r="R114" s="85"/>
-      <c r="S114" s="75"/>
+      <c r="R114" s="83"/>
+      <c r="S114" s="73"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="65"/>
-      <c r="B115" s="79"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="77"/>
       <c r="C115" s="5"/>
       <c r="D115" s="28"/>
       <c r="E115" s="36"/>
@@ -4484,19 +4478,19 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="86"/>
+      <c r="K115" s="84"/>
       <c r="L115" s="36"/>
       <c r="M115" s="20"/>
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
       <c r="Q115" s="14"/>
-      <c r="R115" s="86"/>
-      <c r="S115" s="76"/>
+      <c r="R115" s="84"/>
+      <c r="S115" s="74"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="65"/>
-      <c r="B116" s="80"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="78"/>
       <c r="C116" s="4"/>
       <c r="D116" s="27"/>
       <c r="E116" s="35"/>
@@ -4505,19 +4499,19 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="85"/>
+      <c r="K116" s="83"/>
       <c r="L116" s="35"/>
       <c r="M116" s="21"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
       <c r="P116" s="15"/>
       <c r="Q116" s="15"/>
-      <c r="R116" s="85"/>
-      <c r="S116" s="75"/>
+      <c r="R116" s="83"/>
+      <c r="S116" s="73"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="65"/>
-      <c r="B117" s="79"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="77"/>
       <c r="C117" s="5"/>
       <c r="D117" s="28"/>
       <c r="E117" s="36"/>
@@ -4526,40 +4520,48 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="86"/>
+      <c r="K117" s="84"/>
       <c r="L117" s="36"/>
       <c r="M117" s="20"/>
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
       <c r="P117" s="14"/>
       <c r="Q117" s="14"/>
-      <c r="R117" s="86"/>
-      <c r="S117" s="76"/>
+      <c r="R117" s="84"/>
+      <c r="S117" s="74"/>
     </row>
     <row r="118" spans="1:19" ht="12.75" thickBot="1">
-      <c r="A118" s="65"/>
-      <c r="B118" s="81"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="87"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="87"/>
-      <c r="S118" s="78"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="53"/>
+      <c r="O118" s="53"/>
+      <c r="P118" s="53"/>
+      <c r="Q118" s="53"/>
+      <c r="R118" s="85"/>
+      <c r="S118" s="76"/>
     </row>
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E61:K61"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
@@ -4568,14 +4570,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E61:K61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008社会保険事業所の登録_厚生年金保険料率一覧.xlsx
@@ -1549,30 +1549,60 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,36 +1613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1984,67 +1984,67 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="42"/>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="109"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="99"/>
       <c r="S2" s="43"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="B3" s="102"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="93" t="s">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="110"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="93" t="s">
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="110"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
       <c r="R3" s="77"/>
       <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A4" s="59"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
@@ -3275,68 +3275,68 @@
     </row>
     <row r="61" spans="1:19" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="100" t="s">
+      <c r="E61" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="98"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="97" t="s">
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="98"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="98"/>
-      <c r="R61" s="99"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="109"/>
       <c r="S61" s="63"/>
     </row>
     <row r="62" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A62" s="59"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="89"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="E62" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="93" t="s">
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
       <c r="K62" s="37"/>
-      <c r="L62" s="94" t="s">
+      <c r="L62" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="93" t="s">
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
       <c r="R62" s="37"/>
       <c r="S62" s="64"/>
     </row>
     <row r="63" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1">
       <c r="A63" s="59"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="90"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="15" t="s">
         <v>12</v>
       </c>
@@ -4544,6 +4544,14 @@
     <row r="119" spans="1:19" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="E61:K61"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:K2"/>
@@ -4552,14 +4560,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="E61:K61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
